--- a/result/chenting_20151124_noon_2.mat3.xlsx
+++ b/result/chenting_20151124_noon_2.mat3.xlsx
@@ -415,16 +415,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4849080443382263</v>
+        <v>48.11359659830729</v>
       </c>
       <c r="C2" t="n">
-        <v>158117.4895833333</v>
+        <v>13723.24055989583</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5785872886578242</v>
+        <v>47.65909671783447</v>
       </c>
       <c r="E2" t="n">
-        <v>158117.5794270833</v>
+        <v>13722.7861328125</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -432,16 +432,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4817817608515422</v>
+        <v>16.65479183197021</v>
       </c>
       <c r="C3" t="n">
-        <v>154596.234375</v>
+        <v>13431.31380208333</v>
       </c>
       <c r="D3" t="n">
-        <v>0.446780634423097</v>
+        <v>17.5489862759908</v>
       </c>
       <c r="E3" t="n">
-        <v>154596.1979166667</v>
+        <v>13432.20817057292</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -449,16 +449,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4328967233498891</v>
+        <v>20.87191836039225</v>
       </c>
       <c r="C4" t="n">
-        <v>151151.5729166667</v>
+        <v>13178.33072916667</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3906914666295052</v>
+        <v>21.06988191604614</v>
       </c>
       <c r="E4" t="n">
-        <v>151151.5325520833</v>
+        <v>13178.52897135417</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -466,16 +466,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3756304482618968</v>
+        <v>13.30818271636963</v>
       </c>
       <c r="C5" t="n">
-        <v>147785.5052083333</v>
+        <v>12918.89029947917</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3542540532847245</v>
+        <v>13.53478240966797</v>
       </c>
       <c r="E5" t="n">
-        <v>147785.4791666667</v>
+        <v>12919.11678059896</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -483,16 +483,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3670778572559357</v>
+        <v>22.89203707377116</v>
       </c>
       <c r="C6" t="n">
-        <v>144497.7083333333</v>
+        <v>12681.75911458333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3302738765875499</v>
+        <v>22.78849601745605</v>
       </c>
       <c r="E6" t="n">
-        <v>144497.67578125</v>
+        <v>12681.65584309896</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -500,16 +500,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3200251857439677</v>
+        <v>26.88874371846517</v>
       </c>
       <c r="C7" t="n">
-        <v>141286.4739583333</v>
+        <v>12444.515625</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2770850049952666</v>
+        <v>27.13190110524495</v>
       </c>
       <c r="E7" t="n">
-        <v>141286.4322916667</v>
+        <v>12444.75887044271</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -517,16 +517,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2531052430470784</v>
+        <v>12.65919303894043</v>
       </c>
       <c r="C8" t="n">
-        <v>138149.6145833333</v>
+        <v>12194.3359375</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2241509494682153</v>
+        <v>12.39856727917989</v>
       </c>
       <c r="E8" t="n">
-        <v>138149.5859375</v>
+        <v>12194.07543945312</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -534,16 +534,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2383934408426285</v>
+        <v>4.851779619852702</v>
       </c>
       <c r="C9" t="n">
-        <v>135085.0052083333</v>
+        <v>11955.14095052083</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2113217065731684</v>
+        <v>4.907694419225057</v>
       </c>
       <c r="E9" t="n">
-        <v>135084.9752604167</v>
+        <v>11955.19677734375</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -551,16 +551,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2464218288660049</v>
+        <v>2.959057331085205</v>
       </c>
       <c r="C10" t="n">
-        <v>132090.5520833333</v>
+        <v>11726.38248697917</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2145508887867133</v>
+        <v>3.062881151835124</v>
       </c>
       <c r="E10" t="n">
-        <v>132090.52734375</v>
+        <v>11726.48673502604</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -568,16 +568,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3064866413672765</v>
+        <v>8.449639320373535</v>
       </c>
       <c r="C11" t="n">
-        <v>129164.25</v>
+        <v>11509.24088541667</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2479694870611032</v>
+        <v>8.16943895816803</v>
       </c>
       <c r="E11" t="n">
-        <v>129164.193359375</v>
+        <v>11508.96053059896</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -585,16 +585,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2436191886663437</v>
+        <v>1.925043026606242</v>
       </c>
       <c r="C12" t="n">
-        <v>126303.9869791667</v>
+        <v>11284.46126302083</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2163294653097788</v>
+        <v>1.343518008788427</v>
       </c>
       <c r="E12" t="n">
-        <v>126303.9583333333</v>
+        <v>11283.87947591146</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -602,16 +602,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2118473052978516</v>
+        <v>1.450626075267792</v>
       </c>
       <c r="C13" t="n">
-        <v>123508.109375</v>
+        <v>11069.94401041667</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2186978881557783</v>
+        <v>1.725811392068863</v>
       </c>
       <c r="E13" t="n">
-        <v>123508.1171875</v>
+        <v>11070.21899414062</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -619,16 +619,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3178753306468328</v>
+        <v>1.546710213025411</v>
       </c>
       <c r="C14" t="n">
-        <v>120774.9739583333</v>
+        <v>10860.01627604167</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2613365563253562</v>
+        <v>1.44288033246994</v>
       </c>
       <c r="E14" t="n">
-        <v>120774.9173177083</v>
+        <v>10859.91259765625</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -636,16 +636,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1519615029295286</v>
+        <v>1.32103951772054</v>
       </c>
       <c r="C15" t="n">
-        <v>118102.5182291667</v>
+        <v>10653.69010416667</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1377886921788255</v>
+        <v>1.339393834273021</v>
       </c>
       <c r="E15" t="n">
-        <v>118102.505859375</v>
+        <v>10653.70857747396</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -653,16 +653,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.262516625225544</v>
+        <v>1.122434318065643</v>
       </c>
       <c r="C16" t="n">
-        <v>115489.6458333333</v>
+        <v>10451.19173177083</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2208065868665775</v>
+        <v>1.19202595949173</v>
       </c>
       <c r="E16" t="n">
-        <v>115489.603515625</v>
+        <v>10451.26139322917</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -670,16 +670,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1632122049729029</v>
+        <v>0.7360477447509766</v>
       </c>
       <c r="C17" t="n">
-        <v>112934.390625</v>
+        <v>10252.259765625</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1397278175378839</v>
+        <v>0.8064058075348536</v>
       </c>
       <c r="E17" t="n">
-        <v>112934.365234375</v>
+        <v>10252.32991536458</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -687,16 +687,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2335012778639793</v>
+        <v>1.88006846110026</v>
       </c>
       <c r="C18" t="n">
-        <v>110435.6197916667</v>
+        <v>10058.5390625</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1930070395270983</v>
+        <v>2.01020614306132</v>
       </c>
       <c r="E18" t="n">
-        <v>110435.5755208333</v>
+        <v>10058.66935221354</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -704,16 +704,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1648594637711843</v>
+        <v>0.7446891665458679</v>
       </c>
       <c r="C19" t="n">
-        <v>107991.6432291667</v>
+        <v>9866.230143229166</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1435331739485264</v>
+        <v>0.6834728320439657</v>
       </c>
       <c r="E19" t="n">
-        <v>107991.6204427083</v>
+        <v>9866.168863932291</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -721,16 +721,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1856206531325976</v>
+        <v>0.3077854613463084</v>
       </c>
       <c r="C20" t="n">
-        <v>105601.3333333333</v>
+        <v>9678.180013020834</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1533592206736406</v>
+        <v>0.3113706099490325</v>
       </c>
       <c r="E20" t="n">
-        <v>105601.3020833333</v>
+        <v>9678.183430989584</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -738,16 +738,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1932589436570803</v>
+        <v>0.4581401149431865</v>
       </c>
       <c r="C21" t="n">
-        <v>103263.2239583333</v>
+        <v>9494.1953125</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1639759435007969</v>
+        <v>0.5107754617929459</v>
       </c>
       <c r="E21" t="n">
-        <v>103263.1946614583</v>
+        <v>9494.248046875</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -755,16 +755,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1475663334131241</v>
+        <v>0.557173083225886</v>
       </c>
       <c r="C22" t="n">
-        <v>100976.0390625</v>
+        <v>9313.565755208334</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1199475427468618</v>
+        <v>0.659671018520991</v>
       </c>
       <c r="E22" t="n">
-        <v>100976.0104166667</v>
+        <v>9313.66845703125</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -772,16 +772,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1957503035664558</v>
+        <v>0.1690906683603922</v>
       </c>
       <c r="C23" t="n">
-        <v>98738.6953125</v>
+        <v>9135.7705078125</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1570668431619803</v>
+        <v>0.1648617895940939</v>
       </c>
       <c r="E23" t="n">
-        <v>98738.65755208333</v>
+        <v>9135.766194661459</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -789,16 +789,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1527647102872531</v>
+        <v>0.2659267087777455</v>
       </c>
       <c r="C24" t="n">
-        <v>96549.80729166667</v>
+        <v>8961.717122395834</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1274819374084473</v>
+        <v>0.35100852449735</v>
       </c>
       <c r="E24" t="n">
-        <v>96549.78385416667</v>
+        <v>8961.802083333334</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,16 +806,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1517629971106847</v>
+        <v>0.2655275960763295</v>
       </c>
       <c r="C25" t="n">
-        <v>94408.39322916667</v>
+        <v>8790.773111979166</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1217704049001137</v>
+        <v>0.1923679771522681</v>
       </c>
       <c r="E25" t="n">
-        <v>94408.36263020833</v>
+        <v>8790.7001953125</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -823,16 +823,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1352141251166662</v>
+        <v>0.1831369946400324</v>
       </c>
       <c r="C26" t="n">
-        <v>92313.24479166667</v>
+        <v>8622.896158854166</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1063091723869244</v>
+        <v>0.1641375434895357</v>
       </c>
       <c r="E26" t="n">
-        <v>92313.216796875</v>
+        <v>8622.876953125</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -840,16 +840,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1741847718755404</v>
+        <v>0.1578352650006612</v>
       </c>
       <c r="C27" t="n">
-        <v>90263.36197916667</v>
+        <v>8458.169270833334</v>
       </c>
       <c r="D27" t="n">
-        <v>0.140635451922814</v>
+        <v>0.1182802182932695</v>
       </c>
       <c r="E27" t="n">
-        <v>90263.328125</v>
+        <v>8458.130045572916</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -857,16 +857,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1493083462119102</v>
+        <v>0.1634203667442004</v>
       </c>
       <c r="C28" t="n">
-        <v>88257.58072916667</v>
+        <v>8296.498372395834</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1168274007116755</v>
+        <v>0.1078740463902553</v>
       </c>
       <c r="E28" t="n">
-        <v>88257.54557291667</v>
+        <v>8296.442789713541</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -874,16 +874,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1629086633523305</v>
+        <v>0.2448291877905528</v>
       </c>
       <c r="C29" t="n">
-        <v>86294.98958333333</v>
+        <v>8137.873697916667</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1340468153357506</v>
+        <v>0.1828410315016905</v>
       </c>
       <c r="E29" t="n">
-        <v>86294.9609375</v>
+        <v>8137.811808268229</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -891,16 +891,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.163545918961366</v>
+        <v>0.1971815700332324</v>
       </c>
       <c r="C30" t="n">
-        <v>84374.546875</v>
+        <v>7982.05517578125</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1374469846487045</v>
+        <v>0.1253008445103963</v>
       </c>
       <c r="E30" t="n">
-        <v>84374.51888020833</v>
+        <v>7981.983154296875</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -908,16 +908,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1476874674359957</v>
+        <v>0.1298138151566187</v>
       </c>
       <c r="C31" t="n">
-        <v>82495.3046875</v>
+        <v>7829.08740234375</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1221244450037678</v>
+        <v>0.09391057242949803</v>
       </c>
       <c r="E31" t="n">
-        <v>82495.279296875</v>
+        <v>7829.051432291667</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -925,16 +925,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1251818140347799</v>
+        <v>0.08987964193026225</v>
       </c>
       <c r="C32" t="n">
-        <v>80656.33072916667</v>
+        <v>7678.96142578125</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1011345439280073</v>
+        <v>0.1116372502098481</v>
       </c>
       <c r="E32" t="n">
-        <v>80656.30338541667</v>
+        <v>7678.983194986979</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -942,16 +942,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1728249515096346</v>
+        <v>0.176972322165966</v>
       </c>
       <c r="C33" t="n">
-        <v>78856.80729166667</v>
+        <v>7531.736002604167</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1409575336923202</v>
+        <v>0.1225524873783191</v>
       </c>
       <c r="E33" t="n">
-        <v>78856.77473958333</v>
+        <v>7531.681640625</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -959,16 +959,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1261530394355456</v>
+        <v>0.1520009636878967</v>
       </c>
       <c r="C34" t="n">
-        <v>77095.67447916667</v>
+        <v>7387.124186197917</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1007337886840105</v>
+        <v>0.1048590360830228</v>
       </c>
       <c r="E34" t="n">
-        <v>77095.64713541667</v>
+        <v>7387.077067057292</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -976,16 +976,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1542809630433718</v>
+        <v>0.1416818325718244</v>
       </c>
       <c r="C35" t="n">
-        <v>75372.24739583333</v>
+        <v>7245.19482421875</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1187479076907039</v>
+        <v>0.09124330865840118</v>
       </c>
       <c r="E35" t="n">
-        <v>75372.21158854167</v>
+        <v>7245.14453125</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -993,16 +993,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1227938756346703</v>
+        <v>0.1712422197063764</v>
       </c>
       <c r="C36" t="n">
-        <v>73685.55989583333</v>
+        <v>7105.930338541667</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1058652183661858</v>
+        <v>0.09904208779335022</v>
       </c>
       <c r="E36" t="n">
-        <v>73685.54231770833</v>
+        <v>7105.858317057292</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1010,16 +1010,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1794465929269791</v>
+        <v>0.194416232407093</v>
       </c>
       <c r="C37" t="n">
-        <v>72034.98177083333</v>
+        <v>6969.2333984375</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1392363247772058</v>
+        <v>0.116599749152859</v>
       </c>
       <c r="E37" t="n">
-        <v>72034.94270833333</v>
+        <v>6969.155680338542</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1027,16 +1027,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1120629745225112</v>
+        <v>0.1058103553950787</v>
       </c>
       <c r="C38" t="n">
-        <v>70419.46354166667</v>
+        <v>6834.951985677083</v>
       </c>
       <c r="D38" t="n">
-        <v>0.09973952670892079</v>
+        <v>0.07680536744495232</v>
       </c>
       <c r="E38" t="n">
-        <v>70419.45182291667</v>
+        <v>6834.923055013021</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1044,16 +1044,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1663291752338409</v>
+        <v>0.1611502443750699</v>
       </c>
       <c r="C39" t="n">
-        <v>68838.51041666667</v>
+        <v>6703.305826822917</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1247880424683293</v>
+        <v>0.1025553594032923</v>
       </c>
       <c r="E39" t="n">
-        <v>68838.46940104167</v>
+        <v>6703.247151692708</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1061,16 +1061,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1327927907307943</v>
+        <v>0.1509950781861941</v>
       </c>
       <c r="C40" t="n">
-        <v>67291.15625</v>
+        <v>6574.036295572917</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1011582504337033</v>
+        <v>0.08918218159427245</v>
       </c>
       <c r="E40" t="n">
-        <v>67291.125</v>
+        <v>6573.974446614583</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1078,16 +1078,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1456885412335396</v>
+        <v>0.1365138019124667</v>
       </c>
       <c r="C41" t="n">
-        <v>65776.8125</v>
+        <v>6447.156575520833</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1066890026753147</v>
+        <v>0.08772644338508447</v>
       </c>
       <c r="E41" t="n">
-        <v>65776.77018229167</v>
+        <v>6447.107706705729</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1095,16 +1095,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1349216178059578</v>
+        <v>0.134738102555275</v>
       </c>
       <c r="C42" t="n">
-        <v>64294.67447916666</v>
+        <v>6322.647298177083</v>
       </c>
       <c r="D42" t="n">
-        <v>0.09973419923335314</v>
+        <v>0.1413253272573153</v>
       </c>
       <c r="E42" t="n">
-        <v>64294.63932291666</v>
+        <v>6322.654012044271</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1112,16 +1112,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1306289359927177</v>
+        <v>0.1118889215091864</v>
       </c>
       <c r="C43" t="n">
-        <v>62844.10026041666</v>
+        <v>6200.43212890625</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1012149543190996</v>
+        <v>0.08841965099175771</v>
       </c>
       <c r="E43" t="n">
-        <v>62844.06966145834</v>
+        <v>6200.40869140625</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1129,16 +1129,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1467965617775917</v>
+        <v>0.1417945101857185</v>
       </c>
       <c r="C44" t="n">
-        <v>61424.41666666666</v>
+        <v>6080.537272135417</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1095010209828615</v>
+        <v>0.1115462426096201</v>
       </c>
       <c r="E44" t="n">
-        <v>61424.37923177084</v>
+        <v>6080.507080078125</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1146,16 +1146,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1188438062866529</v>
+        <v>0.1153662626941999</v>
       </c>
       <c r="C45" t="n">
-        <v>60034.91145833334</v>
+        <v>5962.81591796875</v>
       </c>
       <c r="D45" t="n">
-        <v>0.08914506947621703</v>
+        <v>0.09325603023171425</v>
       </c>
       <c r="E45" t="n">
-        <v>60034.8818359375</v>
+        <v>5962.7939453125</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1163,16 +1163,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1395324592789014</v>
+        <v>0.1322081970671813</v>
       </c>
       <c r="C46" t="n">
-        <v>58675.01432291666</v>
+        <v>5847.32568359375</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1021602060645819</v>
+        <v>0.09187946903208892</v>
       </c>
       <c r="E46" t="n">
-        <v>58674.97688802084</v>
+        <v>5847.28515625</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1180,16 +1180,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1414250855644544</v>
+        <v>0.128182664513588</v>
       </c>
       <c r="C47" t="n">
-        <v>57344.0390625</v>
+        <v>5733.964518229167</v>
       </c>
       <c r="D47" t="n">
-        <v>0.103165948142608</v>
+        <v>0.1461609521259864</v>
       </c>
       <c r="E47" t="n">
-        <v>57344.0009765625</v>
+        <v>5733.982584635417</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1197,16 +1197,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1350337738792101</v>
+        <v>0.1772699827949206</v>
       </c>
       <c r="C48" t="n">
-        <v>56041.37760416666</v>
+        <v>5622.7705078125</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1010589571669698</v>
+        <v>0.1040925073126952</v>
       </c>
       <c r="E48" t="n">
-        <v>56041.34342447916</v>
+        <v>5622.697387695312</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1214,16 +1214,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1366950497031212</v>
+        <v>0.1019988668461641</v>
       </c>
       <c r="C49" t="n">
-        <v>54766.45703125</v>
+        <v>5513.51953125</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1019998860235016</v>
+        <v>0.08335954292366902</v>
       </c>
       <c r="E49" t="n">
-        <v>54766.42252604166</v>
+        <v>5513.500854492188</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1231,16 +1231,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1619523862997691</v>
+        <v>0.1384290580948194</v>
       </c>
       <c r="C50" t="n">
-        <v>53518.70182291666</v>
+        <v>5406.418294270833</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1213882900774479</v>
+        <v>0.09418362192809582</v>
       </c>
       <c r="E50" t="n">
-        <v>53518.66048177084</v>
+        <v>5406.373942057292</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1248,16 +1248,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1287662486235301</v>
+        <v>0.1307695582509041</v>
       </c>
       <c r="C51" t="n">
-        <v>52297.453125</v>
+        <v>5301.271321614583</v>
       </c>
       <c r="D51" t="n">
-        <v>0.107615763011078</v>
+        <v>0.08165107294917107</v>
       </c>
       <c r="E51" t="n">
-        <v>52297.43229166666</v>
+        <v>5301.222249348958</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1265,16 +1265,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1636809955040614</v>
+        <v>0.1514344066381454</v>
       </c>
       <c r="C52" t="n">
-        <v>51102.30078125</v>
+        <v>5198.11083984375</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1233844164138039</v>
+        <v>0.09297430173804362</v>
       </c>
       <c r="E52" t="n">
-        <v>51102.259765625</v>
+        <v>5198.052368164062</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1282,16 +1282,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1298868805170059</v>
+        <v>0.1822860563794772</v>
       </c>
       <c r="C53" t="n">
-        <v>49932.53255208334</v>
+        <v>5096.887858072917</v>
       </c>
       <c r="D53" t="n">
-        <v>0.09981155379985769</v>
+        <v>0.1122874853511651</v>
       </c>
       <c r="E53" t="n">
-        <v>49932.501953125</v>
+        <v>5096.817911783854</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1299,16 +1299,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1431522419055303</v>
+        <v>0.1026572038729986</v>
       </c>
       <c r="C54" t="n">
-        <v>48787.76041666666</v>
+        <v>4997.4462890625</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1068029099454482</v>
+        <v>0.09487380087375641</v>
       </c>
       <c r="E54" t="n">
-        <v>48787.72428385416</v>
+        <v>4997.438598632812</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1316,16 +1316,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1341731697320938</v>
+        <v>0.1926536659399668</v>
       </c>
       <c r="C55" t="n">
-        <v>47667.37760416666</v>
+        <v>4900.033365885417</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1001182502756516</v>
+        <v>0.1036346610635519</v>
       </c>
       <c r="E55" t="n">
-        <v>47667.341796875</v>
+        <v>4899.944417317708</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1333,16 +1333,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1379177992542585</v>
+        <v>0.1098866797983646</v>
       </c>
       <c r="C56" t="n">
-        <v>46570.90755208334</v>
+        <v>4804.27783203125</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1028186023856203</v>
+        <v>0.08614819372693698</v>
       </c>
       <c r="E56" t="n">
-        <v>46570.87272135416</v>
+        <v>4804.254150390625</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1350,16 +1350,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1361327966054281</v>
+        <v>0.1276539613803228</v>
       </c>
       <c r="C57" t="n">
-        <v>45497.84244791666</v>
+        <v>4710.411783854167</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1006501667822401</v>
+        <v>0.08372056111693382</v>
       </c>
       <c r="E57" t="n">
-        <v>45497.80826822916</v>
+        <v>4710.367919921875</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1367,16 +1367,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1327626233299573</v>
+        <v>0.1624158645669619</v>
       </c>
       <c r="C58" t="n">
-        <v>44447.69921875</v>
+        <v>4618.324055989583</v>
       </c>
       <c r="D58" t="n">
-        <v>0.09947963772962491</v>
+        <v>0.09511825814843178</v>
       </c>
       <c r="E58" t="n">
-        <v>44447.66536458334</v>
+        <v>4618.256754557292</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1384,16 +1384,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1443218340476354</v>
+        <v>0.1218831973771254</v>
       </c>
       <c r="C59" t="n">
-        <v>43420.0234375</v>
+        <v>4527.888997395833</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1066456741342942</v>
+        <v>0.08277039354046185</v>
       </c>
       <c r="E59" t="n">
-        <v>43419.9853515625</v>
+        <v>4527.849853515625</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1401,16 +1401,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1316074877977371</v>
+        <v>0.1009780118862788</v>
       </c>
       <c r="C60" t="n">
-        <v>42414.29947916666</v>
+        <v>4439.171875</v>
       </c>
       <c r="D60" t="n">
-        <v>0.09854988008737564</v>
+        <v>0.08352173989017804</v>
       </c>
       <c r="E60" t="n">
-        <v>42414.2666015625</v>
+        <v>4439.154256184896</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1418,16 +1418,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1440450275937716</v>
+        <v>0.1460692075391611</v>
       </c>
       <c r="C61" t="n">
-        <v>41430.13151041666</v>
+        <v>4352.1884765625</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1063622341801723</v>
+        <v>0.09894207244118054</v>
       </c>
       <c r="E61" t="n">
-        <v>41430.0947265625</v>
+        <v>4352.141398111979</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1435,16 +1435,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1300276517868042</v>
+        <v>0.2439565012852351</v>
       </c>
       <c r="C62" t="n">
-        <v>40467.02864583334</v>
+        <v>4266.894694010417</v>
       </c>
       <c r="D62" t="n">
-        <v>0.09986176807433367</v>
+        <v>0.1498894728720188</v>
       </c>
       <c r="E62" t="n">
-        <v>40466.9990234375</v>
+        <v>4266.80078125</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1452,16 +1452,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.138190766175588</v>
+        <v>0.1492176105578741</v>
       </c>
       <c r="C63" t="n">
-        <v>39524.58723958334</v>
+        <v>4183.021809895833</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1028401438767711</v>
+        <v>0.08820975137253602</v>
       </c>
       <c r="E63" t="n">
-        <v>39524.55208333334</v>
+        <v>4182.960774739583</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1469,16 +1469,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1360138803720474</v>
+        <v>0.110774353146553</v>
       </c>
       <c r="C64" t="n">
-        <v>38602.359375</v>
+        <v>4100.77978515625</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1020881884420912</v>
+        <v>0.1060837898403406</v>
       </c>
       <c r="E64" t="n">
-        <v>38602.32486979166</v>
+        <v>4100.774983723958</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1486,16 +1486,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1377334346373876</v>
+        <v>0.09842778990666072</v>
       </c>
       <c r="C65" t="n">
-        <v>37699.953125</v>
+        <v>4020.118977864583</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1033621343473593</v>
+        <v>0.1073197070509195</v>
       </c>
       <c r="E65" t="n">
-        <v>37699.92024739584</v>
+        <v>4020.127807617188</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1503,16 +1503,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1330975045760473</v>
+        <v>0.1391422227025032</v>
       </c>
       <c r="C66" t="n">
-        <v>36816.9453125</v>
+        <v>3941.03271484375</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1009544938181837</v>
+        <v>0.09037545385460059</v>
       </c>
       <c r="E66" t="n">
-        <v>36816.91373697916</v>
+        <v>3940.983947753906</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1520,16 +1520,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1465815578897794</v>
+        <v>0.1148779715100924</v>
       </c>
       <c r="C67" t="n">
-        <v>35952.94270833334</v>
+        <v>3863.376383463542</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1098168039073547</v>
+        <v>0.08730432018637657</v>
       </c>
       <c r="E67" t="n">
-        <v>35952.90690104166</v>
+        <v>3863.348795572917</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1537,16 +1537,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1287144646048546</v>
+        <v>0.1404508724808693</v>
       </c>
       <c r="C68" t="n">
-        <v>35107.52994791666</v>
+        <v>3787.235432942708</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1008461085148156</v>
+        <v>0.08242946242292722</v>
       </c>
       <c r="E68" t="n">
-        <v>35107.5029296875</v>
+        <v>3787.177388509115</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1554,16 +1554,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1392692625522614</v>
+        <v>0.1458463942011198</v>
       </c>
       <c r="C69" t="n">
-        <v>34280.38151041666</v>
+        <v>3712.513346354167</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1056769577165445</v>
+        <v>0.11229158192873</v>
       </c>
       <c r="E69" t="n">
-        <v>34280.34798177084</v>
+        <v>3712.479736328125</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1571,16 +1571,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1332410722970963</v>
+        <v>0.1344060450792313</v>
       </c>
       <c r="C70" t="n">
-        <v>33471.06380208334</v>
+        <v>3639.189615885417</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1030957981323202</v>
+        <v>0.08845600423713525</v>
       </c>
       <c r="E70" t="n">
-        <v>33471.03287760416</v>
+        <v>3639.14365641276</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1588,16 +1588,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1398704424500465</v>
+        <v>0.1407584870855013</v>
       </c>
       <c r="C71" t="n">
-        <v>32679.25520833333</v>
+        <v>3567.271647135417</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1082408555472891</v>
+        <v>0.08680508472025394</v>
       </c>
       <c r="E71" t="n">
-        <v>32679.22347005208</v>
+        <v>3567.21767171224</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1605,16 +1605,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1383611609538396</v>
+        <v>0.09973674267530441</v>
       </c>
       <c r="C72" t="n">
-        <v>31904.576171875</v>
+        <v>3496.675862630208</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1075232786436876</v>
+        <v>0.1008294895291328</v>
       </c>
       <c r="E72" t="n">
-        <v>31904.54475911458</v>
+        <v>3496.677001953125</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1622,16 +1622,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1435988545417786</v>
+        <v>0.1014216827849547</v>
       </c>
       <c r="C73" t="n">
-        <v>31146.68424479167</v>
+        <v>3427.462483723958</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1117404053608577</v>
+        <v>0.09395892110963662</v>
       </c>
       <c r="E73" t="n">
-        <v>31146.65266927083</v>
+        <v>3427.455057779948</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1639,16 +1639,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1368628814816475</v>
+        <v>0.2107543746630351</v>
       </c>
       <c r="C74" t="n">
-        <v>30405.228515625</v>
+        <v>3359.67138671875</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1086695888079703</v>
+        <v>0.1387837994843721</v>
       </c>
       <c r="E74" t="n">
-        <v>30405.20035807292</v>
+        <v>3359.599466959635</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1656,16 +1656,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1390300244092941</v>
+        <v>0.0873539000749588</v>
       </c>
       <c r="C75" t="n">
-        <v>29679.88541666667</v>
+        <v>3292.942545572917</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1095845199500521</v>
+        <v>0.09615252849956353</v>
       </c>
       <c r="E75" t="n">
-        <v>29679.85579427083</v>
+        <v>3292.951375325521</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1673,16 +1673,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1396100347240766</v>
+        <v>0.1012932683030764</v>
       </c>
       <c r="C76" t="n">
-        <v>28970.31510416667</v>
+        <v>3227.616455078125</v>
       </c>
       <c r="D76" t="n">
-        <v>0.1102372827008367</v>
+        <v>0.09923729797204335</v>
       </c>
       <c r="E76" t="n">
-        <v>28970.2861328125</v>
+        <v>3227.61435953776</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1690,16 +1690,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.13615732640028</v>
+        <v>0.2032402902841568</v>
       </c>
       <c r="C77" t="n">
-        <v>28276.197265625</v>
+        <v>3163.628743489583</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1093009910546243</v>
+        <v>0.1177704284588496</v>
       </c>
       <c r="E77" t="n">
-        <v>28276.169921875</v>
+        <v>3163.543294270833</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1707,16 +1707,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.1455183898409208</v>
+        <v>0.08708494404951732</v>
       </c>
       <c r="C78" t="n">
-        <v>27597.22721354167</v>
+        <v>3100.645426432292</v>
       </c>
       <c r="D78" t="n">
-        <v>0.113609893557926</v>
+        <v>0.09043949780364831</v>
       </c>
       <c r="E78" t="n">
-        <v>27597.19563802083</v>
+        <v>3100.648763020833</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1724,16 +1724,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.139034166932106</v>
+        <v>0.1020978440841039</v>
       </c>
       <c r="C79" t="n">
-        <v>26933.076171875</v>
+        <v>3038.994384765625</v>
       </c>
       <c r="D79" t="n">
-        <v>0.1108704547708233</v>
+        <v>0.1036484371870756</v>
       </c>
       <c r="E79" t="n">
-        <v>26933.04801432292</v>
+        <v>3038.99599202474</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1741,16 +1741,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1464851101239522</v>
+        <v>0.1215571736296018</v>
       </c>
       <c r="C80" t="n">
-        <v>26283.466796875</v>
+        <v>2978.53076171875</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1153862942010164</v>
+        <v>0.07355601526796818</v>
       </c>
       <c r="E80" t="n">
-        <v>26283.43570963542</v>
+        <v>2978.482727050781</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1758,16 +1758,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.1391785790522893</v>
+        <v>0.09633273507157962</v>
       </c>
       <c r="C81" t="n">
-        <v>25648.072265625</v>
+        <v>2919.177571614583</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1134616723284125</v>
+        <v>0.07497934531420469</v>
       </c>
       <c r="E81" t="n">
-        <v>25648.04671223958</v>
+        <v>2919.156270345052</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1775,16 +1775,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>0.143098975221316</v>
+        <v>0.1696466008822123</v>
       </c>
       <c r="C82" t="n">
-        <v>25026.630859375</v>
+        <v>2861.061686197917</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1151838842779398</v>
+        <v>0.1044899063805739</v>
       </c>
       <c r="E82" t="n">
-        <v>25026.603515625</v>
+        <v>2860.996561686198</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1792,16 +1792,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1453080028295517</v>
+        <v>0.1889187023043633</v>
       </c>
       <c r="C83" t="n">
-        <v>24418.84309895833</v>
+        <v>2804.009440104167</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1165381803487738</v>
+        <v>0.110604874479274</v>
       </c>
       <c r="E83" t="n">
-        <v>24418.81380208333</v>
+        <v>2803.931172688802</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1809,16 +1809,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1490880449612935</v>
+        <v>0.1926389088233312</v>
       </c>
       <c r="C84" t="n">
-        <v>23824.43229166667</v>
+        <v>2748.038330078125</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1191883397599061</v>
+        <v>0.1386691946536303</v>
       </c>
       <c r="E84" t="n">
-        <v>23824.40234375</v>
+        <v>2747.984375</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1826,16 +1826,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1440561016400655</v>
+        <v>0.1115613753596942</v>
       </c>
       <c r="C85" t="n">
-        <v>23243.12239583333</v>
+        <v>2693.0625</v>
       </c>
       <c r="D85" t="n">
-        <v>0.117792286289235</v>
+        <v>0.08933462202548981</v>
       </c>
       <c r="E85" t="n">
-        <v>23243.09619140625</v>
+        <v>2693.040242513021</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1843,16 +1843,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1475926116108894</v>
+        <v>0.1423807740211487</v>
       </c>
       <c r="C86" t="n">
-        <v>22674.65559895833</v>
+        <v>2639.255452473958</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1196571188047528</v>
+        <v>0.0882568887124459</v>
       </c>
       <c r="E86" t="n">
-        <v>22674.62776692708</v>
+        <v>2639.201293945312</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1860,16 +1860,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1467469160755475</v>
+        <v>0.1742341369390488</v>
       </c>
       <c r="C87" t="n">
-        <v>22118.76171875</v>
+        <v>2586.487711588542</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1197043225790064</v>
+        <v>0.1195936212316155</v>
       </c>
       <c r="E87" t="n">
-        <v>22118.73470052083</v>
+        <v>2586.433085123698</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1877,16 +1877,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1462647691369057</v>
+        <v>0.1402448068062464</v>
       </c>
       <c r="C88" t="n">
-        <v>21575.18294270833</v>
+        <v>2534.673665364583</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1204731970404585</v>
+        <v>0.09833607698480289</v>
       </c>
       <c r="E88" t="n">
-        <v>21575.15755208333</v>
+        <v>2534.631795247396</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1894,16 +1894,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1468895301222801</v>
+        <v>0.1314675658941269</v>
       </c>
       <c r="C89" t="n">
-        <v>21043.67578125</v>
+        <v>2483.885823567708</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1219015397752325</v>
+        <v>0.08339890216787656</v>
       </c>
       <c r="E89" t="n">
-        <v>21043.65104166667</v>
+        <v>2483.837829589844</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1911,16 +1911,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1515959228078524</v>
+        <v>0.1906620313723882</v>
       </c>
       <c r="C90" t="n">
-        <v>20523.98958333333</v>
+        <v>2434.148681640625</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1244992210219304</v>
+        <v>0.1371129533896843</v>
       </c>
       <c r="E90" t="n">
-        <v>20523.96256510417</v>
+        <v>2434.095133463542</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1928,16 +1928,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1457756410042445</v>
+        <v>0.1212670703728994</v>
       </c>
       <c r="C91" t="n">
-        <v>20015.87434895833</v>
+        <v>2385.252115885417</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1226976936062177</v>
+        <v>0.140948281933864</v>
       </c>
       <c r="E91" t="n">
-        <v>20015.85123697917</v>
+        <v>2385.271850585938</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1945,16 +1945,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1466256628433863</v>
+        <v>0.1300804143150648</v>
       </c>
       <c r="C92" t="n">
-        <v>19519.10546875</v>
+        <v>2337.384195963542</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1235179534802834</v>
+        <v>0.108907758568724</v>
       </c>
       <c r="E92" t="n">
-        <v>19519.08235677083</v>
+        <v>2337.363037109375</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1962,16 +1962,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1494993170102437</v>
+        <v>0.1617424835761388</v>
       </c>
       <c r="C93" t="n">
-        <v>19033.44596354167</v>
+        <v>2290.469889322917</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1253362701584896</v>
+        <v>0.1468903372685114</v>
       </c>
       <c r="E93" t="n">
-        <v>19033.42220052083</v>
+        <v>2290.454996744792</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1979,16 +1979,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1494768609603246</v>
+        <v>0.1443307884037495</v>
       </c>
       <c r="C94" t="n">
-        <v>18558.66666666667</v>
+        <v>2244.422688802083</v>
       </c>
       <c r="D94" t="n">
-        <v>0.1261893911287189</v>
+        <v>0.09278964996337891</v>
       </c>
       <c r="E94" t="n">
-        <v>18558.64371744792</v>
+        <v>2244.371134440104</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1996,16 +1996,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1507255509495735</v>
+        <v>0.1644059096773466</v>
       </c>
       <c r="C95" t="n">
-        <v>18094.54947916667</v>
+        <v>2199.308186848958</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1277059769878785</v>
+        <v>0.09954379250605901</v>
       </c>
       <c r="E95" t="n">
-        <v>18094.52587890625</v>
+        <v>2199.243347167969</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2013,16 +2013,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1488157908121745</v>
+        <v>0.1555122683445612</v>
       </c>
       <c r="C96" t="n">
-        <v>17640.865234375</v>
+        <v>2155.044840494792</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1277291740601262</v>
+        <v>0.08737926185131073</v>
       </c>
       <c r="E96" t="n">
-        <v>17640.84456380208</v>
+        <v>2154.976765950521</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2030,16 +2030,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1511720245083173</v>
+        <v>0.1172480881214142</v>
       </c>
       <c r="C97" t="n">
-        <v>17197.41276041667</v>
+        <v>2111.61572265625</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1289583705365658</v>
+        <v>0.08706838078796864</v>
       </c>
       <c r="E97" t="n">
-        <v>17197.39095052083</v>
+        <v>2111.585591634115</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2047,16 +2047,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>0.154994065562884</v>
+        <v>0.07720393314957619</v>
       </c>
       <c r="C98" t="n">
-        <v>16763.97721354167</v>
+        <v>2069.033365885417</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1312824307630459</v>
+        <v>0.1081540249288082</v>
       </c>
       <c r="E98" t="n">
-        <v>16763.95377604167</v>
+        <v>2069.064208984375</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2064,16 +2064,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1494322816530863</v>
+        <v>0.0771002508699894</v>
       </c>
       <c r="C99" t="n">
-        <v>16340.34244791667</v>
+        <v>2027.322672526042</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1308319171269735</v>
+        <v>0.09935943533976872</v>
       </c>
       <c r="E99" t="n">
-        <v>16340.32421875</v>
+        <v>2027.344950358073</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2081,16 +2081,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1547372614343961</v>
+        <v>0.2269861822326978</v>
       </c>
       <c r="C100" t="n">
-        <v>15926.32552083333</v>
+        <v>1986.580485026042</v>
       </c>
       <c r="D100" t="n">
-        <v>0.1325309326251348</v>
+        <v>0.1342107405265172</v>
       </c>
       <c r="E100" t="n">
-        <v>15926.30338541667</v>
+        <v>1986.487721761068</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2098,16 +2098,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1553969184557597</v>
+        <v>0.2093192587296168</v>
       </c>
       <c r="C101" t="n">
-        <v>15521.71516927083</v>
+        <v>1946.475667317708</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1335519940281908</v>
+        <v>0.1257913019508123</v>
       </c>
       <c r="E101" t="n">
-        <v>15521.69311523438</v>
+        <v>1946.392161051432</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2115,16 +2115,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1554957355062167</v>
+        <v>0.1702021049956481</v>
       </c>
       <c r="C102" t="n">
-        <v>15126.31868489583</v>
+        <v>1907.137613932292</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1342195852970084</v>
+        <v>0.1122703365981579</v>
       </c>
       <c r="E102" t="n">
-        <v>15126.29720052083</v>
+        <v>1907.079681396484</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2132,16 +2132,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1519492094715436</v>
+        <v>0.1121902987360954</v>
       </c>
       <c r="C103" t="n">
-        <v>14739.94401041667</v>
+        <v>1868.553466796875</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1340175392106175</v>
+        <v>0.07918143800149362</v>
       </c>
       <c r="E103" t="n">
-        <v>14739.92602539062</v>
+        <v>1868.52045694987</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2149,16 +2149,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1560156444708506</v>
+        <v>0.1295764148235321</v>
       </c>
       <c r="C104" t="n">
-        <v>14362.41764322917</v>
+        <v>1830.805460611979</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1358771103744706</v>
+        <v>0.1106687517215808</v>
       </c>
       <c r="E104" t="n">
-        <v>14362.39754231771</v>
+        <v>1830.786560058594</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2166,16 +2166,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1569831098119418</v>
+        <v>0.1151715293526649</v>
       </c>
       <c r="C105" t="n">
-        <v>13993.5419921875</v>
+        <v>1793.770670572917</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1368020648757617</v>
+        <v>0.09914617612957954</v>
       </c>
       <c r="E105" t="n">
-        <v>13993.521484375</v>
+        <v>1793.754659016927</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2183,16 +2183,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>0.1579919929305712</v>
+        <v>0.1174556575715542</v>
       </c>
       <c r="C106" t="n">
-        <v>13633.14453125</v>
+        <v>1757.486368815104</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1377037726342678</v>
+        <v>0.08383000052223603</v>
       </c>
       <c r="E106" t="n">
-        <v>13633.1240234375</v>
+        <v>1757.452728271484</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2200,16 +2200,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1566445454955101</v>
+        <v>0.1307625894745191</v>
       </c>
       <c r="C107" t="n">
-        <v>13281.04622395833</v>
+        <v>1721.930216471354</v>
       </c>
       <c r="D107" t="n">
-        <v>0.1384111264099677</v>
+        <v>0.09701202126840751</v>
       </c>
       <c r="E107" t="n">
-        <v>13281.02815755208</v>
+        <v>1721.896453857422</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2217,16 +2217,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1630177373687426</v>
+        <v>0.1737122014164925</v>
       </c>
       <c r="C108" t="n">
-        <v>12937.083984375</v>
+        <v>1687.109781901042</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1412473920111855</v>
+        <v>0.1144412451734145</v>
       </c>
       <c r="E108" t="n">
-        <v>12937.06209309896</v>
+        <v>1687.050496419271</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2234,16 +2234,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>0.1582526514927546</v>
+        <v>0.2264255235592524</v>
       </c>
       <c r="C109" t="n">
-        <v>12601.0712890625</v>
+        <v>1652.994384765625</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1407943367958069</v>
+        <v>0.1530352222422759</v>
       </c>
       <c r="E109" t="n">
-        <v>12601.05387369792</v>
+        <v>1652.920989990234</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2251,16 +2251,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>0.1625986645619074</v>
+        <v>0.1268341019749641</v>
       </c>
       <c r="C110" t="n">
-        <v>12272.86197916667</v>
+        <v>1619.409057617188</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1426038704812527</v>
+        <v>0.08661985707779725</v>
       </c>
       <c r="E110" t="n">
-        <v>12272.84187825521</v>
+        <v>1619.368845621745</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2268,16 +2268,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1615143741170565</v>
+        <v>0.1236732676625252</v>
       </c>
       <c r="C111" t="n">
-        <v>11952.27864583333</v>
+        <v>1586.584838867188</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1428347813586394</v>
+        <v>0.1347236925115188</v>
       </c>
       <c r="E111" t="n">
-        <v>11952.26000976562</v>
+        <v>1586.595916748047</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2285,16 +2285,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1625733971595764</v>
+        <v>0.08909143383304279</v>
       </c>
       <c r="C112" t="n">
-        <v>11639.17122395833</v>
+        <v>1554.383544921875</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1435826892654101</v>
+        <v>0.1152842889229457</v>
       </c>
       <c r="E112" t="n">
-        <v>11639.15242513021</v>
+        <v>1554.40971883138</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2302,16 +2302,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1612476209799449</v>
+        <v>0.09953791151444118</v>
       </c>
       <c r="C113" t="n">
-        <v>11333.375</v>
+        <v>1522.868448893229</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1437871577218175</v>
+        <v>0.1190103050321341</v>
       </c>
       <c r="E113" t="n">
-        <v>11333.35758463542</v>
+        <v>1522.887919108073</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2319,16 +2319,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>0.161897803346316</v>
+        <v>0.2194167499740919</v>
       </c>
       <c r="C114" t="n">
-        <v>11034.74674479167</v>
+        <v>1492.097127278646</v>
       </c>
       <c r="D114" t="n">
-        <v>0.144632109751304</v>
+        <v>0.1285196415459116</v>
       </c>
       <c r="E114" t="n">
-        <v>11034.72957356771</v>
+        <v>1492.006225585938</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2336,16 +2336,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1604978789885839</v>
+        <v>0.1767934784293175</v>
       </c>
       <c r="C115" t="n">
-        <v>10743.1298828125</v>
+        <v>1461.784220377604</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1450087831666072</v>
+        <v>0.1212950330227613</v>
       </c>
       <c r="E115" t="n">
-        <v>10743.11466471354</v>
+        <v>1461.728698730469</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2353,16 +2353,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1655857513348261</v>
+        <v>0.1465925375620524</v>
       </c>
       <c r="C116" t="n">
-        <v>10458.38313802083</v>
+        <v>1432.090657552083</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1472256174311042</v>
+        <v>0.08993694434563319</v>
       </c>
       <c r="E116" t="n">
-        <v>10458.36507161458</v>
+        <v>1432.034037272135</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2370,16 +2370,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1645567839344343</v>
+        <v>0.1552919472257296</v>
       </c>
       <c r="C117" t="n">
-        <v>10180.35221354167</v>
+        <v>1403.030680338542</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1478364734599988</v>
+        <v>0.09934125530223052</v>
       </c>
       <c r="E117" t="n">
-        <v>10180.33536783854</v>
+        <v>1402.974700927734</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2387,16 +2387,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>0.1669355109333992</v>
+        <v>0.167507899304231</v>
       </c>
       <c r="C118" t="n">
-        <v>9908.90625</v>
+        <v>1374.560099283854</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1492600574468573</v>
+        <v>0.1036372712502877</v>
       </c>
       <c r="E118" t="n">
-        <v>9908.888509114584</v>
+        <v>1374.496215820312</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2404,16 +2404,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>0.167174443602562</v>
+        <v>0.1002192248900731</v>
       </c>
       <c r="C119" t="n">
-        <v>9643.8984375</v>
+        <v>1346.583821614583</v>
       </c>
       <c r="D119" t="n">
-        <v>0.150066530952851</v>
+        <v>0.09878906918068726</v>
       </c>
       <c r="E119" t="n">
-        <v>9643.881754557291</v>
+        <v>1346.582427978516</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2421,16 +2421,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>0.1676444485783577</v>
+        <v>0.08882797509431839</v>
       </c>
       <c r="C120" t="n">
-        <v>9385.194986979166</v>
+        <v>1319.226643880208</v>
       </c>
       <c r="D120" t="n">
-        <v>0.1505726637939612</v>
+        <v>0.08964632079005241</v>
       </c>
       <c r="E120" t="n">
-        <v>9385.177978515625</v>
+        <v>1319.227457682292</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2438,16 +2438,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>0.1683219149708748</v>
+        <v>0.09365817407766978</v>
       </c>
       <c r="C121" t="n">
-        <v>9132.663411458334</v>
+        <v>1292.438273111979</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1515018365656336</v>
+        <v>0.08779484530289967</v>
       </c>
       <c r="E121" t="n">
-        <v>9132.646565755209</v>
+        <v>1292.432393391927</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2455,16 +2455,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1708020120859146</v>
+        <v>0.1214893832802773</v>
       </c>
       <c r="C122" t="n">
-        <v>8886.174479166666</v>
+        <v>1266.215861002604</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1528221163898706</v>
+        <v>0.09110737716158231</v>
       </c>
       <c r="E122" t="n">
-        <v>8886.156656901041</v>
+        <v>1266.185455322266</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2472,16 +2472,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>0.1701624567310015</v>
+        <v>0.2157729615767797</v>
       </c>
       <c r="C123" t="n">
-        <v>8645.596028645834</v>
+        <v>1240.596964518229</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1533068834493558</v>
+        <v>0.1410464216023684</v>
       </c>
       <c r="E123" t="n">
-        <v>8645.5791015625</v>
+        <v>1240.522277832031</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2489,16 +2489,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>0.1705074434479078</v>
+        <v>0.08698486164212227</v>
       </c>
       <c r="C124" t="n">
-        <v>8410.802408854166</v>
+        <v>1215.274129231771</v>
       </c>
       <c r="D124" t="n">
-        <v>0.1542760164787372</v>
+        <v>0.08551822168131669</v>
       </c>
       <c r="E124" t="n">
-        <v>8410.786051432291</v>
+        <v>1215.272644042969</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2506,16 +2506,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1710037936766942</v>
+        <v>0.09999688714742661</v>
       </c>
       <c r="C125" t="n">
-        <v>8181.6728515625</v>
+        <v>1190.604654947917</v>
       </c>
       <c r="D125" t="n">
-        <v>0.1549396505579352</v>
+        <v>0.09337500544885795</v>
       </c>
       <c r="E125" t="n">
-        <v>8181.656941731771</v>
+        <v>1190.598002115885</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2523,16 +2523,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>0.17313085993131</v>
+        <v>0.1431448894242446</v>
       </c>
       <c r="C126" t="n">
-        <v>7958.086263020833</v>
+        <v>1166.467488606771</v>
       </c>
       <c r="D126" t="n">
-        <v>0.1561887959639231</v>
+        <v>0.1004537468155225</v>
       </c>
       <c r="E126" t="n">
-        <v>7958.069254557292</v>
+        <v>1166.424784342448</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2540,16 +2540,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>0.1728938743472099</v>
+        <v>0.1426816234985987</v>
       </c>
       <c r="C127" t="n">
-        <v>7739.92041015625</v>
+        <v>1142.78076171875</v>
       </c>
       <c r="D127" t="n">
-        <v>0.15693389903754</v>
+        <v>0.1029005820552508</v>
       </c>
       <c r="E127" t="n">
-        <v>7739.904541015625</v>
+        <v>1142.740956624349</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2557,16 +2557,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>0.1743221829334895</v>
+        <v>0.109470213452975</v>
       </c>
       <c r="C128" t="n">
-        <v>7527.06298828125</v>
+        <v>1119.543782552083</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1577589198326071</v>
+        <v>0.1282574261228243</v>
       </c>
       <c r="E128" t="n">
-        <v>7527.046468098958</v>
+        <v>1119.562591552734</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2574,16 +2574,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>0.1742122992873192</v>
+        <v>0.1333930715918541</v>
       </c>
       <c r="C129" t="n">
-        <v>7319.396484375</v>
+        <v>1096.838704427083</v>
       </c>
       <c r="D129" t="n">
-        <v>0.1582121125732859</v>
+        <v>0.09707355747620265</v>
       </c>
       <c r="E129" t="n">
-        <v>7319.380411783854</v>
+        <v>1096.802408854167</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2591,16 +2591,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>0.174405092994372</v>
+        <v>0.1156859671076139</v>
       </c>
       <c r="C130" t="n">
-        <v>7116.81103515625</v>
+        <v>1074.558553059896</v>
       </c>
       <c r="D130" t="n">
-        <v>0.1587728482360641</v>
+        <v>0.09676211327314377</v>
       </c>
       <c r="E130" t="n">
-        <v>7116.795450846354</v>
+        <v>1074.539632161458</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2608,16 +2608,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>0.175610825419426</v>
+        <v>0.130161739885807</v>
       </c>
       <c r="C131" t="n">
-        <v>6919.198567708333</v>
+        <v>1052.768229166667</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1599839565654596</v>
+        <v>0.1223894755045573</v>
       </c>
       <c r="E131" t="n">
-        <v>6919.182942708333</v>
+        <v>1052.760467529297</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2625,16 +2625,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1751521751284599</v>
+        <v>0.1415045782923698</v>
       </c>
       <c r="C132" t="n">
-        <v>6726.446614583333</v>
+        <v>1031.423461914062</v>
       </c>
       <c r="D132" t="n">
-        <v>0.1600288584207495</v>
+        <v>0.0920271606494983</v>
       </c>
       <c r="E132" t="n">
-        <v>6726.431599934896</v>
+        <v>1031.374013264974</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2642,16 +2642,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>0.1770529362062613</v>
+        <v>0.1312033571302891</v>
       </c>
       <c r="C133" t="n">
-        <v>6538.455891927083</v>
+        <v>1010.497721354167</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1610093486184875</v>
+        <v>0.09424612733225028</v>
       </c>
       <c r="E133" t="n">
-        <v>6538.439819335938</v>
+        <v>1010.460764567057</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2659,16 +2659,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1748931556940079</v>
+        <v>0.2500287890434265</v>
       </c>
       <c r="C134" t="n">
-        <v>6355.1142578125</v>
+        <v>990.1321004231771</v>
       </c>
       <c r="D134" t="n">
-        <v>0.1610729992389679</v>
+        <v>0.299597126742204</v>
       </c>
       <c r="E134" t="n">
-        <v>6355.100504557292</v>
+        <v>990.1816762288412</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2676,16 +2676,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1744429295261701</v>
+        <v>0.1788326178987821</v>
       </c>
       <c r="C135" t="n">
-        <v>6176.327799479167</v>
+        <v>970.0042114257812</v>
       </c>
       <c r="D135" t="n">
-        <v>0.161094822610418</v>
+        <v>0.1199099669853846</v>
       </c>
       <c r="E135" t="n">
-        <v>6176.314412434896</v>
+        <v>969.9452921549479</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2693,16 +2693,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1769700472553571</v>
+        <v>0.1459626580278079</v>
       </c>
       <c r="C136" t="n">
-        <v>6001.998209635417</v>
+        <v>950.3279825846354</v>
       </c>
       <c r="D136" t="n">
-        <v>0.1620012034351627</v>
+        <v>0.1019962436209122</v>
       </c>
       <c r="E136" t="n">
-        <v>6001.983276367188</v>
+        <v>950.2840067545573</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2710,16 +2710,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>0.1795018464326859</v>
+        <v>0.1555330703655879</v>
       </c>
       <c r="C137" t="n">
-        <v>5832.023274739583</v>
+        <v>931.0984497070312</v>
       </c>
       <c r="D137" t="n">
-        <v>0.1634178773189584</v>
+        <v>0.09119962621480227</v>
       </c>
       <c r="E137" t="n">
-        <v>5832.007080078125</v>
+        <v>931.0341440836588</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2727,16 +2727,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>0.1796843993167082</v>
+        <v>0.1138831625382106</v>
       </c>
       <c r="C138" t="n">
-        <v>5666.3076171875</v>
+        <v>912.2157592773438</v>
       </c>
       <c r="D138" t="n">
-        <v>0.1639703344553709</v>
+        <v>0.1515636506179968</v>
       </c>
       <c r="E138" t="n">
-        <v>5666.291910807292</v>
+        <v>912.2534332275391</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2744,16 +2744,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>0.1773941020170847</v>
+        <v>0.1137717738747597</v>
       </c>
       <c r="C139" t="n">
-        <v>5504.755696614583</v>
+        <v>893.7686157226562</v>
       </c>
       <c r="D139" t="n">
-        <v>0.1637503812089562</v>
+        <v>0.1200471160312494</v>
       </c>
       <c r="E139" t="n">
-        <v>5504.741861979167</v>
+        <v>893.774892171224</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2761,16 +2761,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>0.1776996850967407</v>
+        <v>0.11470835780104</v>
       </c>
       <c r="C140" t="n">
-        <v>5347.2802734375</v>
+        <v>875.7076009114584</v>
       </c>
       <c r="D140" t="n">
-        <v>0.1642801143849889</v>
+        <v>0.08707620576024055</v>
       </c>
       <c r="E140" t="n">
-        <v>5347.266805013021</v>
+        <v>875.6799672444662</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2778,16 +2778,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>0.1802677052716414</v>
+        <v>0.1050526748100917</v>
       </c>
       <c r="C141" t="n">
-        <v>5193.79248046875</v>
+        <v>858.009765625</v>
       </c>
       <c r="D141" t="n">
-        <v>0.1650639005626241</v>
+        <v>0.1070609825352828</v>
       </c>
       <c r="E141" t="n">
-        <v>5193.777303059896</v>
+        <v>858.0117797851562</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2795,16 +2795,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>0.1790060599644979</v>
+        <v>0.1531156649192174</v>
       </c>
       <c r="C142" t="n">
-        <v>5044.196451822917</v>
+        <v>840.7383829752604</v>
       </c>
       <c r="D142" t="n">
-        <v>0.1652164862801631</v>
+        <v>0.1089705744137367</v>
       </c>
       <c r="E142" t="n">
-        <v>5044.182779947917</v>
+        <v>840.6942392985026</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2812,16 +2812,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>0.1814589910209179</v>
+        <v>0.0997098907828331</v>
       </c>
       <c r="C143" t="n">
-        <v>4898.414876302083</v>
+        <v>823.7277425130209</v>
       </c>
       <c r="D143" t="n">
-        <v>0.1662940370539824</v>
+        <v>0.120392894372344</v>
       </c>
       <c r="E143" t="n">
-        <v>4898.399658203125</v>
+        <v>823.7484486897787</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2829,16 +2829,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>0.1765020291010539</v>
+        <v>0.132636908441782</v>
       </c>
       <c r="C144" t="n">
-        <v>4756.349772135417</v>
+        <v>807.1581420898438</v>
       </c>
       <c r="D144" t="n">
-        <v>0.1650374562789997</v>
+        <v>0.09481945106138785</v>
       </c>
       <c r="E144" t="n">
-        <v>4756.338338216146</v>
+        <v>807.1203308105469</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2846,16 +2846,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>0.1807303416232268</v>
+        <v>0.1139048176507155</v>
       </c>
       <c r="C145" t="n">
-        <v>4617.935221354167</v>
+        <v>790.8842366536459</v>
       </c>
       <c r="D145" t="n">
-        <v>0.1662180554121733</v>
+        <v>0.09408137698968251</v>
       </c>
       <c r="E145" t="n">
-        <v>4617.920532226562</v>
+        <v>790.8644053141276</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2863,16 +2863,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>0.1821226204435031</v>
+        <v>0.1215297703941663</v>
       </c>
       <c r="C146" t="n">
-        <v>4483.07763671875</v>
+        <v>774.97900390625</v>
       </c>
       <c r="D146" t="n">
-        <v>0.1669399226084352</v>
+        <v>0.1009637986620267</v>
       </c>
       <c r="E146" t="n">
-        <v>4483.062377929688</v>
+        <v>774.9584452311198</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2880,16 +2880,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>0.1829071169098218</v>
+        <v>0.1030210430423419</v>
       </c>
       <c r="C147" t="n">
-        <v>4351.700520833333</v>
+        <v>759.3818359375</v>
       </c>
       <c r="D147" t="n">
-        <v>0.1671294337138534</v>
+        <v>0.1148572328190009</v>
       </c>
       <c r="E147" t="n">
-        <v>4351.684651692708</v>
+        <v>759.3936614990234</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2897,16 +2897,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>0.1781217145423094</v>
+        <v>0.1177391385038694</v>
       </c>
       <c r="C148" t="n">
-        <v>4223.718098958333</v>
+        <v>744.1475830078125</v>
       </c>
       <c r="D148" t="n">
-        <v>0.1656971136108041</v>
+        <v>0.1153587934871515</v>
       </c>
       <c r="E148" t="n">
-        <v>4223.705769856771</v>
+        <v>744.1452077229818</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2914,16 +2914,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>0.181028267989556</v>
+        <v>0.1312207455436389</v>
       </c>
       <c r="C149" t="n">
-        <v>4099.068359375</v>
+        <v>729.2322387695312</v>
       </c>
       <c r="D149" t="n">
-        <v>0.1666944278404117</v>
+        <v>0.1092761152734359</v>
       </c>
       <c r="E149" t="n">
-        <v>4099.053833007812</v>
+        <v>729.2102915445963</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2931,16 +2931,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>0.1800459673007329</v>
+        <v>0.1318907849490643</v>
       </c>
       <c r="C150" t="n">
-        <v>3977.663411458333</v>
+        <v>714.6177978515625</v>
       </c>
       <c r="D150" t="n">
-        <v>0.1664338313663999</v>
+        <v>0.09352474100887775</v>
       </c>
       <c r="E150" t="n">
-        <v>3977.649861653646</v>
+        <v>714.5794270833334</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2948,16 +2948,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>0.181230707714955</v>
+        <v>0.107234850525856</v>
       </c>
       <c r="C151" t="n">
-        <v>3859.436279296875</v>
+        <v>700.2864379882812</v>
       </c>
       <c r="D151" t="n">
-        <v>0.1664948457231124</v>
+        <v>0.09621837207426627</v>
       </c>
       <c r="E151" t="n">
-        <v>3859.421651204427</v>
+        <v>700.2754211425781</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2965,16 +2965,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>0.1804414615035057</v>
+        <v>0.1879683012763659</v>
       </c>
       <c r="C152" t="n">
-        <v>3744.31005859375</v>
+        <v>686.3628946940104</v>
       </c>
       <c r="D152" t="n">
-        <v>0.166491542942822</v>
+        <v>0.1135291925941904</v>
       </c>
       <c r="E152" t="n">
-        <v>3744.296142578125</v>
+        <v>686.2884572347006</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2982,16 +2982,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>0.1812594197690487</v>
+        <v>0.2280551046133041</v>
       </c>
       <c r="C153" t="n">
-        <v>3632.217854817708</v>
+        <v>672.6967366536459</v>
       </c>
       <c r="D153" t="n">
-        <v>0.1666576604669293</v>
+        <v>0.1453947431097428</v>
       </c>
       <c r="E153" t="n">
-        <v>3632.203287760417</v>
+        <v>672.6140899658203</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2999,16 +2999,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>0.1795056822399298</v>
+        <v>0.09236814578374226</v>
       </c>
       <c r="C154" t="n">
-        <v>3523.086018880208</v>
+        <v>659.1451416015625</v>
       </c>
       <c r="D154" t="n">
-        <v>0.1658904853587349</v>
+        <v>0.08882001942644517</v>
       </c>
       <c r="E154" t="n">
-        <v>3523.072387695312</v>
+        <v>659.1416066487631</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3016,16 +3016,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>0.1797517724335194</v>
+        <v>0.142645796140035</v>
       </c>
       <c r="C155" t="n">
-        <v>3416.850260416667</v>
+        <v>646.064453125</v>
       </c>
       <c r="D155" t="n">
-        <v>0.1655595609918237</v>
+        <v>0.1009624507278204</v>
       </c>
       <c r="E155" t="n">
-        <v>3416.835978190104</v>
+        <v>646.0227864583334</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3033,16 +3033,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>0.1776687862972418</v>
+        <v>0.1245175674557686</v>
       </c>
       <c r="C156" t="n">
-        <v>3313.439453125</v>
+        <v>633.1962890625</v>
       </c>
       <c r="D156" t="n">
-        <v>0.1650125458836555</v>
+        <v>0.1023178311685721</v>
       </c>
       <c r="E156" t="n">
-        <v>3313.4267578125</v>
+        <v>633.1740926106771</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3050,16 +3050,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>0.181530004988114</v>
+        <v>0.1962148323655128</v>
       </c>
       <c r="C157" t="n">
-        <v>3212.796223958333</v>
+        <v>620.6919555664062</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1661121128126979</v>
+        <v>0.1191226737573743</v>
       </c>
       <c r="E157" t="n">
-        <v>3212.78086344401</v>
+        <v>620.6148427327474</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3067,16 +3067,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>0.1768510416150093</v>
+        <v>0.1191464252769947</v>
       </c>
       <c r="C158" t="n">
-        <v>3114.843831380208</v>
+        <v>608.3062133789062</v>
       </c>
       <c r="D158" t="n">
-        <v>0.1645770259201527</v>
+        <v>0.09079213843991359</v>
       </c>
       <c r="E158" t="n">
-        <v>3114.831563313802</v>
+        <v>608.2778727213541</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3084,16 +3084,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>0.1840257917841276</v>
+        <v>0.115245409309864</v>
       </c>
       <c r="C159" t="n">
-        <v>3019.536865234375</v>
+        <v>596.2559814453125</v>
       </c>
       <c r="D159" t="n">
-        <v>0.166827446470658</v>
+        <v>0.1655431998272737</v>
       </c>
       <c r="E159" t="n">
-        <v>3019.519592285156</v>
+        <v>596.3062998453776</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3101,16 +3101,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>0.1777738804618517</v>
+        <v>0.1330425615111987</v>
       </c>
       <c r="C160" t="n">
-        <v>2926.791259765625</v>
+        <v>584.4860229492188</v>
       </c>
       <c r="D160" t="n">
-        <v>0.164806098677218</v>
+        <v>0.1061936380962531</v>
       </c>
       <c r="E160" t="n">
-        <v>2926.778361002604</v>
+        <v>584.4591623942057</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3118,16 +3118,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>0.1784841554860274</v>
+        <v>0.09734237194061279</v>
       </c>
       <c r="C161" t="n">
-        <v>2836.56494140625</v>
+        <v>572.9156290690104</v>
       </c>
       <c r="D161" t="n">
-        <v>0.1647372860461473</v>
+        <v>0.1559050939977169</v>
       </c>
       <c r="E161" t="n">
-        <v>2836.551208496094</v>
+        <v>572.9742075602213</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3135,16 +3135,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>0.1790267402927081</v>
+        <v>0.09469980622331302</v>
       </c>
       <c r="C162" t="n">
-        <v>2748.79345703125</v>
+        <v>561.6258341471354</v>
       </c>
       <c r="D162" t="n">
-        <v>0.1645636878286799</v>
+        <v>0.1375045080979665</v>
       </c>
       <c r="E162" t="n">
-        <v>2748.779073079427</v>
+        <v>561.6686401367188</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3152,16 +3152,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>0.1748388273020585</v>
+        <v>0.09935228526592255</v>
       </c>
       <c r="C163" t="n">
-        <v>2663.413411458333</v>
+        <v>550.5861206054688</v>
       </c>
       <c r="D163" t="n">
-        <v>0.1629432371507088</v>
+        <v>0.08949880053599675</v>
       </c>
       <c r="E163" t="n">
-        <v>2663.401489257812</v>
+        <v>550.5762583414713</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3169,16 +3169,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>0.1810016805926959</v>
+        <v>0.1057511270046234</v>
       </c>
       <c r="C164" t="n">
-        <v>2580.382405598958</v>
+        <v>539.7848510742188</v>
       </c>
       <c r="D164" t="n">
-        <v>0.1650901613757014</v>
+        <v>0.1123337770501773</v>
       </c>
       <c r="E164" t="n">
-        <v>2580.366495768229</v>
+        <v>539.7914072672526</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3186,16 +3186,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>0.1778636326392492</v>
+        <v>0.2651559760173162</v>
       </c>
       <c r="C165" t="n">
-        <v>2499.627034505208</v>
+        <v>529.3687540690104</v>
       </c>
       <c r="D165" t="n">
-        <v>0.163407896955808</v>
+        <v>0.1671270007888476</v>
       </c>
       <c r="E165" t="n">
-        <v>2499.612609863281</v>
+        <v>529.2707061767578</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3203,16 +3203,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>0.1769559904932976</v>
+        <v>0.2359669432044029</v>
       </c>
       <c r="C166" t="n">
-        <v>2421.102945963542</v>
+        <v>518.9933471679688</v>
       </c>
       <c r="D166" t="n">
-        <v>0.1629382415364186</v>
+        <v>0.1534902316828569</v>
       </c>
       <c r="E166" t="n">
-        <v>2421.08896891276</v>
+        <v>518.9108734130859</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3220,16 +3220,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>0.1739687547087669</v>
+        <v>0.1249828984340032</v>
       </c>
       <c r="C167" t="n">
-        <v>2344.753092447917</v>
+        <v>508.7584025065104</v>
       </c>
       <c r="D167" t="n">
-        <v>0.1615077542761962</v>
+        <v>0.09594413017233212</v>
       </c>
       <c r="E167" t="n">
-        <v>2344.74062093099</v>
+        <v>508.729367574056</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3237,16 +3237,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>0.1746284775435925</v>
+        <v>0.1064000775416692</v>
       </c>
       <c r="C168" t="n">
-        <v>2270.530598958333</v>
+        <v>498.8346964518229</v>
       </c>
       <c r="D168" t="n">
-        <v>0.1614418914541602</v>
+        <v>0.1613754766682784</v>
       </c>
       <c r="E168" t="n">
-        <v>2270.517395019531</v>
+        <v>498.8896789550781</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3254,16 +3254,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>0.1755425867935022</v>
+        <v>0.125298798084259</v>
       </c>
       <c r="C169" t="n">
-        <v>2198.380940755208</v>
+        <v>489.1631469726562</v>
       </c>
       <c r="D169" t="n">
-        <v>0.1615350994591912</v>
+        <v>0.1063911784440279</v>
       </c>
       <c r="E169" t="n">
-        <v>2198.366841634115</v>
+        <v>489.1442337036133</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3271,16 +3271,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>0.1738098450005054</v>
+        <v>0.1869803220033646</v>
       </c>
       <c r="C170" t="n">
-        <v>2128.250895182292</v>
+        <v>479.7431945800781</v>
       </c>
       <c r="D170" t="n">
-        <v>0.1608854218696555</v>
+        <v>0.1281789354979992</v>
       </c>
       <c r="E170" t="n">
-        <v>2128.238037109375</v>
+        <v>479.6843922932943</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3288,16 +3288,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>0.1777185549338659</v>
+        <v>0.2373852853973707</v>
       </c>
       <c r="C171" t="n">
-        <v>2060.1005859375</v>
+        <v>470.5162862141927</v>
       </c>
       <c r="D171" t="n">
-        <v>0.162216918853422</v>
+        <v>0.2020645290613174</v>
       </c>
       <c r="E171" t="n">
-        <v>2060.08506266276</v>
+        <v>470.4809672037761</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3305,16 +3305,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>0.1755130042632421</v>
+        <v>0.09908318022886912</v>
       </c>
       <c r="C172" t="n">
-        <v>1993.86962890625</v>
+        <v>461.3067220052083</v>
       </c>
       <c r="D172" t="n">
-        <v>0.1609765257065495</v>
+        <v>0.1042924833794435</v>
       </c>
       <c r="E172" t="n">
-        <v>1993.855061848958</v>
+        <v>461.3119354248047</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3322,16 +3322,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>0.1750553275148074</v>
+        <v>0.1014666929841042</v>
       </c>
       <c r="C173" t="n">
-        <v>1929.518798828125</v>
+        <v>452.4320068359375</v>
       </c>
       <c r="D173" t="n">
-        <v>0.1607691450044513</v>
+        <v>0.09057984066506226</v>
       </c>
       <c r="E173" t="n">
-        <v>1929.504516601562</v>
+        <v>452.4211171468099</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3339,16 +3339,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>0.1725138624509176</v>
+        <v>0.1146448055903117</v>
       </c>
       <c r="C174" t="n">
-        <v>1866.998168945312</v>
+        <v>443.7593587239583</v>
       </c>
       <c r="D174" t="n">
-        <v>0.1594993084048232</v>
+        <v>0.1205675105253855</v>
       </c>
       <c r="E174" t="n">
-        <v>1866.985178629557</v>
+        <v>443.7652842203776</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3356,16 +3356,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>0.1749019871155421</v>
+        <v>0.1398183132211367</v>
       </c>
       <c r="C175" t="n">
-        <v>1806.269856770833</v>
+        <v>435.2870992024739</v>
       </c>
       <c r="D175" t="n">
-        <v>0.1602093735709786</v>
+        <v>0.09737322789927323</v>
       </c>
       <c r="E175" t="n">
-        <v>1806.255177815755</v>
+        <v>435.2446492513021</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3373,16 +3373,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>0.1706974779566129</v>
+        <v>0.1192149296402931</v>
       </c>
       <c r="C176" t="n">
-        <v>1747.278849283854</v>
+        <v>426.9536844889323</v>
       </c>
       <c r="D176" t="n">
-        <v>0.1579271387308836</v>
+        <v>0.1087579832722743</v>
       </c>
       <c r="E176" t="n">
-        <v>1747.266092936198</v>
+        <v>426.9432322184245</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3390,16 +3390,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>0.170007827381293</v>
+        <v>0.1268849621216456</v>
       </c>
       <c r="C177" t="n">
-        <v>1689.990478515625</v>
+        <v>418.8303426106771</v>
       </c>
       <c r="D177" t="n">
-        <v>0.157253196152548</v>
+        <v>0.1021734600265821</v>
       </c>
       <c r="E177" t="n">
-        <v>1689.977701822917</v>
+        <v>418.8056335449219</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3407,16 +3407,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>0.1702922433614731</v>
+        <v>0.1662177120645841</v>
       </c>
       <c r="C178" t="n">
-        <v>1634.360229492188</v>
+        <v>410.9169209798177</v>
       </c>
       <c r="D178" t="n">
-        <v>0.1571182201926907</v>
+        <v>0.1069576690594355</v>
       </c>
       <c r="E178" t="n">
-        <v>1634.347056070964</v>
+        <v>410.8576583862305</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3424,16 +3424,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>0.1708191012342771</v>
+        <v>0.1438233566780885</v>
       </c>
       <c r="C179" t="n">
-        <v>1580.346598307292</v>
+        <v>403.114013671875</v>
       </c>
       <c r="D179" t="n">
-        <v>0.1569552157695095</v>
+        <v>0.1101352584858735</v>
       </c>
       <c r="E179" t="n">
-        <v>1580.332753499349</v>
+        <v>403.0803197224935</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3441,16 +3441,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>0.1686446939905485</v>
+        <v>0.1476625191668669</v>
       </c>
       <c r="C180" t="n">
-        <v>1527.906168619792</v>
+        <v>395.5059407552083</v>
       </c>
       <c r="D180" t="n">
-        <v>0.1557213778917988</v>
+        <v>0.1012961187710365</v>
       </c>
       <c r="E180" t="n">
-        <v>1527.893269856771</v>
+        <v>395.4595692952474</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3458,16 +3458,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>0.173912172516187</v>
+        <v>0.1174407564103603</v>
       </c>
       <c r="C181" t="n">
-        <v>1477.0087890625</v>
+        <v>388.0292154947917</v>
       </c>
       <c r="D181" t="n">
-        <v>0.1576532858113448</v>
+        <v>0.0942439641803503</v>
       </c>
       <c r="E181" t="n">
-        <v>1476.992482503255</v>
+        <v>388.0060145060222</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3475,16 +3475,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>0.1677399625380834</v>
+        <v>0.1549174562096596</v>
       </c>
       <c r="C182" t="n">
-        <v>1427.596801757812</v>
+        <v>380.7829793294271</v>
       </c>
       <c r="D182" t="n">
-        <v>0.154510417021811</v>
+        <v>0.09388661881287892</v>
       </c>
       <c r="E182" t="n">
-        <v>1427.583577473958</v>
+        <v>380.7219340006511</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3492,16 +3492,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>0.1647854993740717</v>
+        <v>0.1816948850949605</v>
       </c>
       <c r="C183" t="n">
-        <v>1379.647216796875</v>
+        <v>373.6864522298177</v>
       </c>
       <c r="D183" t="n">
-        <v>0.1531477679188053</v>
+        <v>0.2492097554107507</v>
       </c>
       <c r="E183" t="n">
-        <v>1379.635559082031</v>
+        <v>373.7539672851562</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3509,16 +3509,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>0.1668498466412226</v>
+        <v>0.210326428214709</v>
       </c>
       <c r="C184" t="n">
-        <v>1333.123982747396</v>
+        <v>366.7480570475261</v>
       </c>
       <c r="D184" t="n">
-        <v>0.1533697998772065</v>
+        <v>0.1370159046103557</v>
       </c>
       <c r="E184" t="n">
-        <v>1333.110524495443</v>
+        <v>366.6747360229492</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3526,16 +3526,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>0.1651118074854215</v>
+        <v>0.1435142010450363</v>
       </c>
       <c r="C185" t="n">
-        <v>1287.982503255208</v>
+        <v>359.8671468098958</v>
       </c>
       <c r="D185" t="n">
-        <v>0.1523480865483483</v>
+        <v>0.1061029390742381</v>
       </c>
       <c r="E185" t="n">
-        <v>1287.969716389974</v>
+        <v>359.8297348022461</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3543,16 +3543,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>0.166343313952287</v>
+        <v>0.1577497000495593</v>
       </c>
       <c r="C186" t="n">
-        <v>1244.193603515625</v>
+        <v>353.2169494628906</v>
       </c>
       <c r="D186" t="n">
-        <v>0.1526467775305112</v>
+        <v>0.1057576133559148</v>
       </c>
       <c r="E186" t="n">
-        <v>1244.179850260417</v>
+        <v>353.1649602254232</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3560,16 +3560,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>0.1621348286668459</v>
+        <v>0.1039653333524863</v>
       </c>
       <c r="C187" t="n">
-        <v>1201.714721679688</v>
+        <v>346.6447652180989</v>
       </c>
       <c r="D187" t="n">
-        <v>0.1503422278910875</v>
+        <v>0.1474848408252001</v>
       </c>
       <c r="E187" t="n">
-        <v>1201.702972412109</v>
+        <v>346.6882858276367</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3577,16 +3577,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>0.1627199401458105</v>
+        <v>0.1754950645069281</v>
       </c>
       <c r="C188" t="n">
-        <v>1160.521240234375</v>
+        <v>340.3398640950521</v>
       </c>
       <c r="D188" t="n">
-        <v>0.1497668580462535</v>
+        <v>0.1180880491932233</v>
       </c>
       <c r="E188" t="n">
-        <v>1160.50830078125</v>
+        <v>340.2824554443359</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3594,16 +3594,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>0.1598850215474764</v>
+        <v>0.1795157827436924</v>
       </c>
       <c r="C189" t="n">
-        <v>1120.571004231771</v>
+        <v>334.1077677408854</v>
       </c>
       <c r="D189" t="n">
-        <v>0.1485177604481578</v>
+        <v>0.1203655538459619</v>
       </c>
       <c r="E189" t="n">
-        <v>1120.559661865234</v>
+        <v>334.0486195882161</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3611,16 +3611,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>0.163837768137455</v>
+        <v>0.2411907315254211</v>
       </c>
       <c r="C190" t="n">
-        <v>1081.842651367188</v>
+        <v>328.0695292154948</v>
       </c>
       <c r="D190" t="n">
-        <v>0.149756529678901</v>
+        <v>0.1687867802878221</v>
       </c>
       <c r="E190" t="n">
-        <v>1081.828592936198</v>
+        <v>327.9971237182617</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3628,16 +3628,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>0.1608129541079203</v>
+        <v>0.2437901298205058</v>
       </c>
       <c r="C191" t="n">
-        <v>1044.290812174479</v>
+        <v>322.1078287760417</v>
       </c>
       <c r="D191" t="n">
-        <v>0.1483520685384671</v>
+        <v>0.1688274852931499</v>
       </c>
       <c r="E191" t="n">
-        <v>1044.278340657552</v>
+        <v>322.0328699747722</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3645,16 +3645,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>0.1629351625839869</v>
+        <v>0.1122877349456151</v>
       </c>
       <c r="C192" t="n">
-        <v>1007.89589436849</v>
+        <v>316.1446228027344</v>
       </c>
       <c r="D192" t="n">
-        <v>0.1488219130163392</v>
+        <v>0.138456496099631</v>
       </c>
       <c r="E192" t="n">
-        <v>1007.881790161133</v>
+        <v>316.1708068847656</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3662,16 +3662,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>0.1580898389220238</v>
+        <v>0.1162869234879812</v>
       </c>
       <c r="C193" t="n">
-        <v>972.6151733398438</v>
+        <v>310.4442240397136</v>
       </c>
       <c r="D193" t="n">
-        <v>0.1463052512456973</v>
+        <v>0.1268238797783852</v>
       </c>
       <c r="E193" t="n">
-        <v>972.6033986409506</v>
+        <v>310.4547678629557</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3679,16 +3679,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>0.1661280989646912</v>
+        <v>0.1749022069076697</v>
       </c>
       <c r="C194" t="n">
-        <v>938.4376831054688</v>
+        <v>304.9217936197917</v>
       </c>
       <c r="D194" t="n">
-        <v>0.1497776458660761</v>
+        <v>0.1283609780172507</v>
       </c>
       <c r="E194" t="n">
-        <v>938.4213256835938</v>
+        <v>304.875249226888</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3696,16 +3696,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>0.1582052906354268</v>
+        <v>0.1514388732612133</v>
       </c>
       <c r="C195" t="n">
-        <v>905.3079833984375</v>
+        <v>299.4424235026042</v>
       </c>
       <c r="D195" t="n">
-        <v>0.1460112786541382</v>
+        <v>0.09654452465474606</v>
       </c>
       <c r="E195" t="n">
-        <v>905.2957967122396</v>
+        <v>299.3875274658203</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3713,16 +3713,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>0.1621805826822917</v>
+        <v>0.1420389637351036</v>
       </c>
       <c r="C196" t="n">
-        <v>873.2230428059896</v>
+        <v>294.0961710611979</v>
       </c>
       <c r="D196" t="n">
-        <v>0.1477350691954295</v>
+        <v>0.2185808631281058</v>
       </c>
       <c r="E196" t="n">
-        <v>873.2085825602213</v>
+        <v>294.1727142333984</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3730,16 +3730,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>0.1616184736291567</v>
+        <v>0.2348295450210571</v>
       </c>
       <c r="C197" t="n">
-        <v>842.1401570638021</v>
+        <v>288.9684244791667</v>
       </c>
       <c r="D197" t="n">
-        <v>0.1471365417043368</v>
+        <v>0.1608455901344617</v>
       </c>
       <c r="E197" t="n">
-        <v>842.1256510416666</v>
+        <v>288.8944295247396</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3747,16 +3747,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>0.1584914947549502</v>
+        <v>0.1839471533894539</v>
       </c>
       <c r="C198" t="n">
-        <v>812.0339152018229</v>
+        <v>283.8109029134114</v>
       </c>
       <c r="D198" t="n">
-        <v>0.145484460828205</v>
+        <v>0.116328040137887</v>
       </c>
       <c r="E198" t="n">
-        <v>812.0209096272787</v>
+        <v>283.743278503418</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3764,16 +3764,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>0.1623190219203631</v>
+        <v>0.2304011483987173</v>
       </c>
       <c r="C199" t="n">
-        <v>782.8857014973959</v>
+        <v>278.8624471028646</v>
       </c>
       <c r="D199" t="n">
-        <v>0.1470096005747716</v>
+        <v>0.1462546940892935</v>
       </c>
       <c r="E199" t="n">
-        <v>782.8704020182291</v>
+        <v>278.7783025105794</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3781,16 +3781,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>0.161981758972009</v>
+        <v>0.3091485251983007</v>
       </c>
       <c r="C200" t="n">
-        <v>754.6595865885416</v>
+        <v>274.0570678710938</v>
       </c>
       <c r="D200" t="n">
-        <v>0.1469691156720122</v>
+        <v>0.2092896538476149</v>
       </c>
       <c r="E200" t="n">
-        <v>754.6445922851562</v>
+        <v>273.9572118123372</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3798,16 +3798,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>0.1589497923851013</v>
+        <v>0.1152484267950058</v>
       </c>
       <c r="C201" t="n">
-        <v>727.3322957356771</v>
+        <v>269.0875752766927</v>
       </c>
       <c r="D201" t="n">
-        <v>0.1452838700885574</v>
+        <v>0.1500304949780305</v>
       </c>
       <c r="E201" t="n">
-        <v>727.3186238606771</v>
+        <v>269.1223551432292</v>
       </c>
     </row>
   </sheetData>
@@ -3842,7 +3842,7 @@
         <v>0.4764310344827585</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4831051528453827</v>
+        <v>0.756769061088562</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3850,7 +3850,7 @@
         <v>0.4784327586206896</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4345033466815948</v>
+        <v>0.7743149399757385</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3858,7 +3858,7 @@
         <v>0.4815402298850573</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4808855056762695</v>
+        <v>0.7919901013374329</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3866,7 +3866,7 @@
         <v>0.4836706896551723</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4761857092380524</v>
+        <v>0.7013800144195557</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3874,7 +3874,7 @@
         <v>0.4873224137931034</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5329910516738892</v>
+        <v>0.8016188144683838</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3882,7 +3882,7 @@
         <v>0.4900448275862069</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5240210294723511</v>
+        <v>0.4984304904937744</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3890,7 +3890,7 @@
         <v>0.4906609195402298</v>
       </c>
       <c r="B8" t="n">
-        <v>0.632392942905426</v>
+        <v>0.6574951410293579</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3898,7 +3898,7 @@
         <v>0.4904586206896551</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4924318194389343</v>
+        <v>0.6806709170341492</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3906,7 +3906,7 @@
         <v>0.4941344827586207</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5501627326011658</v>
+        <v>0.7786270380020142</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3914,7 +3914,7 @@
         <v>0.500001724137931</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5076363086700439</v>
+        <v>0.6603434681892395</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3922,7 +3922,7 @@
         <v>0.5075488505747127</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5280850529670715</v>
+        <v>0.7134525775909424</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3930,7 +3930,7 @@
         <v>0.5158551724137931</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5058383941650391</v>
+        <v>0.6877478361129761</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>0.5198316091954023</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4313452243804932</v>
+        <v>0.5830482244491577</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3946,7 +3946,7 @@
         <v>0.5221126436781609</v>
       </c>
       <c r="B15" t="n">
-        <v>0.522016704082489</v>
+        <v>0.6115986108779907</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3954,7 +3954,7 @@
         <v>0.5241477011494252</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5116506218910217</v>
+        <v>0.7259588837623596</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3962,7 +3962,7 @@
         <v>0.5258402298850575</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5610747933387756</v>
+        <v>0.6032655239105225</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3970,7 +3970,7 @@
         <v>0.5250695402298851</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5629770755767822</v>
+        <v>0.591313898563385</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3978,7 +3978,7 @@
         <v>0.5223919540229884</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6016446948051453</v>
+        <v>0.5313012599945068</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3986,7 +3986,7 @@
         <v>0.5182683908045975</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5647814869880676</v>
+        <v>0.6236163377761841</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3994,7 +3994,7 @@
         <v>0.5144683908045975</v>
       </c>
       <c r="B21" t="n">
-        <v>0.696313202381134</v>
+        <v>0.7762429714202881</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4002,7 +4002,7 @@
         <v>0.5127465517241379</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6607397794723511</v>
+        <v>0.5734918117523193</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4010,7 +4010,7 @@
         <v>0.5118160919540229</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5678457617759705</v>
+        <v>0.6628057360649109</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4018,7 +4018,7 @@
         <v>0.5113442528735631</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5564731359481812</v>
+        <v>0.7041466236114502</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4026,7 +4026,7 @@
         <v>0.5113954022988505</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6027423143386841</v>
+        <v>0.7927543520927429</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4034,7 +4034,7 @@
         <v>0.5106971264367816</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5504902601242065</v>
+        <v>0.793199896812439</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4042,7 +4042,7 @@
         <v>0.5099448275862069</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5556550025939941</v>
+        <v>0.8707687854766846</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4050,7 +4050,7 @@
         <v>0.5071856321839081</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6242223381996155</v>
+        <v>0.6644653677940369</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4058,7 +4058,7 @@
         <v>0.5042775862068966</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5416966676712036</v>
+        <v>0.723843514919281</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4066,7 +4066,7 @@
         <v>0.5015017241379309</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5369044542312622</v>
+        <v>0.6408010721206665</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4074,7 +4074,7 @@
         <v>0.4992206896551724</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6480653882026672</v>
+        <v>0.7419260740280151</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4082,7 +4082,7 @@
         <v>0.4959385057471264</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6224673390388489</v>
+        <v>0.6190037131309509</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4090,7 +4090,7 @@
         <v>0.4916557471264368</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5663657784461975</v>
+        <v>0.5656512379646301</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4098,7 +4098,7 @@
         <v>0.4879850574712644</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6255931854248047</v>
+        <v>0.5628290176391602</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4106,7 +4106,7 @@
         <v>0.4841086206896552</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5695595741271973</v>
+        <v>0.6335204243659973</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4114,7 +4114,7 @@
         <v>0.479937356321839</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6131792664527893</v>
+        <v>0.677819550037384</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4122,7 +4122,7 @@
         <v>0.4752465517241379</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5447978973388672</v>
+        <v>0.6079586744308472</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4130,7 +4130,7 @@
         <v>0.4721764367816091</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5321093201637268</v>
+        <v>0.5592888593673706</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4138,7 +4138,7 @@
         <v>0.4692281609195402</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4145475625991821</v>
+        <v>0.6022953391075134</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4146,7 +4146,7 @@
         <v>0.4647189655172412</v>
       </c>
       <c r="B40" t="n">
-        <v>0.3387927114963531</v>
+        <v>0.4738801121711731</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4154,7 +4154,7 @@
         <v>0.4592028735632183</v>
       </c>
       <c r="B41" t="n">
-        <v>0.3488067388534546</v>
+        <v>0.6851848363876343</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4162,7 +4162,7 @@
         <v>0.4508442528735632</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2904689311981201</v>
+        <v>0.4975088238716125</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4170,7 +4170,7 @@
         <v>0.4450252873563217</v>
       </c>
       <c r="B43" t="n">
-        <v>0.3472325503826141</v>
+        <v>0.5093502998352051</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4178,7 +4178,7 @@
         <v>0.4424959770114942</v>
       </c>
       <c r="B44" t="n">
-        <v>0.2775770723819733</v>
+        <v>0.5738055109977722</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4186,7 +4186,7 @@
         <v>0.4428913793103447</v>
       </c>
       <c r="B45" t="n">
-        <v>0.434727281332016</v>
+        <v>0.5922649502754211</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4194,7 +4194,7 @@
         <v>0.4420350574712643</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4269977509975433</v>
+        <v>0.5201448798179626</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4202,7 +4202,7 @@
         <v>0.4407994252873562</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4235686361789703</v>
+        <v>0.6076411604881287</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4210,7 +4210,7 @@
         <v>0.4424488505747125</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4169092178344727</v>
+        <v>0.5134154558181763</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4218,7 +4218,7 @@
         <v>0.446022988505747</v>
       </c>
       <c r="B49" t="n">
-        <v>0.3555291295051575</v>
+        <v>0.5557025671005249</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4226,7 +4226,7 @@
         <v>0.4531999999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>0.3334541618824005</v>
+        <v>0.5362777709960938</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4234,7 +4234,7 @@
         <v>0.4616310344827586</v>
       </c>
       <c r="B51" t="n">
-        <v>0.3711861073970795</v>
+        <v>0.6336415410041809</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4242,7 +4242,7 @@
         <v>0.4699316091954022</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4047412872314453</v>
+        <v>0.463839054107666</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4250,7 +4250,7 @@
         <v>0.4757379310344828</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4493765532970428</v>
+        <v>0.6301789879798889</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -4258,7 +4258,7 @@
         <v>0.4821367816091954</v>
       </c>
       <c r="B54" t="n">
-        <v>0.3014273643493652</v>
+        <v>0.4237287044525146</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4266,7 +4266,7 @@
         <v>0.4903224137931034</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4698392152786255</v>
+        <v>0.4508602023124695</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -4274,7 +4274,7 @@
         <v>0.4994724137931035</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5803387761116028</v>
+        <v>0.4561494588851929</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -4282,7 +4282,7 @@
         <v>0.5083517241379311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.4618893265724182</v>
+        <v>0.5804630517959595</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4290,7 +4290,7 @@
         <v>0.5127241379310344</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5371270775794983</v>
+        <v>0.5035074949264526</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -4298,7 +4298,7 @@
         <v>0.5130126436781609</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5100287199020386</v>
+        <v>0.6559257507324219</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4306,7 +4306,7 @@
         <v>0.5111183908045976</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6005200743675232</v>
+        <v>0.6068252921104431</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -4314,7 +4314,7 @@
         <v>0.5127126436781609</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5685502886772156</v>
+        <v>0.578887939453125</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -4322,7 +4322,7 @@
         <v>0.5164258620689655</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5913392901420593</v>
+        <v>0.7263979911804199</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -4330,7 +4330,7 @@
         <v>0.5221948275862068</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4439008235931396</v>
+        <v>0.6406781673431396</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -4338,7 +4338,7 @@
         <v>0.5285471264367816</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5328284502029419</v>
+        <v>0.6263442635536194</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4346,7 +4346,7 @@
         <v>0.5362212643678161</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5864945650100708</v>
+        <v>0.4931619167327881</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -4354,7 +4354,7 @@
         <v>0.5462827586206895</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6162552833557129</v>
+        <v>0.6933684945106506</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4362,7 +4362,7 @@
         <v>0.5550017241379309</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6135395765304565</v>
+        <v>0.6991689205169678</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4370,7 +4370,7 @@
         <v>0.5614321839080458</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5424969792366028</v>
+        <v>0.7179940938949585</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -4378,7 +4378,7 @@
         <v>0.5679316091954022</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4982014000415802</v>
+        <v>0.5549446940422058</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4386,7 +4386,7 @@
         <v>0.573417816091954</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6948820352554321</v>
+        <v>0.6401978135108948</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -4394,7 +4394,7 @@
         <v>0.5791534482758619</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5722938776016235</v>
+        <v>0.7230215668678284</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4402,7 +4402,7 @@
         <v>0.5867160919540229</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5166495442390442</v>
+        <v>0.7178046107292175</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4410,7 +4410,7 @@
         <v>0.5949902298850573</v>
       </c>
       <c r="B73" t="n">
-        <v>0.614267885684967</v>
+        <v>0.8065861463546753</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4418,7 +4418,7 @@
         <v>0.6034304597701148</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4571569859981537</v>
+        <v>0.7453854084014893</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -4426,7 +4426,7 @@
         <v>0.6162436781609193</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5286490321159363</v>
+        <v>0.7740724086761475</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4434,7 +4434,7 @@
         <v>0.6329810344827584</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5232192873954773</v>
+        <v>0.4543007612228394</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -4442,7 +4442,7 @@
         <v>0.6492862068965516</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5445266962051392</v>
+        <v>0.592749297618866</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -4450,7 +4450,7 @@
         <v>0.6657902298850573</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5257800221443176</v>
+        <v>0.7098740339279175</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -4458,7 +4458,7 @@
         <v>0.680340804597701</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5105690956115723</v>
+        <v>0.7088959217071533</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -4466,7 +4466,7 @@
         <v>0.6927614942528735</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5045964121818542</v>
+        <v>0.5876341462135315</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -4474,7 +4474,7 @@
         <v>0.70465</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6442900896072388</v>
+        <v>0.609643280506134</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -4482,7 +4482,7 @@
         <v>0.7187844827586207</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5851029753684998</v>
+        <v>0.4605004191398621</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -4490,7 +4490,7 @@
         <v>0.7293166666666667</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5209448933601379</v>
+        <v>0.7165299654006958</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -4498,7 +4498,7 @@
         <v>0.7379856321839081</v>
       </c>
       <c r="B84" t="n">
-        <v>0.6092960238456726</v>
+        <v>0.5880526900291443</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4506,7 +4506,7 @@
         <v>0.7451810344827586</v>
       </c>
       <c r="B85" t="n">
-        <v>0.6071380972862244</v>
+        <v>0.7293283343315125</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -4514,7 +4514,7 @@
         <v>0.7524735632183908</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6502389311790466</v>
+        <v>0.4377203583717346</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -4522,7 +4522,7 @@
         <v>0.7625356321839081</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5674908757209778</v>
+        <v>0.6522431373596191</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -4530,7 +4530,7 @@
         <v>0.7742241379310345</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6028625965118408</v>
+        <v>0.6857950687408447</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -4538,7 +4538,7 @@
         <v>0.7858741379310346</v>
       </c>
       <c r="B89" t="n">
-        <v>0.6095318198204041</v>
+        <v>0.6060692071914673</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -4546,7 +4546,7 @@
         <v>0.7984798850574714</v>
       </c>
       <c r="B90" t="n">
-        <v>0.6153985857963562</v>
+        <v>0.5847753882408142</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -4554,7 +4554,7 @@
         <v>0.8108931034482759</v>
       </c>
       <c r="B91" t="n">
-        <v>0.4672995209693909</v>
+        <v>0.6015779376029968</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -4562,7 +4562,7 @@
         <v>0.8220522988505747</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5762579441070557</v>
+        <v>0.6446955800056458</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -4570,7 +4570,7 @@
         <v>0.8324344827586208</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6424602270126343</v>
+        <v>0.6438004374504089</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -4578,7 +4578,7 @@
         <v>0.8434666666666668</v>
       </c>
       <c r="B94" t="n">
-        <v>0.6175530552864075</v>
+        <v>0.724904477596283</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -4586,7 +4586,7 @@
         <v>0.8553620689655174</v>
       </c>
       <c r="B95" t="n">
-        <v>0.6902368664741516</v>
+        <v>0.667686402797699</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -4594,7 +4594,7 @@
         <v>0.8696011494252874</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6542443633079529</v>
+        <v>0.838839590549469</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -4602,7 +4602,7 @@
         <v>0.8849770114942529</v>
       </c>
       <c r="B97" t="n">
-        <v>0.7518993616104126</v>
+        <v>0.8863683938980103</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -4610,7 +4610,7 @@
         <v>0.899922988505747</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5985711216926575</v>
+        <v>0.9921344518661499</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -4618,7 +4618,7 @@
         <v>0.9148298850574711</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5488731861114502</v>
+        <v>0.5720587372779846</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4626,7 +4626,7 @@
         <v>0.9296988505747125</v>
       </c>
       <c r="B100" t="n">
-        <v>0.7260864973068237</v>
+        <v>0.8646043539047241</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4634,7 +4634,7 @@
         <v>0.9423752873563216</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6319109201431274</v>
+        <v>0.7743960022926331</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -4642,7 +4642,7 @@
         <v>0.9523844827586204</v>
       </c>
       <c r="B102" t="n">
-        <v>0.6747411489486694</v>
+        <v>0.8581077456474304</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -4650,7 +4650,7 @@
         <v>0.9586948275862065</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5827843546867371</v>
+        <v>0.8540343642234802</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -4658,7 +4658,7 @@
         <v>0.9611833333333328</v>
       </c>
       <c r="B104" t="n">
-        <v>0.7178334593772888</v>
+        <v>0.8987290859222412</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -4666,7 +4666,7 @@
         <v>0.9616787356321834</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6419429183006287</v>
+        <v>0.8601669669151306</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -4674,7 +4674,7 @@
         <v>0.9616787356321833</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6418800950050354</v>
+        <v>0.7563549876213074</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -4682,7 +4682,7 @@
         <v>0.9617166666666661</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6953092217445374</v>
+        <v>0.6433032751083374</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -4690,7 +4690,7 @@
         <v>0.9617545977011489</v>
       </c>
       <c r="B108" t="n">
-        <v>0.7341910004615784</v>
+        <v>0.610181987285614</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -4698,7 +4698,7 @@
         <v>0.9617925287356317</v>
       </c>
       <c r="B109" t="n">
-        <v>0.686240553855896</v>
+        <v>0.9427399635314941</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -4706,7 +4706,7 @@
         <v>0.9618304597701144</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6050614714622498</v>
+        <v>0.6411038041114807</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -4714,7 +4714,7 @@
         <v>0.9630499999999995</v>
       </c>
       <c r="B111" t="n">
-        <v>0.7266479134559631</v>
+        <v>0.7804695963859558</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -4722,7 +4722,7 @@
         <v>0.9671798850574708</v>
       </c>
       <c r="B112" t="n">
-        <v>0.7178113460540771</v>
+        <v>0.8461400270462036</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -4730,7 +4730,7 @@
         <v>0.9714620689655168</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6162354350090027</v>
+        <v>0.7659463286399841</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -4738,7 +4738,7 @@
         <v>0.9759505747126432</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6000670790672302</v>
+        <v>0.7345623373985291</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -4746,7 +4746,7 @@
         <v>0.9805367816091949</v>
       </c>
       <c r="B115" t="n">
-        <v>0.7852187752723694</v>
+        <v>0.8672226667404175</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -4754,7 +4754,7 @@
         <v>0.9851229885057465</v>
       </c>
       <c r="B116" t="n">
-        <v>0.6356053352355957</v>
+        <v>0.7697616815567017</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -4762,7 +4762,7 @@
         <v>0.9900517241379305</v>
       </c>
       <c r="B117" t="n">
-        <v>0.7392309308052063</v>
+        <v>1.038094997406006</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -4770,7 +4770,7 @@
         <v>0.9949804597701144</v>
       </c>
       <c r="B118" t="n">
-        <v>0.7576552033424377</v>
+        <v>0.7318126559257507</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -4778,7 +4778,7 @@
         <v>0.9974908045977007</v>
       </c>
       <c r="B119" t="n">
-        <v>0.7720723748207092</v>
+        <v>0.792219877243042</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -4786,7 +4786,7 @@
         <v>0.9981752873563213</v>
       </c>
       <c r="B120" t="n">
-        <v>0.8594191670417786</v>
+        <v>1.00331974029541</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -4794,7 +4794,7 @@
         <v>0.9988597701149421</v>
       </c>
       <c r="B121" t="n">
-        <v>0.714882493019104</v>
+        <v>0.9292636513710022</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -4802,7 +4802,7 @@
         <v>0.9992022988505742</v>
       </c>
       <c r="B122" t="n">
-        <v>0.7480936646461487</v>
+        <v>0.8464146256446838</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -4810,7 +4810,7 @@
         <v>0.9995448275862064</v>
       </c>
       <c r="B123" t="n">
-        <v>0.8176562786102295</v>
+        <v>1.070913195610046</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -4818,7 +4818,7 @@
         <v>0.9995448275862064</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7896606922149658</v>
+        <v>0.9810614585876465</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4826,7 +4826,7 @@
         <v>0.9996017241379306</v>
       </c>
       <c r="B125" t="n">
-        <v>0.8653616905212402</v>
+        <v>0.9263396263122559</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -4834,7 +4834,7 @@
         <v>0.9996586206896547</v>
       </c>
       <c r="B126" t="n">
-        <v>0.7893875241279602</v>
+        <v>0.994288444519043</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -4842,7 +4842,7 @@
         <v>0.9997155172413789</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7109367251396179</v>
+        <v>0.938261866569519</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -4850,7 +4850,7 @@
         <v>0.999772413793103</v>
       </c>
       <c r="B128" t="n">
-        <v>0.8581040501594543</v>
+        <v>0.7842068672180176</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -4858,7 +4858,7 @@
         <v>0.9998293103448271</v>
       </c>
       <c r="B129" t="n">
-        <v>0.8510779142379761</v>
+        <v>1.037217378616333</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -4866,7 +4866,7 @@
         <v>0.9998862068965513</v>
       </c>
       <c r="B130" t="n">
-        <v>0.7967351078987122</v>
+        <v>0.9795740246772766</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -4874,7 +4874,7 @@
         <v>0.9999431034482754</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7095862627029419</v>
+        <v>1.020043849945068</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -4882,7 +4882,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B132" t="n">
-        <v>0.8199138641357422</v>
+        <v>0.9435776472091675</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -4890,7 +4890,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B133" t="n">
-        <v>0.7625790238380432</v>
+        <v>0.8584967255592346</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -4898,7 +4898,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B134" t="n">
-        <v>0.7479973435401917</v>
+        <v>0.9377049803733826</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -4906,7 +4906,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B135" t="n">
-        <v>0.7579376697540283</v>
+        <v>0.8199502229690552</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -4914,7 +4914,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B136" t="n">
-        <v>0.9075217843055725</v>
+        <v>0.948914647102356</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -4922,7 +4922,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B137" t="n">
-        <v>0.7365568876266479</v>
+        <v>0.8894224166870117</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -4930,7 +4930,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8364418148994446</v>
+        <v>0.7718546986579895</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -4938,7 +4938,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B139" t="n">
-        <v>0.7925770282745361</v>
+        <v>0.9815521240234375</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -4946,7 +4946,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B140" t="n">
-        <v>0.7754306197166443</v>
+        <v>0.7627478241920471</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -4954,7 +4954,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B141" t="n">
-        <v>0.8048374056816101</v>
+        <v>1.106241464614868</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -4962,7 +4962,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B142" t="n">
-        <v>0.7826762795448303</v>
+        <v>1.052159070968628</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -4970,7 +4970,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B143" t="n">
-        <v>0.7598894238471985</v>
+        <v>1.110679864883423</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -4978,7 +4978,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B144" t="n">
-        <v>0.7772212028503418</v>
+        <v>1.129337549209595</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -4986,7 +4986,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B145" t="n">
-        <v>0.8711109161376953</v>
+        <v>0.6964695453643799</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -4994,7 +4994,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B146" t="n">
-        <v>0.8497053384780884</v>
+        <v>0.9908782243728638</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -5002,7 +5002,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B147" t="n">
-        <v>0.8456988334655762</v>
+        <v>0.9906874895095825</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -5010,7 +5010,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B148" t="n">
-        <v>0.9106939435005188</v>
+        <v>0.7910652160644531</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -5018,7 +5018,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B149" t="n">
-        <v>0.8131366372108459</v>
+        <v>1.06830096244812</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -5026,7 +5026,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B150" t="n">
-        <v>0.8484359383583069</v>
+        <v>0.8900398015975952</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -5034,7 +5034,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B151" t="n">
-        <v>0.8070846199989319</v>
+        <v>0.871088445186615</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -5042,7 +5042,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B152" t="n">
-        <v>0.7870994806289673</v>
+        <v>0.8877451419830322</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -5050,7 +5050,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B153" t="n">
-        <v>0.7722893357276917</v>
+        <v>0.7954987287521362</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -5058,7 +5058,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B154" t="n">
-        <v>0.7622119784355164</v>
+        <v>0.7852868437767029</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -5066,7 +5066,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B155" t="n">
-        <v>0.8590400815010071</v>
+        <v>0.8504029512405396</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -5074,7 +5074,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B156" t="n">
-        <v>0.7492778897285461</v>
+        <v>0.5222958326339722</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -5082,7 +5082,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B157" t="n">
-        <v>0.7508111596107483</v>
+        <v>0.9018988013267517</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -5090,7 +5090,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B158" t="n">
-        <v>0.828959047794342</v>
+        <v>1.195982813835144</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -5098,7 +5098,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B159" t="n">
-        <v>0.8284903764724731</v>
+        <v>0.9694749116897583</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -5106,7 +5106,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B160" t="n">
-        <v>0.8312214016914368</v>
+        <v>0.7908432483673096</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -5114,7 +5114,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B161" t="n">
-        <v>0.7746157646179199</v>
+        <v>1.077380537986755</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -5122,7 +5122,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B162" t="n">
-        <v>0.8070847988128662</v>
+        <v>1.127129554748535</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -5130,7 +5130,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B163" t="n">
-        <v>0.7712596654891968</v>
+        <v>0.9037651419639587</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -5138,7 +5138,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B164" t="n">
-        <v>0.816416323184967</v>
+        <v>0.9509571194648743</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -5146,7 +5146,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B165" t="n">
-        <v>0.762057900428772</v>
+        <v>0.9324228763580322</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -5154,7 +5154,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B166" t="n">
-        <v>0.7975253462791443</v>
+        <v>0.9830872416496277</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -5162,7 +5162,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B167" t="n">
-        <v>0.7881755232810974</v>
+        <v>1.132215619087219</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -5170,7 +5170,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B168" t="n">
-        <v>0.8803349733352661</v>
+        <v>1.005894780158997</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -5178,7 +5178,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B169" t="n">
-        <v>0.7859184145927429</v>
+        <v>0.8451586961746216</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -5186,7 +5186,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B170" t="n">
-        <v>0.8634864091873169</v>
+        <v>1.094111084938049</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -5194,7 +5194,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B171" t="n">
-        <v>0.8029154539108276</v>
+        <v>1.01480770111084</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -5202,7 +5202,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B172" t="n">
-        <v>0.89564448595047</v>
+        <v>1.235904097557068</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -5210,7 +5210,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B173" t="n">
-        <v>0.8227804899215698</v>
+        <v>0.926651656627655</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -5218,7 +5218,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B174" t="n">
-        <v>0.7825561165809631</v>
+        <v>1.176475286483765</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -5226,7 +5226,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B175" t="n">
-        <v>0.798783004283905</v>
+        <v>0.9665027856826782</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -5234,7 +5234,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B176" t="n">
-        <v>0.8753690719604492</v>
+        <v>0.8667523860931396</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -5242,7 +5242,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B177" t="n">
-        <v>0.7317097783088684</v>
+        <v>0.9105550050735474</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -5250,7 +5250,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B178" t="n">
-        <v>0.8493695855140686</v>
+        <v>1.003881335258484</v>
       </c>
     </row>
   </sheetData>

--- a/result/chenting_20151124_noon_2.mat3.xlsx
+++ b/result/chenting_20151124_noon_2.mat3.xlsx
@@ -415,16 +415,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>48.11359659830729</v>
+        <v>6.033454100290935</v>
       </c>
       <c r="C2" t="n">
-        <v>13723.24055989583</v>
+        <v>3231.2158203125</v>
       </c>
       <c r="D2" t="n">
-        <v>47.65909671783447</v>
+        <v>5.244446476300557</v>
       </c>
       <c r="E2" t="n">
-        <v>13722.7861328125</v>
+        <v>3230.426839192708</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -432,16 +432,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.65479183197021</v>
+        <v>5.123861153920491</v>
       </c>
       <c r="C3" t="n">
-        <v>13431.31380208333</v>
+        <v>3171.328450520833</v>
       </c>
       <c r="D3" t="n">
-        <v>17.5489862759908</v>
+        <v>5.535960952440898</v>
       </c>
       <c r="E3" t="n">
-        <v>13432.20817057292</v>
+        <v>3171.740559895833</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -449,16 +449,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20.87191836039225</v>
+        <v>3.373422622680664</v>
       </c>
       <c r="C4" t="n">
-        <v>13178.33072916667</v>
+        <v>3111.485677083333</v>
       </c>
       <c r="D4" t="n">
-        <v>21.06988191604614</v>
+        <v>2.995255370934804</v>
       </c>
       <c r="E4" t="n">
-        <v>13178.52897135417</v>
+        <v>3111.107543945312</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -466,16 +466,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.30818271636963</v>
+        <v>1.091842651367188</v>
       </c>
       <c r="C5" t="n">
-        <v>12918.89029947917</v>
+        <v>3052.105224609375</v>
       </c>
       <c r="D5" t="n">
-        <v>13.53478240966797</v>
+        <v>0.9077902833620707</v>
       </c>
       <c r="E5" t="n">
-        <v>12919.11678059896</v>
+        <v>3051.921264648438</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -483,16 +483,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.89203707377116</v>
+        <v>7.747926235198975</v>
       </c>
       <c r="C6" t="n">
-        <v>12681.75911458333</v>
+        <v>3002.781575520833</v>
       </c>
       <c r="D6" t="n">
-        <v>22.78849601745605</v>
+        <v>7.834740916887919</v>
       </c>
       <c r="E6" t="n">
-        <v>12681.65584309896</v>
+        <v>3002.868428548177</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -500,16 +500,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.88874371846517</v>
+        <v>3.627849340438843</v>
       </c>
       <c r="C7" t="n">
-        <v>12444.515625</v>
+        <v>2943.897867838542</v>
       </c>
       <c r="D7" t="n">
-        <v>27.13190110524495</v>
+        <v>3.787253340085348</v>
       </c>
       <c r="E7" t="n">
-        <v>12444.75887044271</v>
+        <v>2944.057250976562</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -517,16 +517,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.65919303894043</v>
+        <v>2.368714968363444</v>
       </c>
       <c r="C8" t="n">
-        <v>12194.3359375</v>
+        <v>2888.934977213542</v>
       </c>
       <c r="D8" t="n">
-        <v>12.39856727917989</v>
+        <v>2.185867071151733</v>
       </c>
       <c r="E8" t="n">
-        <v>12194.07543945312</v>
+        <v>2888.75205485026</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -534,16 +534,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>4.851779619852702</v>
+        <v>3.393966197967529</v>
       </c>
       <c r="C9" t="n">
-        <v>11955.14095052083</v>
+        <v>2837.289713541667</v>
       </c>
       <c r="D9" t="n">
-        <v>4.907694419225057</v>
+        <v>3.018294056256612</v>
       </c>
       <c r="E9" t="n">
-        <v>11955.19677734375</v>
+        <v>2836.914082845052</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -551,16 +551,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>2.959057331085205</v>
+        <v>0.6590824723243713</v>
       </c>
       <c r="C10" t="n">
-        <v>11726.38248697917</v>
+        <v>2782.958089192708</v>
       </c>
       <c r="D10" t="n">
-        <v>3.062881151835124</v>
+        <v>1.097339431444804</v>
       </c>
       <c r="E10" t="n">
-        <v>11726.48673502604</v>
+        <v>2783.39638264974</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -568,16 +568,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.449639320373535</v>
+        <v>0.51701919734478</v>
       </c>
       <c r="C11" t="n">
-        <v>11509.24088541667</v>
+        <v>2732.310221354167</v>
       </c>
       <c r="D11" t="n">
-        <v>8.16943895816803</v>
+        <v>0.7663015723228455</v>
       </c>
       <c r="E11" t="n">
-        <v>11508.96053059896</v>
+        <v>2732.559488932292</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -585,16 +585,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>1.925043026606242</v>
+        <v>4.505505720774333</v>
       </c>
       <c r="C12" t="n">
-        <v>11284.46126302083</v>
+        <v>2686.783854166667</v>
       </c>
       <c r="D12" t="n">
-        <v>1.343518008788427</v>
+        <v>4.360562403996785</v>
       </c>
       <c r="E12" t="n">
-        <v>11283.87947591146</v>
+        <v>2686.638854980469</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -602,16 +602,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>1.450626075267792</v>
+        <v>4.270996729532878</v>
       </c>
       <c r="C13" t="n">
-        <v>11069.94401041667</v>
+        <v>2638.071533203125</v>
       </c>
       <c r="D13" t="n">
-        <v>1.725811392068863</v>
+        <v>4.20298699537913</v>
       </c>
       <c r="E13" t="n">
-        <v>11070.21899414062</v>
+        <v>2638.003499348958</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -619,16 +619,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>1.546710213025411</v>
+        <v>1.08084762096405</v>
       </c>
       <c r="C14" t="n">
-        <v>10860.01627604167</v>
+        <v>2587.343098958333</v>
       </c>
       <c r="D14" t="n">
-        <v>1.44288033246994</v>
+        <v>1.010914370417595</v>
       </c>
       <c r="E14" t="n">
-        <v>10859.91259765625</v>
+        <v>2587.273132324219</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -636,16 +636,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>1.32103951772054</v>
+        <v>0.8138057986895243</v>
       </c>
       <c r="C15" t="n">
-        <v>10653.69010416667</v>
+        <v>2540.437825520833</v>
       </c>
       <c r="D15" t="n">
-        <v>1.339393834273021</v>
+        <v>0.7672925094763438</v>
       </c>
       <c r="E15" t="n">
-        <v>10653.70857747396</v>
+        <v>2540.391357421875</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -653,16 +653,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>1.122434318065643</v>
+        <v>1.537829836209615</v>
       </c>
       <c r="C16" t="n">
-        <v>10451.19173177083</v>
+        <v>2495.38037109375</v>
       </c>
       <c r="D16" t="n">
-        <v>1.19202595949173</v>
+        <v>1.425922095775604</v>
       </c>
       <c r="E16" t="n">
-        <v>10451.26139322917</v>
+        <v>2495.26845296224</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -670,16 +670,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7360477447509766</v>
+        <v>1.040788729985555</v>
       </c>
       <c r="C17" t="n">
-        <v>10252.259765625</v>
+        <v>2449.943196614583</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8064058075348536</v>
+        <v>1.034387727578481</v>
       </c>
       <c r="E17" t="n">
-        <v>10252.32991536458</v>
+        <v>2449.936726888021</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -687,16 +687,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1.88006846110026</v>
+        <v>1.817636768023173</v>
       </c>
       <c r="C18" t="n">
-        <v>10058.5390625</v>
+        <v>2406.615234375</v>
       </c>
       <c r="D18" t="n">
-        <v>2.01020614306132</v>
+        <v>1.655605971813202</v>
       </c>
       <c r="E18" t="n">
-        <v>10058.66935221354</v>
+        <v>2406.45322672526</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -704,16 +704,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7446891665458679</v>
+        <v>0.3140148520469666</v>
       </c>
       <c r="C19" t="n">
-        <v>9866.230143229166</v>
+        <v>2361.82421875</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6834728320439657</v>
+        <v>0.3892112597823143</v>
       </c>
       <c r="E19" t="n">
-        <v>9866.168863932291</v>
+        <v>2361.899434407552</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -721,16 +721,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3077854613463084</v>
+        <v>1.02280314763387</v>
       </c>
       <c r="C20" t="n">
-        <v>9678.180013020834</v>
+        <v>2320.032552083333</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3113706099490325</v>
+        <v>1.016383032004039</v>
       </c>
       <c r="E20" t="n">
-        <v>9678.183430989584</v>
+        <v>2320.026123046875</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -738,16 +738,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4581401149431865</v>
+        <v>0.5868937373161316</v>
       </c>
       <c r="C21" t="n">
-        <v>9494.1953125</v>
+        <v>2277.871500651042</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5107754617929459</v>
+        <v>0.5190909231702486</v>
       </c>
       <c r="E21" t="n">
-        <v>9494.248046875</v>
+        <v>2277.803792317708</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -755,16 +755,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.557173083225886</v>
+        <v>0.7861608266830444</v>
       </c>
       <c r="C22" t="n">
-        <v>9313.565755208334</v>
+        <v>2237.120361328125</v>
       </c>
       <c r="D22" t="n">
-        <v>0.659671018520991</v>
+        <v>1.126967161893845</v>
       </c>
       <c r="E22" t="n">
-        <v>9313.66845703125</v>
+        <v>2237.461140950521</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -772,16 +772,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1690906683603922</v>
+        <v>0.6353379289309183</v>
       </c>
       <c r="C23" t="n">
-        <v>9135.7705078125</v>
+        <v>2196.783040364583</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1648617895940939</v>
+        <v>0.3843449875712395</v>
       </c>
       <c r="E23" t="n">
-        <v>9135.766194661459</v>
+        <v>2196.532023111979</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -789,16 +789,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2659267087777455</v>
+        <v>1.270282864570618</v>
       </c>
       <c r="C24" t="n">
-        <v>8961.717122395834</v>
+        <v>2157.97119140625</v>
       </c>
       <c r="D24" t="n">
-        <v>0.35100852449735</v>
+        <v>1.259321312109629</v>
       </c>
       <c r="E24" t="n">
-        <v>8961.802083333334</v>
+        <v>2157.960205078125</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,16 +806,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.2655275960763295</v>
+        <v>0.2255761275688807</v>
       </c>
       <c r="C25" t="n">
-        <v>8790.773111979166</v>
+        <v>2118.206705729167</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1923679771522681</v>
+        <v>0.1705960407853127</v>
       </c>
       <c r="E25" t="n">
-        <v>8790.7001953125</v>
+        <v>2118.151794433594</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -823,16 +823,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1831369946400324</v>
+        <v>0.3116421451171239</v>
       </c>
       <c r="C26" t="n">
-        <v>8622.896158854166</v>
+        <v>2080.278238932292</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1641375434895357</v>
+        <v>0.5150005482137203</v>
       </c>
       <c r="E26" t="n">
-        <v>8622.876953125</v>
+        <v>2080.481587727865</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -840,16 +840,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1578352650006612</v>
+        <v>0.4821585218111674</v>
       </c>
       <c r="C27" t="n">
-        <v>8458.169270833334</v>
+        <v>2043.113362630208</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1182802182932695</v>
+        <v>0.4325993383924167</v>
       </c>
       <c r="E27" t="n">
-        <v>8458.130045572916</v>
+        <v>2043.063822428385</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -857,16 +857,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1634203667442004</v>
+        <v>0.1854737823208173</v>
       </c>
       <c r="C28" t="n">
-        <v>8296.498372395834</v>
+        <v>2006.154703776042</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1078740463902553</v>
+        <v>0.2503570256133874</v>
       </c>
       <c r="E28" t="n">
-        <v>8296.442789713541</v>
+        <v>2006.219584147135</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -874,16 +874,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.2448291877905528</v>
+        <v>0.6525856057802836</v>
       </c>
       <c r="C29" t="n">
-        <v>8137.873697916667</v>
+        <v>1970.62548828125</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1828410315016905</v>
+        <v>0.7133495360612869</v>
       </c>
       <c r="E29" t="n">
-        <v>8137.811808268229</v>
+        <v>1970.686248779297</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -891,16 +891,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1971815700332324</v>
+        <v>0.3710742195447286</v>
       </c>
       <c r="C30" t="n">
-        <v>7982.05517578125</v>
+        <v>1935.00341796875</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1253008445103963</v>
+        <v>0.4809759904940923</v>
       </c>
       <c r="E30" t="n">
-        <v>7981.983154296875</v>
+        <v>1935.113311767578</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -908,16 +908,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1298138151566187</v>
+        <v>0.1360163638989131</v>
       </c>
       <c r="C31" t="n">
-        <v>7829.08740234375</v>
+        <v>1900.063110351562</v>
       </c>
       <c r="D31" t="n">
-        <v>0.09391057242949803</v>
+        <v>0.1497098573793968</v>
       </c>
       <c r="E31" t="n">
-        <v>7829.051432291667</v>
+        <v>1900.076822916667</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -925,16 +925,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.08987964193026225</v>
+        <v>0.3454711337884267</v>
       </c>
       <c r="C32" t="n">
-        <v>7678.96142578125</v>
+        <v>1866.185791015625</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1116372502098481</v>
+        <v>0.2343212962150574</v>
       </c>
       <c r="E32" t="n">
-        <v>7678.983194986979</v>
+        <v>1866.074635823568</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -942,16 +942,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.176972322165966</v>
+        <v>0.3320721089839935</v>
       </c>
       <c r="C33" t="n">
-        <v>7531.736002604167</v>
+        <v>1832.693644205729</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1225524873783191</v>
+        <v>0.2232620939612389</v>
       </c>
       <c r="E33" t="n">
-        <v>7531.681640625</v>
+        <v>1832.584818522135</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -959,16 +959,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1520009636878967</v>
+        <v>0.195310652256012</v>
       </c>
       <c r="C34" t="n">
-        <v>7387.124186197917</v>
+        <v>1799.67578125</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1048590360830228</v>
+        <v>0.138824999332428</v>
       </c>
       <c r="E34" t="n">
-        <v>7387.077067057292</v>
+        <v>1799.619303385417</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -976,16 +976,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1416818325718244</v>
+        <v>0.1666672428448995</v>
       </c>
       <c r="C35" t="n">
-        <v>7245.19482421875</v>
+        <v>1767.350911458333</v>
       </c>
       <c r="D35" t="n">
-        <v>0.09124330865840118</v>
+        <v>0.1527985489616791</v>
       </c>
       <c r="E35" t="n">
-        <v>7245.14453125</v>
+        <v>1767.336995442708</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -993,16 +993,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1712422197063764</v>
+        <v>0.161953533689181</v>
       </c>
       <c r="C36" t="n">
-        <v>7105.930338541667</v>
+        <v>1735.627156575521</v>
       </c>
       <c r="D36" t="n">
-        <v>0.09904208779335022</v>
+        <v>0.2045936472713947</v>
       </c>
       <c r="E36" t="n">
-        <v>7105.858317057292</v>
+        <v>1735.669809977214</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1010,16 +1010,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.194416232407093</v>
+        <v>0.1128039633234342</v>
       </c>
       <c r="C37" t="n">
-        <v>6969.2333984375</v>
+        <v>1704.422973632812</v>
       </c>
       <c r="D37" t="n">
-        <v>0.116599749152859</v>
+        <v>0.1100023742765188</v>
       </c>
       <c r="E37" t="n">
-        <v>6969.155680338542</v>
+        <v>1704.420186360677</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1027,16 +1027,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1058103553950787</v>
+        <v>0.1302464082837105</v>
       </c>
       <c r="C38" t="n">
-        <v>6834.951985677083</v>
+        <v>1673.839111328125</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07680536744495232</v>
+        <v>0.1397986424465974</v>
       </c>
       <c r="E38" t="n">
-        <v>6834.923055013021</v>
+        <v>1673.848663330078</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1044,16 +1044,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1611502443750699</v>
+        <v>0.1268633529543877</v>
       </c>
       <c r="C39" t="n">
-        <v>6703.305826822917</v>
+        <v>1643.778645833333</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1025553594032923</v>
+        <v>0.08901315027227004</v>
       </c>
       <c r="E39" t="n">
-        <v>6703.247151692708</v>
+        <v>1643.740743001302</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1061,16 +1061,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1509950781861941</v>
+        <v>0.1111166427532832</v>
       </c>
       <c r="C40" t="n">
-        <v>6574.036295572917</v>
+        <v>1614.239664713542</v>
       </c>
       <c r="D40" t="n">
-        <v>0.08918218159427245</v>
+        <v>0.09621938938895862</v>
       </c>
       <c r="E40" t="n">
-        <v>6573.974446614583</v>
+        <v>1614.224751790365</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1078,16 +1078,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1365138019124667</v>
+        <v>0.168821985522906</v>
       </c>
       <c r="C41" t="n">
-        <v>6447.156575520833</v>
+        <v>1585.298299153646</v>
       </c>
       <c r="D41" t="n">
-        <v>0.08772644338508447</v>
+        <v>0.09593938974042733</v>
       </c>
       <c r="E41" t="n">
-        <v>6447.107706705729</v>
+        <v>1585.225453694661</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1095,16 +1095,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.134738102555275</v>
+        <v>0.0970493604739507</v>
       </c>
       <c r="C42" t="n">
-        <v>6322.647298177083</v>
+        <v>1556.743408203125</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1413253272573153</v>
+        <v>0.08750214613974094</v>
       </c>
       <c r="E42" t="n">
-        <v>6322.654012044271</v>
+        <v>1556.733866373698</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1112,16 +1112,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1118889215091864</v>
+        <v>0.09454541156689326</v>
       </c>
       <c r="C43" t="n">
-        <v>6200.43212890625</v>
+        <v>1528.765706380208</v>
       </c>
       <c r="D43" t="n">
-        <v>0.08841965099175771</v>
+        <v>0.09485171859463055</v>
       </c>
       <c r="E43" t="n">
-        <v>6200.40869140625</v>
+        <v>1528.765981038411</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1129,16 +1129,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1417945101857185</v>
+        <v>0.1452028801043828</v>
       </c>
       <c r="C44" t="n">
-        <v>6080.537272135417</v>
+        <v>1501.340250651042</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1115462426096201</v>
+        <v>0.08141349411259095</v>
       </c>
       <c r="E44" t="n">
-        <v>6080.507080078125</v>
+        <v>1501.276489257812</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1146,16 +1146,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1153662626941999</v>
+        <v>0.1454425677657127</v>
       </c>
       <c r="C45" t="n">
-        <v>5962.81591796875</v>
+        <v>1474.355305989583</v>
       </c>
       <c r="D45" t="n">
-        <v>0.09325603023171425</v>
+        <v>0.09215219505131245</v>
       </c>
       <c r="E45" t="n">
-        <v>5962.7939453125</v>
+        <v>1474.301981608073</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1163,16 +1163,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1322081970671813</v>
+        <v>0.1315505827466647</v>
       </c>
       <c r="C46" t="n">
-        <v>5847.32568359375</v>
+        <v>1447.835042317708</v>
       </c>
       <c r="D46" t="n">
-        <v>0.09187946903208892</v>
+        <v>0.08021556648115317</v>
       </c>
       <c r="E46" t="n">
-        <v>5847.28515625</v>
+        <v>1447.783711751302</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1180,16 +1180,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.128182664513588</v>
+        <v>0.1153689697384834</v>
       </c>
       <c r="C47" t="n">
-        <v>5733.964518229167</v>
+        <v>1421.784586588542</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1461609521259864</v>
+        <v>0.09060569169620673</v>
       </c>
       <c r="E47" t="n">
-        <v>5733.982584635417</v>
+        <v>1421.759785970052</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1197,16 +1197,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1772699827949206</v>
+        <v>0.119772066672643</v>
       </c>
       <c r="C48" t="n">
-        <v>5622.7705078125</v>
+        <v>1396.218790690104</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1040925073126952</v>
+        <v>0.08077869564294815</v>
       </c>
       <c r="E48" t="n">
-        <v>5622.697387695312</v>
+        <v>1396.179779052734</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1214,16 +1214,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1019988668461641</v>
+        <v>0.1215060924490293</v>
       </c>
       <c r="C49" t="n">
-        <v>5513.51953125</v>
+        <v>1371.107625325521</v>
       </c>
       <c r="D49" t="n">
-        <v>0.08335954292366902</v>
+        <v>0.08094383496791124</v>
       </c>
       <c r="E49" t="n">
-        <v>5513.500854492188</v>
+        <v>1371.067026774089</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1231,16 +1231,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1384290580948194</v>
+        <v>0.1180830672383308</v>
       </c>
       <c r="C50" t="n">
-        <v>5406.418294270833</v>
+        <v>1346.440226236979</v>
       </c>
       <c r="D50" t="n">
-        <v>0.09418362192809582</v>
+        <v>0.0930338849623998</v>
       </c>
       <c r="E50" t="n">
-        <v>5406.373942057292</v>
+        <v>1346.415181477865</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1248,16 +1248,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1307695582509041</v>
+        <v>0.1400511115789413</v>
       </c>
       <c r="C51" t="n">
-        <v>5301.271321614583</v>
+        <v>1322.240885416667</v>
       </c>
       <c r="D51" t="n">
-        <v>0.08165107294917107</v>
+        <v>0.09251841716468334</v>
       </c>
       <c r="E51" t="n">
-        <v>5301.222249348958</v>
+        <v>1322.193339029948</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1265,16 +1265,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1514344066381454</v>
+        <v>0.1058483173449834</v>
       </c>
       <c r="C52" t="n">
-        <v>5198.11083984375</v>
+        <v>1298.418009440104</v>
       </c>
       <c r="D52" t="n">
-        <v>0.09297430173804362</v>
+        <v>0.1105116084218025</v>
       </c>
       <c r="E52" t="n">
-        <v>5198.052368164062</v>
+        <v>1298.422627766927</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1282,16 +1282,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1822860563794772</v>
+        <v>0.1262935101985931</v>
       </c>
       <c r="C53" t="n">
-        <v>5096.887858072917</v>
+        <v>1275.075520833333</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1122874853511651</v>
+        <v>0.07165126875042915</v>
       </c>
       <c r="E53" t="n">
-        <v>5096.817911783854</v>
+        <v>1275.020884195964</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1299,16 +1299,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1026572038729986</v>
+        <v>0.1521371950705846</v>
       </c>
       <c r="C54" t="n">
-        <v>4997.4462890625</v>
+        <v>1252.156290690104</v>
       </c>
       <c r="D54" t="n">
-        <v>0.09487380087375641</v>
+        <v>0.09273326086501281</v>
       </c>
       <c r="E54" t="n">
-        <v>4997.438598632812</v>
+        <v>1252.096883138021</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1316,16 +1316,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1926536659399668</v>
+        <v>0.1721424559752146</v>
       </c>
       <c r="C55" t="n">
-        <v>4900.033365885417</v>
+        <v>1229.641357421875</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1036346610635519</v>
+        <v>0.118520845969518</v>
       </c>
       <c r="E55" t="n">
-        <v>4899.944417317708</v>
+        <v>1229.587758382161</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1333,16 +1333,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1098866797983646</v>
+        <v>0.09877023597558339</v>
       </c>
       <c r="C56" t="n">
-        <v>4804.27783203125</v>
+        <v>1207.438273111979</v>
       </c>
       <c r="D56" t="n">
-        <v>0.08614819372693698</v>
+        <v>0.1046239032099644</v>
       </c>
       <c r="E56" t="n">
-        <v>4804.254150390625</v>
+        <v>1207.444122314453</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1350,16 +1350,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1276539613803228</v>
+        <v>0.09877450267473857</v>
       </c>
       <c r="C57" t="n">
-        <v>4710.411783854167</v>
+        <v>1185.705118815104</v>
       </c>
       <c r="D57" t="n">
-        <v>0.08372056111693382</v>
+        <v>0.08670100507636865</v>
       </c>
       <c r="E57" t="n">
-        <v>4710.367919921875</v>
+        <v>1185.693013509115</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1367,16 +1367,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1624158645669619</v>
+        <v>0.1573085561394691</v>
       </c>
       <c r="C58" t="n">
-        <v>4618.324055989583</v>
+        <v>1164.421468098958</v>
       </c>
       <c r="D58" t="n">
-        <v>0.09511825814843178</v>
+        <v>0.09545822627842426</v>
       </c>
       <c r="E58" t="n">
-        <v>4618.256754557292</v>
+        <v>1164.359629313151</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1384,16 +1384,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1218831973771254</v>
+        <v>0.1277651575704416</v>
       </c>
       <c r="C59" t="n">
-        <v>4527.888997395833</v>
+        <v>1143.43359375</v>
       </c>
       <c r="D59" t="n">
-        <v>0.08277039354046185</v>
+        <v>0.08119555066029231</v>
       </c>
       <c r="E59" t="n">
-        <v>4527.849853515625</v>
+        <v>1143.386973063151</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1401,16 +1401,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1009780118862788</v>
+        <v>0.09696722030639648</v>
       </c>
       <c r="C60" t="n">
-        <v>4439.171875</v>
+        <v>1122.820963541667</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08352173989017804</v>
+        <v>0.07490376817683379</v>
       </c>
       <c r="E60" t="n">
-        <v>4439.154256184896</v>
+        <v>1122.798899332682</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1418,16 +1418,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1460692075391611</v>
+        <v>0.1578492348392805</v>
       </c>
       <c r="C61" t="n">
-        <v>4352.1884765625</v>
+        <v>1102.668579101562</v>
       </c>
       <c r="D61" t="n">
-        <v>0.09894207244118054</v>
+        <v>0.08871733723208308</v>
       </c>
       <c r="E61" t="n">
-        <v>4352.141398111979</v>
+        <v>1102.599456787109</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1435,16 +1435,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.2439565012852351</v>
+        <v>0.09368368362387021</v>
       </c>
       <c r="C62" t="n">
-        <v>4266.894694010417</v>
+        <v>1082.754923502604</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1498894728720188</v>
+        <v>0.08579788791636626</v>
       </c>
       <c r="E62" t="n">
-        <v>4266.80078125</v>
+        <v>1082.747049967448</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1452,16 +1452,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1492176105578741</v>
+        <v>0.101885882516702</v>
       </c>
       <c r="C63" t="n">
-        <v>4183.021809895833</v>
+        <v>1063.272257486979</v>
       </c>
       <c r="D63" t="n">
-        <v>0.08820975137253602</v>
+        <v>0.101544991756479</v>
       </c>
       <c r="E63" t="n">
-        <v>4182.960774739583</v>
+        <v>1063.271952311198</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1469,16 +1469,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.110774353146553</v>
+        <v>0.11516967912515</v>
       </c>
       <c r="C64" t="n">
-        <v>4100.77978515625</v>
+        <v>1044.145955403646</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1060837898403406</v>
+        <v>0.08646220279236634</v>
       </c>
       <c r="E64" t="n">
-        <v>4100.774983723958</v>
+        <v>1044.117218017578</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1486,16 +1486,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.09842778990666072</v>
+        <v>0.08821525300542514</v>
       </c>
       <c r="C65" t="n">
-        <v>4020.118977864583</v>
+        <v>1025.325317382812</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1073197070509195</v>
+        <v>0.08258661814033985</v>
       </c>
       <c r="E65" t="n">
-        <v>4020.127807617188</v>
+        <v>1025.319651285807</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1503,16 +1503,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1391422227025032</v>
+        <v>0.1346282735466957</v>
       </c>
       <c r="C66" t="n">
-        <v>3941.03271484375</v>
+        <v>1006.916422526042</v>
       </c>
       <c r="D66" t="n">
-        <v>0.09037545385460059</v>
+        <v>0.08874642010778189</v>
       </c>
       <c r="E66" t="n">
-        <v>3940.983947753906</v>
+        <v>1006.870549519857</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1520,16 +1520,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1148779715100924</v>
+        <v>0.1015412869552771</v>
       </c>
       <c r="C67" t="n">
-        <v>3863.376383463542</v>
+        <v>988.7618204752604</v>
       </c>
       <c r="D67" t="n">
-        <v>0.08730432018637657</v>
+        <v>0.08174088659385841</v>
       </c>
       <c r="E67" t="n">
-        <v>3863.348795572917</v>
+        <v>988.7420298258463</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1537,16 +1537,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1404508724808693</v>
+        <v>0.1216372735798359</v>
       </c>
       <c r="C68" t="n">
-        <v>3787.235432942708</v>
+        <v>970.9880981445312</v>
       </c>
       <c r="D68" t="n">
-        <v>0.08242946242292722</v>
+        <v>0.07390569398800532</v>
       </c>
       <c r="E68" t="n">
-        <v>3787.177388509115</v>
+        <v>970.9403686523438</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1554,16 +1554,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1458463942011198</v>
+        <v>0.1402046034733454</v>
       </c>
       <c r="C69" t="n">
-        <v>3712.513346354167</v>
+        <v>953.5335083007812</v>
       </c>
       <c r="D69" t="n">
-        <v>0.11229158192873</v>
+        <v>0.07942190393805504</v>
       </c>
       <c r="E69" t="n">
-        <v>3712.479736328125</v>
+        <v>953.4727325439453</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1571,16 +1571,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1344060450792313</v>
+        <v>0.1204363827904065</v>
       </c>
       <c r="C70" t="n">
-        <v>3639.189615885417</v>
+        <v>936.35693359375</v>
       </c>
       <c r="D70" t="n">
-        <v>0.08845600423713525</v>
+        <v>0.07550932404895623</v>
       </c>
       <c r="E70" t="n">
-        <v>3639.14365641276</v>
+        <v>936.312021891276</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1588,16 +1588,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1407584870855013</v>
+        <v>0.1241546670595805</v>
       </c>
       <c r="C71" t="n">
-        <v>3567.271647135417</v>
+        <v>919.5130208333334</v>
       </c>
       <c r="D71" t="n">
-        <v>0.08680508472025394</v>
+        <v>0.07275610975921154</v>
       </c>
       <c r="E71" t="n">
-        <v>3567.21767171224</v>
+        <v>919.4616088867188</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1605,16 +1605,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.09973674267530441</v>
+        <v>0.1663078094522158</v>
       </c>
       <c r="C72" t="n">
-        <v>3496.675862630208</v>
+        <v>903.0129801432291</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1008294895291328</v>
+        <v>0.1093479997167985</v>
       </c>
       <c r="E72" t="n">
-        <v>3496.677001953125</v>
+        <v>902.9560241699219</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1622,16 +1622,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1014216827849547</v>
+        <v>0.09785216301679611</v>
       </c>
       <c r="C73" t="n">
-        <v>3427.462483723958</v>
+        <v>886.7039388020834</v>
       </c>
       <c r="D73" t="n">
-        <v>0.09395892110963662</v>
+        <v>0.09583730188508828</v>
       </c>
       <c r="E73" t="n">
-        <v>3427.455057779948</v>
+        <v>886.7019093831381</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1639,16 +1639,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.2107543746630351</v>
+        <v>0.1661841173966726</v>
       </c>
       <c r="C74" t="n">
-        <v>3359.67138671875</v>
+        <v>870.8262125651041</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1387837994843721</v>
+        <v>0.1014319273332755</v>
       </c>
       <c r="E74" t="n">
-        <v>3359.599466959635</v>
+        <v>870.7614593505859</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1656,16 +1656,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0873539000749588</v>
+        <v>0.1242662941416105</v>
       </c>
       <c r="C75" t="n">
-        <v>3292.942545572917</v>
+        <v>855.126708984375</v>
       </c>
       <c r="D75" t="n">
-        <v>0.09615252849956353</v>
+        <v>0.08093017960588138</v>
       </c>
       <c r="E75" t="n">
-        <v>3292.951375325521</v>
+        <v>855.0833740234375</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1673,16 +1673,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1012932683030764</v>
+        <v>0.09872307007511456</v>
       </c>
       <c r="C76" t="n">
-        <v>3227.616455078125</v>
+        <v>839.7283121744791</v>
       </c>
       <c r="D76" t="n">
-        <v>0.09923729797204335</v>
+        <v>0.08467860395709674</v>
       </c>
       <c r="E76" t="n">
-        <v>3227.61435953776</v>
+        <v>839.7142639160156</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1690,16 +1690,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.2032402902841568</v>
+        <v>0.1203645840287209</v>
       </c>
       <c r="C77" t="n">
-        <v>3163.628743489583</v>
+        <v>824.6586303710938</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1177704284588496</v>
+        <v>0.07778321920583646</v>
       </c>
       <c r="E77" t="n">
-        <v>3163.543294270833</v>
+        <v>824.6160532633463</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1707,16 +1707,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08708494404951732</v>
+        <v>0.1267631575465202</v>
       </c>
       <c r="C78" t="n">
-        <v>3100.645426432292</v>
+        <v>809.8475138346354</v>
       </c>
       <c r="D78" t="n">
-        <v>0.09043949780364831</v>
+        <v>0.07388636050745845</v>
       </c>
       <c r="E78" t="n">
-        <v>3100.648763020833</v>
+        <v>809.7946472167969</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1724,16 +1724,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1020978440841039</v>
+        <v>0.1197627894580364</v>
       </c>
       <c r="C79" t="n">
-        <v>3038.994384765625</v>
+        <v>795.2934773763021</v>
       </c>
       <c r="D79" t="n">
-        <v>0.1036484371870756</v>
+        <v>0.08782767380277316</v>
       </c>
       <c r="E79" t="n">
-        <v>3038.99599202474</v>
+        <v>795.2615407307943</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1741,16 +1741,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1215571736296018</v>
+        <v>0.1268349041541418</v>
       </c>
       <c r="C80" t="n">
-        <v>2978.53076171875</v>
+        <v>781.0200805664062</v>
       </c>
       <c r="D80" t="n">
-        <v>0.07355601526796818</v>
+        <v>0.07996850771208604</v>
       </c>
       <c r="E80" t="n">
-        <v>2978.482727050781</v>
+        <v>780.9732106526693</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1758,16 +1758,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.09633273507157962</v>
+        <v>0.1184570143620173</v>
       </c>
       <c r="C81" t="n">
-        <v>2919.177571614583</v>
+        <v>766.9907023111979</v>
       </c>
       <c r="D81" t="n">
-        <v>0.07497934531420469</v>
+        <v>0.08078564268847306</v>
       </c>
       <c r="E81" t="n">
-        <v>2919.156270345052</v>
+        <v>766.9530436197916</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1775,16 +1775,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1696466008822123</v>
+        <v>0.0939514475564162</v>
       </c>
       <c r="C82" t="n">
-        <v>2861.061686197917</v>
+        <v>753.2011922200521</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1044899063805739</v>
+        <v>0.09036421341200669</v>
       </c>
       <c r="E82" t="n">
-        <v>2860.996561686198</v>
+        <v>753.1976114908854</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1792,16 +1792,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1889187023043633</v>
+        <v>0.1022139030198256</v>
       </c>
       <c r="C83" t="n">
-        <v>2804.009440104167</v>
+        <v>739.6954956054688</v>
       </c>
       <c r="D83" t="n">
-        <v>0.110604874479274</v>
+        <v>0.07085537600020568</v>
       </c>
       <c r="E83" t="n">
-        <v>2803.931172688802</v>
+        <v>739.6641133626302</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1809,16 +1809,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1926389088233312</v>
+        <v>0.1013787724077702</v>
       </c>
       <c r="C84" t="n">
-        <v>2748.038330078125</v>
+        <v>726.4267985026041</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1386691946536303</v>
+        <v>0.08284854951004188</v>
       </c>
       <c r="E84" t="n">
-        <v>2747.984375</v>
+        <v>726.4082946777344</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1826,16 +1826,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1115613753596942</v>
+        <v>0.1423364803195</v>
       </c>
       <c r="C85" t="n">
-        <v>2693.0625</v>
+        <v>713.4421997070312</v>
       </c>
       <c r="D85" t="n">
-        <v>0.08933462202548981</v>
+        <v>0.08076214821388324</v>
       </c>
       <c r="E85" t="n">
-        <v>2693.040242513021</v>
+        <v>713.3806355794271</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1843,16 +1843,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1423807740211487</v>
+        <v>0.1238403643170993</v>
       </c>
       <c r="C86" t="n">
-        <v>2639.255452473958</v>
+        <v>700.6370442708334</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0882568887124459</v>
+        <v>0.08503697936733563</v>
       </c>
       <c r="E86" t="n">
-        <v>2639.201293945312</v>
+        <v>700.5982208251953</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1860,16 +1860,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1742341369390488</v>
+        <v>0.1065198654929797</v>
       </c>
       <c r="C87" t="n">
-        <v>2586.487711588542</v>
+        <v>688.066162109375</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1195936212316155</v>
+        <v>0.08591055311262608</v>
       </c>
       <c r="E87" t="n">
-        <v>2586.433085123698</v>
+        <v>688.0455576578776</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1877,16 +1877,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1402448068062464</v>
+        <v>0.1315392032265663</v>
       </c>
       <c r="C88" t="n">
-        <v>2534.673665364583</v>
+        <v>675.7686971028646</v>
       </c>
       <c r="D88" t="n">
-        <v>0.09833607698480289</v>
+        <v>0.07410147879272699</v>
       </c>
       <c r="E88" t="n">
-        <v>2534.631795247396</v>
+        <v>675.7112426757812</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1894,16 +1894,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1314675658941269</v>
+        <v>0.1026350731650988</v>
       </c>
       <c r="C89" t="n">
-        <v>2483.885823567708</v>
+        <v>663.6441446940104</v>
       </c>
       <c r="D89" t="n">
-        <v>0.08339890216787656</v>
+        <v>0.09246934236337741</v>
       </c>
       <c r="E89" t="n">
-        <v>2483.837829589844</v>
+        <v>663.6339772542318</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1911,16 +1911,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1906620313723882</v>
+        <v>0.1485200449824333</v>
       </c>
       <c r="C90" t="n">
-        <v>2434.148681640625</v>
+        <v>651.8164265950521</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1371129533896843</v>
+        <v>0.08448326556632917</v>
       </c>
       <c r="E90" t="n">
-        <v>2434.095133463542</v>
+        <v>651.7523956298828</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1928,16 +1928,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1212670703728994</v>
+        <v>0.200508492688338</v>
       </c>
       <c r="C91" t="n">
-        <v>2385.252115885417</v>
+        <v>640.2129516601562</v>
       </c>
       <c r="D91" t="n">
-        <v>0.140948281933864</v>
+        <v>0.1599049754440784</v>
       </c>
       <c r="E91" t="n">
-        <v>2385.271850585938</v>
+        <v>640.172353108724</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1945,16 +1945,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1300804143150648</v>
+        <v>0.1735658223430316</v>
       </c>
       <c r="C92" t="n">
-        <v>2337.384195963542</v>
+        <v>628.7475382486979</v>
       </c>
       <c r="D92" t="n">
-        <v>0.108907758568724</v>
+        <v>0.1167219306031863</v>
       </c>
       <c r="E92" t="n">
-        <v>2337.363037109375</v>
+        <v>628.6906992594401</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1962,16 +1962,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1617424835761388</v>
+        <v>0.1423688133557638</v>
       </c>
       <c r="C93" t="n">
-        <v>2290.469889322917</v>
+        <v>617.4912312825521</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1468903372685114</v>
+        <v>0.08630479872226715</v>
       </c>
       <c r="E93" t="n">
-        <v>2290.454996744792</v>
+        <v>617.4351857503256</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1979,16 +1979,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1443307884037495</v>
+        <v>0.1376464019219081</v>
       </c>
       <c r="C94" t="n">
-        <v>2244.422688802083</v>
+        <v>606.46875</v>
       </c>
       <c r="D94" t="n">
-        <v>0.09278964996337891</v>
+        <v>0.07848127760613959</v>
       </c>
       <c r="E94" t="n">
-        <v>2244.371134440104</v>
+        <v>606.4095916748047</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1996,16 +1996,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1644059096773466</v>
+        <v>0.09011204168200493</v>
       </c>
       <c r="C95" t="n">
-        <v>2199.308186848958</v>
+        <v>595.6055094401041</v>
       </c>
       <c r="D95" t="n">
-        <v>0.09954379250605901</v>
+        <v>0.1022387215246757</v>
       </c>
       <c r="E95" t="n">
-        <v>2199.243347167969</v>
+        <v>595.6176147460938</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2013,16 +2013,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1555122683445612</v>
+        <v>0.1284282195071379</v>
       </c>
       <c r="C96" t="n">
-        <v>2155.044840494792</v>
+        <v>585.0284423828125</v>
       </c>
       <c r="D96" t="n">
-        <v>0.08737926185131073</v>
+        <v>0.07882763911038637</v>
       </c>
       <c r="E96" t="n">
-        <v>2154.976765950521</v>
+        <v>584.9788564046224</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2030,16 +2030,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1172480881214142</v>
+        <v>0.08993881940841675</v>
       </c>
       <c r="C97" t="n">
-        <v>2111.61572265625</v>
+        <v>574.5701700846354</v>
       </c>
       <c r="D97" t="n">
-        <v>0.08706838078796864</v>
+        <v>0.0989821944385767</v>
       </c>
       <c r="E97" t="n">
-        <v>2111.585591634115</v>
+        <v>574.5792032877604</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2047,16 +2047,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>0.07720393314957619</v>
+        <v>0.1518986485898495</v>
       </c>
       <c r="C98" t="n">
-        <v>2069.033365885417</v>
+        <v>564.4060465494791</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1081540249288082</v>
+        <v>0.1068995396296183</v>
       </c>
       <c r="E98" t="n">
-        <v>2069.064208984375</v>
+        <v>564.3610432942709</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2064,16 +2064,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0771002508699894</v>
+        <v>0.09672054648399353</v>
       </c>
       <c r="C99" t="n">
-        <v>2027.322672526042</v>
+        <v>554.3130493164062</v>
       </c>
       <c r="D99" t="n">
-        <v>0.09935943533976872</v>
+        <v>0.08583413623273373</v>
       </c>
       <c r="E99" t="n">
-        <v>2027.344950358073</v>
+        <v>554.3021443684896</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2081,16 +2081,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>0.2269861822326978</v>
+        <v>0.2021549915273984</v>
       </c>
       <c r="C100" t="n">
-        <v>1986.580485026042</v>
+        <v>544.5658569335938</v>
       </c>
       <c r="D100" t="n">
-        <v>0.1342107405265172</v>
+        <v>0.1332024013002714</v>
       </c>
       <c r="E100" t="n">
-        <v>1986.487721761068</v>
+        <v>544.4969075520834</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2098,16 +2098,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>0.2093192587296168</v>
+        <v>0.1227423461774985</v>
       </c>
       <c r="C101" t="n">
-        <v>1946.475667317708</v>
+        <v>534.8200887044271</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1257913019508123</v>
+        <v>0.07543353177607059</v>
       </c>
       <c r="E101" t="n">
-        <v>1946.392161051432</v>
+        <v>534.7727559407552</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2115,16 +2115,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1702021049956481</v>
+        <v>0.1082040679951509</v>
       </c>
       <c r="C102" t="n">
-        <v>1907.137613932292</v>
+        <v>525.3179321289062</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1122703365981579</v>
+        <v>0.08449517997602622</v>
       </c>
       <c r="E102" t="n">
-        <v>1907.079681396484</v>
+        <v>525.2942148844401</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2132,16 +2132,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1121902987360954</v>
+        <v>0.1052880100905895</v>
       </c>
       <c r="C103" t="n">
-        <v>1868.553466796875</v>
+        <v>516.0032348632812</v>
       </c>
       <c r="D103" t="n">
-        <v>0.07918143800149362</v>
+        <v>0.08231702819466591</v>
       </c>
       <c r="E103" t="n">
-        <v>1868.52045694987</v>
+        <v>515.9802703857422</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2149,16 +2149,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1295764148235321</v>
+        <v>0.1202740619579951</v>
       </c>
       <c r="C104" t="n">
-        <v>1830.805460611979</v>
+        <v>506.8780314127604</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1106687517215808</v>
+        <v>0.07548779839028914</v>
       </c>
       <c r="E104" t="n">
-        <v>1830.786560058594</v>
+        <v>506.8332392374675</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2166,16 +2166,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1151715293526649</v>
+        <v>0.1107483382026355</v>
       </c>
       <c r="C105" t="n">
-        <v>1793.770670572917</v>
+        <v>497.8982543945312</v>
       </c>
       <c r="D105" t="n">
-        <v>0.09914617612957954</v>
+        <v>0.07356646874298652</v>
       </c>
       <c r="E105" t="n">
-        <v>1793.754659016927</v>
+        <v>497.8610712687175</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2183,16 +2183,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>0.1174556575715542</v>
+        <v>0.1205156035721302</v>
       </c>
       <c r="C106" t="n">
-        <v>1757.486368815104</v>
+        <v>489.1050821940104</v>
       </c>
       <c r="D106" t="n">
-        <v>0.08383000052223603</v>
+        <v>0.08588593825697899</v>
       </c>
       <c r="E106" t="n">
-        <v>1757.452728271484</v>
+        <v>489.07044728597</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2200,16 +2200,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1307625894745191</v>
+        <v>0.09849229206641515</v>
       </c>
       <c r="C107" t="n">
-        <v>1721.930216471354</v>
+        <v>480.4445393880208</v>
       </c>
       <c r="D107" t="n">
-        <v>0.09701202126840751</v>
+        <v>0.09076256180802982</v>
       </c>
       <c r="E107" t="n">
-        <v>1721.896453857422</v>
+        <v>480.4368006388347</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2217,16 +2217,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1737122014164925</v>
+        <v>0.1291933258374532</v>
       </c>
       <c r="C108" t="n">
-        <v>1687.109781901042</v>
+        <v>471.9995625813802</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1144412451734145</v>
+        <v>0.07973921361068885</v>
       </c>
       <c r="E108" t="n">
-        <v>1687.050496419271</v>
+        <v>471.9500986735026</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2234,16 +2234,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>0.2264255235592524</v>
+        <v>0.1040018374721209</v>
       </c>
       <c r="C109" t="n">
-        <v>1652.994384765625</v>
+        <v>463.6562805175781</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1530352222422759</v>
+        <v>0.08542440521220367</v>
       </c>
       <c r="E109" t="n">
-        <v>1652.920989990234</v>
+        <v>463.637700398763</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2251,16 +2251,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>0.1268341019749641</v>
+        <v>0.1540953566630681</v>
       </c>
       <c r="C110" t="n">
-        <v>1619.409057617188</v>
+        <v>455.543212890625</v>
       </c>
       <c r="D110" t="n">
-        <v>0.08661985707779725</v>
+        <v>0.1021970144162575</v>
       </c>
       <c r="E110" t="n">
-        <v>1619.368845621745</v>
+        <v>455.4913279215495</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2268,16 +2268,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1236732676625252</v>
+        <v>0.1266723337272803</v>
       </c>
       <c r="C111" t="n">
-        <v>1586.584838867188</v>
+        <v>447.5052185058594</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1347236925115188</v>
+        <v>0.07737322400013606</v>
       </c>
       <c r="E111" t="n">
-        <v>1586.595916748047</v>
+        <v>447.4559122721354</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2285,16 +2285,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>0.08909143383304279</v>
+        <v>0.0858157326777776</v>
       </c>
       <c r="C112" t="n">
-        <v>1554.383544921875</v>
+        <v>439.6039123535156</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1152842889229457</v>
+        <v>0.09595518559217453</v>
       </c>
       <c r="E112" t="n">
-        <v>1554.40971883138</v>
+        <v>439.6140543619792</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2302,16 +2302,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>0.09953791151444118</v>
+        <v>0.1138275551299254</v>
       </c>
       <c r="C113" t="n">
-        <v>1522.868448893229</v>
+        <v>431.9186299641927</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1190103050321341</v>
+        <v>0.07692677527666092</v>
       </c>
       <c r="E113" t="n">
-        <v>1522.887919108073</v>
+        <v>431.8817367553711</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2319,16 +2319,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>0.2194167499740919</v>
+        <v>0.2333533962567647</v>
       </c>
       <c r="C114" t="n">
-        <v>1492.097127278646</v>
+        <v>424.4711812337239</v>
       </c>
       <c r="D114" t="n">
-        <v>0.1285196415459116</v>
+        <v>0.1467667302737633</v>
       </c>
       <c r="E114" t="n">
-        <v>1492.006225585938</v>
+        <v>424.3845901489258</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2336,16 +2336,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1767934784293175</v>
+        <v>0.08857797707120578</v>
       </c>
       <c r="C115" t="n">
-        <v>1461.784220377604</v>
+        <v>416.9030049641927</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1212950330227613</v>
+        <v>0.1375512896726529</v>
       </c>
       <c r="E115" t="n">
-        <v>1461.728698730469</v>
+        <v>416.9519678751628</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2353,16 +2353,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1465925375620524</v>
+        <v>0.1308788061141968</v>
       </c>
       <c r="C116" t="n">
-        <v>1432.090657552083</v>
+        <v>409.6617329915364</v>
       </c>
       <c r="D116" t="n">
-        <v>0.08993694434563319</v>
+        <v>0.07859575127561887</v>
       </c>
       <c r="E116" t="n">
-        <v>1432.034037272135</v>
+        <v>409.6094512939453</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2370,16 +2370,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1552919472257296</v>
+        <v>0.09348750859498978</v>
       </c>
       <c r="C117" t="n">
-        <v>1403.030680338542</v>
+        <v>402.4774678548177</v>
       </c>
       <c r="D117" t="n">
-        <v>0.09934125530223052</v>
+        <v>0.08718606270849705</v>
       </c>
       <c r="E117" t="n">
-        <v>1402.974700927734</v>
+        <v>402.4711558024089</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2387,16 +2387,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>0.167507899304231</v>
+        <v>0.1908132508397102</v>
       </c>
       <c r="C118" t="n">
-        <v>1374.560099283854</v>
+        <v>395.5620320638021</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1036372712502877</v>
+        <v>0.1151052260150512</v>
       </c>
       <c r="E118" t="n">
-        <v>1374.496215820312</v>
+        <v>395.4863204956055</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2404,16 +2404,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1002192248900731</v>
+        <v>0.1410037949681282</v>
       </c>
       <c r="C119" t="n">
-        <v>1346.583821614583</v>
+        <v>388.6328837076823</v>
       </c>
       <c r="D119" t="n">
-        <v>0.09878906918068726</v>
+        <v>0.08337061665952206</v>
       </c>
       <c r="E119" t="n">
-        <v>1346.582427978516</v>
+        <v>388.5752538045247</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2421,16 +2421,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>0.08882797509431839</v>
+        <v>0.1190628310044606</v>
       </c>
       <c r="C120" t="n">
-        <v>1319.226643880208</v>
+        <v>381.8612874348958</v>
       </c>
       <c r="D120" t="n">
-        <v>0.08964632079005241</v>
+        <v>0.09153871672848861</v>
       </c>
       <c r="E120" t="n">
-        <v>1319.227457682292</v>
+        <v>381.8337554931641</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2438,16 +2438,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>0.09365817407766978</v>
+        <v>0.1078282718857129</v>
       </c>
       <c r="C121" t="n">
-        <v>1292.438273111979</v>
+        <v>375.2272745768229</v>
       </c>
       <c r="D121" t="n">
-        <v>0.08779484530289967</v>
+        <v>0.0819341732809941</v>
       </c>
       <c r="E121" t="n">
-        <v>1292.432393391927</v>
+        <v>375.2013804117839</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2455,16 +2455,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1214893832802773</v>
+        <v>0.144646555185318</v>
       </c>
       <c r="C122" t="n">
-        <v>1266.215861002604</v>
+        <v>368.7667439778646</v>
       </c>
       <c r="D122" t="n">
-        <v>0.09110737716158231</v>
+        <v>0.08456849244733651</v>
       </c>
       <c r="E122" t="n">
-        <v>1266.185455322266</v>
+        <v>368.7066701253255</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2472,16 +2472,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>0.2157729615767797</v>
+        <v>0.137336735924085</v>
       </c>
       <c r="C123" t="n">
-        <v>1240.596964518229</v>
+        <v>362.3843485514323</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1410464216023684</v>
+        <v>0.08505517927308877</v>
       </c>
       <c r="E123" t="n">
-        <v>1240.522277832031</v>
+        <v>362.3320643107097</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2489,16 +2489,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>0.08698486164212227</v>
+        <v>0.09034405648708344</v>
       </c>
       <c r="C124" t="n">
-        <v>1215.274129231771</v>
+        <v>356.0830179850261</v>
       </c>
       <c r="D124" t="n">
-        <v>0.08551822168131669</v>
+        <v>0.1007830879340569</v>
       </c>
       <c r="E124" t="n">
-        <v>1215.272644042969</v>
+        <v>356.0934575398763</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2506,16 +2506,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>0.09999688714742661</v>
+        <v>0.165436734755834</v>
       </c>
       <c r="C125" t="n">
-        <v>1190.604654947917</v>
+        <v>350.0225219726562</v>
       </c>
       <c r="D125" t="n">
-        <v>0.09337500544885795</v>
+        <v>0.09501311493416627</v>
       </c>
       <c r="E125" t="n">
-        <v>1190.598002115885</v>
+        <v>349.9520975748698</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2523,16 +2523,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>0.1431448894242446</v>
+        <v>0.1359594464302063</v>
       </c>
       <c r="C126" t="n">
-        <v>1166.467488606771</v>
+        <v>343.9738566080729</v>
       </c>
       <c r="D126" t="n">
-        <v>0.1004537468155225</v>
+        <v>0.08584674013157685</v>
       </c>
       <c r="E126" t="n">
-        <v>1166.424784342448</v>
+        <v>343.9237391153972</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2540,16 +2540,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>0.1426816234985987</v>
+        <v>0.1144562177360058</v>
       </c>
       <c r="C127" t="n">
-        <v>1142.78076171875</v>
+        <v>338.0466715494792</v>
       </c>
       <c r="D127" t="n">
-        <v>0.1029005820552508</v>
+        <v>0.08339781314134598</v>
       </c>
       <c r="E127" t="n">
-        <v>1142.740956624349</v>
+        <v>338.0156173706055</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2557,16 +2557,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>0.109470213452975</v>
+        <v>0.1280241807301839</v>
       </c>
       <c r="C128" t="n">
-        <v>1119.543782552083</v>
+        <v>332.2667948404948</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1282574261228243</v>
+        <v>0.07681537109116714</v>
       </c>
       <c r="E128" t="n">
-        <v>1119.562591552734</v>
+        <v>332.215581258138</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2574,16 +2574,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>0.1333930715918541</v>
+        <v>0.1045486318568389</v>
       </c>
       <c r="C129" t="n">
-        <v>1096.838704427083</v>
+        <v>326.560302734375</v>
       </c>
       <c r="D129" t="n">
-        <v>0.09707355747620265</v>
+        <v>0.08005966432392597</v>
       </c>
       <c r="E129" t="n">
-        <v>1096.802408854167</v>
+        <v>326.5358098347982</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2591,16 +2591,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>0.1156859671076139</v>
+        <v>0.09001178294420242</v>
       </c>
       <c r="C130" t="n">
-        <v>1074.558553059896</v>
+        <v>320.9713643391927</v>
       </c>
       <c r="D130" t="n">
-        <v>0.09676211327314377</v>
+        <v>0.09271454811096191</v>
       </c>
       <c r="E130" t="n">
-        <v>1074.539632161458</v>
+        <v>320.9740600585938</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2608,16 +2608,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>0.130161739885807</v>
+        <v>0.1907707949479421</v>
       </c>
       <c r="C131" t="n">
-        <v>1052.768229166667</v>
+        <v>315.603759765625</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1223894755045573</v>
+        <v>0.1129003682484229</v>
       </c>
       <c r="E131" t="n">
-        <v>1052.760467529297</v>
+        <v>315.5258967081706</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2625,16 +2625,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1415045782923698</v>
+        <v>0.09183067828416824</v>
       </c>
       <c r="C132" t="n">
-        <v>1031.423461914062</v>
+        <v>310.1412963867188</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0920271606494983</v>
+        <v>0.115461153909564</v>
       </c>
       <c r="E132" t="n">
-        <v>1031.374013264974</v>
+        <v>310.1649347941081</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2642,16 +2642,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>0.1312033571302891</v>
+        <v>0.1160362213850021</v>
       </c>
       <c r="C133" t="n">
-        <v>1010.497721354167</v>
+        <v>304.9041341145833</v>
       </c>
       <c r="D133" t="n">
-        <v>0.09424612733225028</v>
+        <v>0.08545845746994019</v>
       </c>
       <c r="E133" t="n">
-        <v>1010.460764567057</v>
+        <v>304.8735427856445</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2659,16 +2659,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>0.2500287890434265</v>
+        <v>0.08755014464259148</v>
       </c>
       <c r="C134" t="n">
-        <v>990.1321004231771</v>
+        <v>299.7148946126302</v>
       </c>
       <c r="D134" t="n">
-        <v>0.299597126742204</v>
+        <v>0.0922863498950998</v>
       </c>
       <c r="E134" t="n">
-        <v>990.1816762288412</v>
+        <v>299.7196375528972</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2676,16 +2676,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1788326178987821</v>
+        <v>0.1439405431350072</v>
       </c>
       <c r="C135" t="n">
-        <v>970.0042114257812</v>
+        <v>294.7090047200521</v>
       </c>
       <c r="D135" t="n">
-        <v>0.1199099669853846</v>
+        <v>0.08480466809123755</v>
       </c>
       <c r="E135" t="n">
-        <v>969.9452921549479</v>
+        <v>294.6498616536458</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2693,16 +2693,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1459626580278079</v>
+        <v>0.1936832418044408</v>
       </c>
       <c r="C136" t="n">
-        <v>950.3279825846354</v>
+        <v>289.7931111653646</v>
       </c>
       <c r="D136" t="n">
-        <v>0.1019962436209122</v>
+        <v>0.1234893097231786</v>
       </c>
       <c r="E136" t="n">
-        <v>950.2840067545573</v>
+        <v>289.7229156494141</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2710,16 +2710,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>0.1555330703655879</v>
+        <v>0.1152617583672206</v>
       </c>
       <c r="C137" t="n">
-        <v>931.0984497070312</v>
+        <v>284.8446350097656</v>
       </c>
       <c r="D137" t="n">
-        <v>0.09119962621480227</v>
+        <v>0.08356298506259918</v>
       </c>
       <c r="E137" t="n">
-        <v>931.0341440836588</v>
+        <v>284.8129348754883</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2727,16 +2727,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>0.1138831625382106</v>
+        <v>0.1272790978352229</v>
       </c>
       <c r="C138" t="n">
-        <v>912.2157592773438</v>
+        <v>280.0801289876302</v>
       </c>
       <c r="D138" t="n">
-        <v>0.1515636506179968</v>
+        <v>0.07539371711512406</v>
       </c>
       <c r="E138" t="n">
-        <v>912.2534332275391</v>
+        <v>280.0282465616862</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2744,16 +2744,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>0.1137717738747597</v>
+        <v>0.1495977888504664</v>
       </c>
       <c r="C139" t="n">
-        <v>893.7686157226562</v>
+        <v>275.4171142578125</v>
       </c>
       <c r="D139" t="n">
-        <v>0.1200471160312494</v>
+        <v>0.09481975187857945</v>
       </c>
       <c r="E139" t="n">
-        <v>893.774892171224</v>
+        <v>275.3623377482097</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2761,16 +2761,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>0.11470835780104</v>
+        <v>0.09335973610480626</v>
       </c>
       <c r="C140" t="n">
-        <v>875.7076009114584</v>
+        <v>270.7654520670573</v>
       </c>
       <c r="D140" t="n">
-        <v>0.08707620576024055</v>
+        <v>0.08612748173375924</v>
       </c>
       <c r="E140" t="n">
-        <v>875.6799672444662</v>
+        <v>270.7582143147786</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2778,16 +2778,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>0.1050526748100917</v>
+        <v>0.2010123829046885</v>
       </c>
       <c r="C141" t="n">
-        <v>858.009765625</v>
+        <v>266.3669942220052</v>
       </c>
       <c r="D141" t="n">
-        <v>0.1070609825352828</v>
+        <v>0.1188665265217423</v>
       </c>
       <c r="E141" t="n">
-        <v>858.0117797851562</v>
+        <v>266.2848485310872</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2795,16 +2795,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>0.1531156649192174</v>
+        <v>0.09154062221447627</v>
       </c>
       <c r="C142" t="n">
-        <v>840.7383829752604</v>
+        <v>261.8383585611979</v>
       </c>
       <c r="D142" t="n">
-        <v>0.1089705744137367</v>
+        <v>0.1128885460396608</v>
       </c>
       <c r="E142" t="n">
-        <v>840.6942392985026</v>
+        <v>261.8597132364909</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2812,16 +2812,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0997098907828331</v>
+        <v>0.09372276067733765</v>
       </c>
       <c r="C143" t="n">
-        <v>823.7277425130209</v>
+        <v>257.5069071451823</v>
       </c>
       <c r="D143" t="n">
-        <v>0.120392894372344</v>
+        <v>0.1134019922465086</v>
       </c>
       <c r="E143" t="n">
-        <v>823.7484486897787</v>
+        <v>257.5265833536784</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2829,16 +2829,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>0.132636908441782</v>
+        <v>0.1867967794338862</v>
       </c>
       <c r="C144" t="n">
-        <v>807.1581420898438</v>
+        <v>253.3505655924479</v>
       </c>
       <c r="D144" t="n">
-        <v>0.09481945106138785</v>
+        <v>0.1118767752001683</v>
       </c>
       <c r="E144" t="n">
-        <v>807.1203308105469</v>
+        <v>253.2756487528483</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2846,16 +2846,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>0.1139048176507155</v>
+        <v>0.1230283876260122</v>
       </c>
       <c r="C145" t="n">
-        <v>790.8842366536459</v>
+        <v>249.118418375651</v>
       </c>
       <c r="D145" t="n">
-        <v>0.09408137698968251</v>
+        <v>0.08120108209550381</v>
       </c>
       <c r="E145" t="n">
-        <v>790.8644053141276</v>
+        <v>249.0765953063965</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2863,16 +2863,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>0.1215297703941663</v>
+        <v>0.1099456300338109</v>
       </c>
       <c r="C146" t="n">
-        <v>774.97900390625</v>
+        <v>245.0161641438802</v>
       </c>
       <c r="D146" t="n">
-        <v>0.1009637986620267</v>
+        <v>0.07814640179276466</v>
       </c>
       <c r="E146" t="n">
-        <v>774.9584452311198</v>
+        <v>244.984364827474</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2880,16 +2880,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>0.1030210430423419</v>
+        <v>0.1850018426775932</v>
       </c>
       <c r="C147" t="n">
-        <v>759.3818359375</v>
+        <v>241.0810953776042</v>
       </c>
       <c r="D147" t="n">
-        <v>0.1148572328190009</v>
+        <v>0.1079578488133848</v>
       </c>
       <c r="E147" t="n">
-        <v>759.3936614990234</v>
+        <v>241.0040461222331</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2897,16 +2897,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>0.1177391385038694</v>
+        <v>0.09523558119932811</v>
       </c>
       <c r="C148" t="n">
-        <v>744.1475830078125</v>
+        <v>237.0602467854818</v>
       </c>
       <c r="D148" t="n">
-        <v>0.1153587934871515</v>
+        <v>0.1265056952834129</v>
       </c>
       <c r="E148" t="n">
-        <v>744.1452077229818</v>
+        <v>237.0915171305338</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2914,16 +2914,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>0.1312207455436389</v>
+        <v>0.1166306113203367</v>
       </c>
       <c r="C149" t="n">
-        <v>729.2322387695312</v>
+        <v>233.2260945638021</v>
       </c>
       <c r="D149" t="n">
-        <v>0.1092761152734359</v>
+        <v>0.08985366237660249</v>
       </c>
       <c r="E149" t="n">
-        <v>729.2102915445963</v>
+        <v>233.1993192036947</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2931,16 +2931,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>0.1318907849490643</v>
+        <v>0.1115023444096247</v>
       </c>
       <c r="C150" t="n">
-        <v>714.6177978515625</v>
+        <v>229.4396413167318</v>
       </c>
       <c r="D150" t="n">
-        <v>0.09352474100887775</v>
+        <v>0.09330339729785919</v>
       </c>
       <c r="E150" t="n">
-        <v>714.5794270833334</v>
+        <v>229.421443939209</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2948,16 +2948,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>0.107234850525856</v>
+        <v>0.08717331538597743</v>
       </c>
       <c r="C151" t="n">
-        <v>700.2864379882812</v>
+        <v>225.7076365152995</v>
       </c>
       <c r="D151" t="n">
-        <v>0.09621837207426627</v>
+        <v>0.09952820899585883</v>
       </c>
       <c r="E151" t="n">
-        <v>700.2754211425781</v>
+        <v>225.7199974060059</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2965,16 +2965,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>0.1879683012763659</v>
+        <v>0.157582792143027</v>
       </c>
       <c r="C152" t="n">
-        <v>686.3628946940104</v>
+        <v>222.1421407063802</v>
       </c>
       <c r="D152" t="n">
-        <v>0.1135291925941904</v>
+        <v>0.09841113972167174</v>
       </c>
       <c r="E152" t="n">
-        <v>686.2884572347006</v>
+        <v>222.0829696655273</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2982,16 +2982,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>0.2280551046133041</v>
+        <v>0.115054115653038</v>
       </c>
       <c r="C153" t="n">
-        <v>672.6967366536459</v>
+        <v>218.5332997639974</v>
       </c>
       <c r="D153" t="n">
-        <v>0.1453947431097428</v>
+        <v>0.08283046508828799</v>
       </c>
       <c r="E153" t="n">
-        <v>672.6140899658203</v>
+        <v>218.5010744730631</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2999,16 +2999,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>0.09236814578374226</v>
+        <v>0.1306967909137408</v>
       </c>
       <c r="C154" t="n">
-        <v>659.1451416015625</v>
+        <v>215.0508778889974</v>
       </c>
       <c r="D154" t="n">
-        <v>0.08882001942644517</v>
+        <v>0.07952260940025251</v>
       </c>
       <c r="E154" t="n">
-        <v>659.1416066487631</v>
+        <v>214.9997049967448</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3016,16 +3016,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>0.142645796140035</v>
+        <v>0.1031032279133797</v>
       </c>
       <c r="C155" t="n">
-        <v>646.064453125</v>
+        <v>211.5933583577474</v>
       </c>
       <c r="D155" t="n">
-        <v>0.1009624507278204</v>
+        <v>0.08173055481165648</v>
       </c>
       <c r="E155" t="n">
-        <v>646.0227864583334</v>
+        <v>211.5719795227051</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3033,16 +3033,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>0.1245175674557686</v>
+        <v>0.1450806943078836</v>
       </c>
       <c r="C156" t="n">
-        <v>633.1962890625</v>
+        <v>208.2713673909505</v>
       </c>
       <c r="D156" t="n">
-        <v>0.1023178311685721</v>
+        <v>0.1053674165159464</v>
       </c>
       <c r="E156" t="n">
-        <v>633.1740926106771</v>
+        <v>208.2316474914551</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3050,16 +3050,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>0.1962148323655128</v>
+        <v>0.1064279290537039</v>
       </c>
       <c r="C157" t="n">
-        <v>620.6919555664062</v>
+        <v>204.9333140055338</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1191226737573743</v>
+        <v>0.08370708301663399</v>
       </c>
       <c r="E157" t="n">
-        <v>620.6148427327474</v>
+        <v>204.9105962117513</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3067,16 +3067,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>0.1191464252769947</v>
+        <v>0.1798080752293269</v>
       </c>
       <c r="C158" t="n">
-        <v>608.3062133789062</v>
+        <v>201.7714233398438</v>
       </c>
       <c r="D158" t="n">
-        <v>0.09079213843991359</v>
+        <v>0.104545833542943</v>
       </c>
       <c r="E158" t="n">
-        <v>608.2778727213541</v>
+        <v>201.696159362793</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3084,16 +3084,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>0.115245409309864</v>
+        <v>0.13788836201032</v>
       </c>
       <c r="C159" t="n">
-        <v>596.2559814453125</v>
+        <v>198.5572865804037</v>
       </c>
       <c r="D159" t="n">
-        <v>0.1655431998272737</v>
+        <v>0.07946565095335245</v>
       </c>
       <c r="E159" t="n">
-        <v>596.3062998453776</v>
+        <v>198.4988683064779</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3101,16 +3101,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>0.1330425615111987</v>
+        <v>0.1711773350834846</v>
       </c>
       <c r="C160" t="n">
-        <v>584.4860229492188</v>
+        <v>195.4799092610677</v>
       </c>
       <c r="D160" t="n">
-        <v>0.1061936380962531</v>
+        <v>0.106399904936552</v>
       </c>
       <c r="E160" t="n">
-        <v>584.4591623942057</v>
+        <v>195.4151306152344</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3118,16 +3118,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>0.09734237194061279</v>
+        <v>0.1869781563679377</v>
       </c>
       <c r="C161" t="n">
-        <v>572.9156290690104</v>
+        <v>192.4454498291016</v>
       </c>
       <c r="D161" t="n">
-        <v>0.1559050939977169</v>
+        <v>0.1113924806316694</v>
       </c>
       <c r="E161" t="n">
-        <v>572.9742075602213</v>
+        <v>192.3698616027832</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3135,16 +3135,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>0.09469980622331302</v>
+        <v>0.09942278265953064</v>
       </c>
       <c r="C162" t="n">
-        <v>561.6258341471354</v>
+        <v>189.3666839599609</v>
       </c>
       <c r="D162" t="n">
-        <v>0.1375045080979665</v>
+        <v>0.09816895984113216</v>
       </c>
       <c r="E162" t="n">
-        <v>561.6686401367188</v>
+        <v>189.365426381429</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3152,16 +3152,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>0.09935228526592255</v>
+        <v>0.1139634673794111</v>
       </c>
       <c r="C163" t="n">
-        <v>550.5861206054688</v>
+        <v>186.4481302897135</v>
       </c>
       <c r="D163" t="n">
-        <v>0.08949880053599675</v>
+        <v>0.08495508879423141</v>
       </c>
       <c r="E163" t="n">
-        <v>550.5762583414713</v>
+        <v>186.41912206014</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3169,16 +3169,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>0.1057511270046234</v>
+        <v>0.1823829089601835</v>
       </c>
       <c r="C164" t="n">
-        <v>539.7848510742188</v>
+        <v>183.6400705973307</v>
       </c>
       <c r="D164" t="n">
-        <v>0.1123337770501773</v>
+        <v>0.1173285798480113</v>
       </c>
       <c r="E164" t="n">
-        <v>539.7914072672526</v>
+        <v>183.5750147501628</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3186,16 +3186,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>0.2651559760173162</v>
+        <v>0.1133341093858083</v>
       </c>
       <c r="C165" t="n">
-        <v>529.3687540690104</v>
+        <v>180.7503916422526</v>
       </c>
       <c r="D165" t="n">
-        <v>0.1671270007888476</v>
+        <v>0.08594776565829913</v>
       </c>
       <c r="E165" t="n">
-        <v>529.2707061767578</v>
+        <v>180.7229995727539</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3203,16 +3203,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>0.2359669432044029</v>
+        <v>0.1235765057305495</v>
       </c>
       <c r="C166" t="n">
-        <v>518.9933471679688</v>
+        <v>177.9948374430338</v>
       </c>
       <c r="D166" t="n">
-        <v>0.1534902316828569</v>
+        <v>0.08757881633937359</v>
       </c>
       <c r="E166" t="n">
-        <v>518.9108734130859</v>
+        <v>177.9588406880697</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3220,16 +3220,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>0.1249828984340032</v>
+        <v>0.08743471652269363</v>
       </c>
       <c r="C167" t="n">
-        <v>508.7584025065104</v>
+        <v>175.2461293538412</v>
       </c>
       <c r="D167" t="n">
-        <v>0.09594413017233212</v>
+        <v>0.09588710218667984</v>
       </c>
       <c r="E167" t="n">
-        <v>508.729367574056</v>
+        <v>175.2545801798503</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3237,16 +3237,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>0.1064000775416692</v>
+        <v>0.145862240344286</v>
       </c>
       <c r="C168" t="n">
-        <v>498.8346964518229</v>
+        <v>172.6444142659505</v>
       </c>
       <c r="D168" t="n">
-        <v>0.1613754766682784</v>
+        <v>0.09563576367994149</v>
       </c>
       <c r="E168" t="n">
-        <v>498.8896789550781</v>
+        <v>172.5941836039225</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3254,16 +3254,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>0.125298798084259</v>
+        <v>0.101737953722477</v>
       </c>
       <c r="C169" t="n">
-        <v>489.1631469726562</v>
+        <v>169.9914906819662</v>
       </c>
       <c r="D169" t="n">
-        <v>0.1063911784440279</v>
+        <v>0.09712310352673133</v>
       </c>
       <c r="E169" t="n">
-        <v>489.1442337036133</v>
+        <v>169.986878712972</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3271,16 +3271,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>0.1869803220033646</v>
+        <v>0.175423522790273</v>
       </c>
       <c r="C170" t="n">
-        <v>479.7431945800781</v>
+        <v>167.5069020589193</v>
       </c>
       <c r="D170" t="n">
-        <v>0.1281789354979992</v>
+        <v>0.09955947349468867</v>
       </c>
       <c r="E170" t="n">
-        <v>479.6843922932943</v>
+        <v>167.4310417175293</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3288,16 +3288,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>0.2373852853973707</v>
+        <v>0.1591368416945139</v>
       </c>
       <c r="C171" t="n">
-        <v>470.5162862141927</v>
+        <v>164.9824981689453</v>
       </c>
       <c r="D171" t="n">
-        <v>0.2020645290613174</v>
+        <v>0.09273684211075306</v>
       </c>
       <c r="E171" t="n">
-        <v>470.4809672037761</v>
+        <v>164.9161033630371</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3305,16 +3305,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>0.09908318022886912</v>
+        <v>0.1519790117939313</v>
       </c>
       <c r="C172" t="n">
-        <v>461.3067220052083</v>
+        <v>162.5162048339844</v>
       </c>
       <c r="D172" t="n">
-        <v>0.1042924833794435</v>
+        <v>0.09184562290708224</v>
       </c>
       <c r="E172" t="n">
-        <v>461.3119354248047</v>
+        <v>162.4560763041178</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3322,16 +3322,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>0.1014666929841042</v>
+        <v>0.1065841068824132</v>
       </c>
       <c r="C173" t="n">
-        <v>452.4320068359375</v>
+        <v>160.0592549641927</v>
       </c>
       <c r="D173" t="n">
-        <v>0.09057984066506226</v>
+        <v>0.08866739397247632</v>
       </c>
       <c r="E173" t="n">
-        <v>452.4211171468099</v>
+        <v>160.041332244873</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3339,16 +3339,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>0.1146448055903117</v>
+        <v>0.1115840661029021</v>
       </c>
       <c r="C174" t="n">
-        <v>443.7593587239583</v>
+        <v>157.6994120279948</v>
       </c>
       <c r="D174" t="n">
-        <v>0.1205675105253855</v>
+        <v>0.08305990509688854</v>
       </c>
       <c r="E174" t="n">
-        <v>443.7652842203776</v>
+        <v>157.6708920796712</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3356,16 +3356,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>0.1398183132211367</v>
+        <v>0.1319406839708487</v>
       </c>
       <c r="C175" t="n">
-        <v>435.2870992024739</v>
+        <v>155.4008636474609</v>
       </c>
       <c r="D175" t="n">
-        <v>0.09737322789927323</v>
+        <v>0.08123076893389225</v>
       </c>
       <c r="E175" t="n">
-        <v>435.2446492513021</v>
+        <v>155.3501523335775</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3373,16 +3373,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>0.1192149296402931</v>
+        <v>0.1842389379938444</v>
       </c>
       <c r="C176" t="n">
-        <v>426.9536844889323</v>
+        <v>153.1803792317708</v>
       </c>
       <c r="D176" t="n">
-        <v>0.1087579832722743</v>
+        <v>0.1112035550177097</v>
       </c>
       <c r="E176" t="n">
-        <v>426.9432322184245</v>
+        <v>153.1073430379232</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3390,16 +3390,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>0.1268849621216456</v>
+        <v>0.1022685679296653</v>
       </c>
       <c r="C177" t="n">
-        <v>418.8303426106771</v>
+        <v>150.8687489827474</v>
       </c>
       <c r="D177" t="n">
-        <v>0.1021734600265821</v>
+        <v>0.1167338012407223</v>
       </c>
       <c r="E177" t="n">
-        <v>418.8056335449219</v>
+        <v>150.8832130432129</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3407,16 +3407,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>0.1662177120645841</v>
+        <v>0.1167004493375619</v>
       </c>
       <c r="C178" t="n">
-        <v>410.9169209798177</v>
+        <v>148.6963704427083</v>
       </c>
       <c r="D178" t="n">
-        <v>0.1069576690594355</v>
+        <v>0.08536721579730511</v>
       </c>
       <c r="E178" t="n">
-        <v>410.8576583862305</v>
+        <v>148.6650352478027</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3424,16 +3424,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>0.1438233566780885</v>
+        <v>0.122235182672739</v>
       </c>
       <c r="C179" t="n">
-        <v>403.114013671875</v>
+        <v>146.5565795898438</v>
       </c>
       <c r="D179" t="n">
-        <v>0.1101352584858735</v>
+        <v>0.09016248459617297</v>
       </c>
       <c r="E179" t="n">
-        <v>403.0803197224935</v>
+        <v>146.5245043436686</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3441,16 +3441,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>0.1476625191668669</v>
+        <v>0.1707322473327319</v>
       </c>
       <c r="C180" t="n">
-        <v>395.5059407552083</v>
+        <v>144.5012715657552</v>
       </c>
       <c r="D180" t="n">
-        <v>0.1012961187710365</v>
+        <v>0.1022703610360622</v>
       </c>
       <c r="E180" t="n">
-        <v>395.4595692952474</v>
+        <v>144.4328053792318</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3458,16 +3458,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>0.1174407564103603</v>
+        <v>0.127901924153169</v>
       </c>
       <c r="C181" t="n">
-        <v>388.0292154947917</v>
+        <v>142.3952941894531</v>
       </c>
       <c r="D181" t="n">
-        <v>0.0942439641803503</v>
+        <v>0.08593205983440082</v>
       </c>
       <c r="E181" t="n">
-        <v>388.0060145060222</v>
+        <v>142.3533261617025</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3475,16 +3475,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>0.1549174562096596</v>
+        <v>0.1242039774854978</v>
       </c>
       <c r="C182" t="n">
-        <v>380.7829793294271</v>
+        <v>140.3682250976562</v>
       </c>
       <c r="D182" t="n">
-        <v>0.09388661881287892</v>
+        <v>0.09056683940192063</v>
       </c>
       <c r="E182" t="n">
-        <v>380.7219340006511</v>
+        <v>140.3345845540365</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3492,16 +3492,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>0.1816948850949605</v>
+        <v>0.1153458319604397</v>
       </c>
       <c r="C183" t="n">
-        <v>373.6864522298177</v>
+        <v>138.3754018147787</v>
       </c>
       <c r="D183" t="n">
-        <v>0.2492097554107507</v>
+        <v>0.08757833329339822</v>
       </c>
       <c r="E183" t="n">
-        <v>373.7539672851562</v>
+        <v>138.3476333618164</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3509,16 +3509,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>0.210326428214709</v>
+        <v>0.1004809774458408</v>
       </c>
       <c r="C184" t="n">
-        <v>366.7480570475261</v>
+        <v>136.4139251708984</v>
       </c>
       <c r="D184" t="n">
-        <v>0.1370159046103557</v>
+        <v>0.1041856333613396</v>
       </c>
       <c r="E184" t="n">
-        <v>366.6747360229492</v>
+        <v>136.4176317850749</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3526,16 +3526,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>0.1435142010450363</v>
+        <v>0.1514961905777454</v>
       </c>
       <c r="C185" t="n">
-        <v>359.8671468098958</v>
+        <v>134.5557047526042</v>
       </c>
       <c r="D185" t="n">
-        <v>0.1061029390742381</v>
+        <v>0.09538761464258035</v>
       </c>
       <c r="E185" t="n">
-        <v>359.8297348022461</v>
+        <v>134.4995918273926</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3543,16 +3543,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>0.1577497000495593</v>
+        <v>0.1514037450154622</v>
       </c>
       <c r="C186" t="n">
-        <v>353.2169494628906</v>
+        <v>132.682607014974</v>
       </c>
       <c r="D186" t="n">
-        <v>0.1057576133559148</v>
+        <v>0.09524172668655713</v>
       </c>
       <c r="E186" t="n">
-        <v>353.1649602254232</v>
+        <v>132.6264470418294</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3560,16 +3560,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>0.1039653333524863</v>
+        <v>0.1316261403262615</v>
       </c>
       <c r="C187" t="n">
-        <v>346.6447652180989</v>
+        <v>130.826176961263</v>
       </c>
       <c r="D187" t="n">
-        <v>0.1474848408252001</v>
+        <v>0.09064688440412283</v>
       </c>
       <c r="E187" t="n">
-        <v>346.6882858276367</v>
+        <v>130.7851969401042</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3577,16 +3577,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>0.1754950645069281</v>
+        <v>0.1296779662370682</v>
       </c>
       <c r="C188" t="n">
-        <v>340.3398640950521</v>
+        <v>129.022954305013</v>
       </c>
       <c r="D188" t="n">
-        <v>0.1180880491932233</v>
+        <v>0.08416821466137965</v>
       </c>
       <c r="E188" t="n">
-        <v>340.2824554443359</v>
+        <v>128.9774475097656</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3594,16 +3594,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>0.1795157827436924</v>
+        <v>0.1913632055123647</v>
       </c>
       <c r="C189" t="n">
-        <v>334.1077677408854</v>
+        <v>127.3178049723307</v>
       </c>
       <c r="D189" t="n">
-        <v>0.1203655538459619</v>
+        <v>0.1186975662906965</v>
       </c>
       <c r="E189" t="n">
-        <v>334.0486195882161</v>
+        <v>127.2451400756836</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3611,16 +3611,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>0.2411907315254211</v>
+        <v>0.1204393208026886</v>
       </c>
       <c r="C190" t="n">
-        <v>328.0695292154948</v>
+        <v>125.5149485270182</v>
       </c>
       <c r="D190" t="n">
-        <v>0.1687867802878221</v>
+        <v>0.08616029595335324</v>
       </c>
       <c r="E190" t="n">
-        <v>327.9971237182617</v>
+        <v>125.4806690216064</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3628,16 +3628,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>0.2437901298205058</v>
+        <v>0.1300432768960794</v>
       </c>
       <c r="C191" t="n">
-        <v>322.1078287760417</v>
+        <v>123.8252639770508</v>
       </c>
       <c r="D191" t="n">
-        <v>0.1688274852931499</v>
+        <v>0.08164971104512612</v>
       </c>
       <c r="E191" t="n">
-        <v>322.0328699747722</v>
+        <v>123.7768694559733</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3645,16 +3645,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>0.1122877349456151</v>
+        <v>0.1304305829107761</v>
       </c>
       <c r="C192" t="n">
-        <v>316.1446228027344</v>
+        <v>122.1584625244141</v>
       </c>
       <c r="D192" t="n">
-        <v>0.138456496099631</v>
+        <v>0.08272264494250219</v>
       </c>
       <c r="E192" t="n">
-        <v>316.1708068847656</v>
+        <v>122.1107540130615</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3662,16 +3662,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>0.1162869234879812</v>
+        <v>0.1471912823617458</v>
       </c>
       <c r="C193" t="n">
-        <v>310.4442240397136</v>
+        <v>120.5399983723958</v>
       </c>
       <c r="D193" t="n">
-        <v>0.1268238797783852</v>
+        <v>0.09230525108675162</v>
       </c>
       <c r="E193" t="n">
-        <v>310.4547678629557</v>
+        <v>120.4851137797038</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3679,16 +3679,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>0.1749022069076697</v>
+        <v>0.1111396898825963</v>
       </c>
       <c r="C194" t="n">
-        <v>304.9217936197917</v>
+        <v>118.9001948038737</v>
       </c>
       <c r="D194" t="n">
-        <v>0.1283609780172507</v>
+        <v>0.08728351319829623</v>
       </c>
       <c r="E194" t="n">
-        <v>304.875249226888</v>
+        <v>118.8763383229574</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3696,16 +3696,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>0.1514388732612133</v>
+        <v>0.1378883197903633</v>
       </c>
       <c r="C195" t="n">
-        <v>299.4424235026042</v>
+        <v>117.3537953694661</v>
       </c>
       <c r="D195" t="n">
-        <v>0.09654452465474606</v>
+        <v>0.08497602896143992</v>
       </c>
       <c r="E195" t="n">
-        <v>299.3875274658203</v>
+        <v>117.3008804321289</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3713,16 +3713,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>0.1420389637351036</v>
+        <v>0.191177931924661</v>
       </c>
       <c r="C196" t="n">
-        <v>294.0961710611979</v>
+        <v>115.8638331095378</v>
       </c>
       <c r="D196" t="n">
-        <v>0.2185808631281058</v>
+        <v>0.114342567200462</v>
       </c>
       <c r="E196" t="n">
-        <v>294.1727142333984</v>
+        <v>115.786994934082</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3730,16 +3730,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>0.2348295450210571</v>
+        <v>0.1085941394170125</v>
       </c>
       <c r="C197" t="n">
-        <v>288.9684244791667</v>
+        <v>114.2676213582357</v>
       </c>
       <c r="D197" t="n">
-        <v>0.1608455901344617</v>
+        <v>0.09457941353321075</v>
       </c>
       <c r="E197" t="n">
-        <v>288.8944295247396</v>
+        <v>114.2536061604818</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3747,16 +3747,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>0.1839471533894539</v>
+        <v>0.1335832973321279</v>
       </c>
       <c r="C198" t="n">
-        <v>283.8109029134114</v>
+        <v>112.806884765625</v>
       </c>
       <c r="D198" t="n">
-        <v>0.116328040137887</v>
+        <v>0.08099009996900956</v>
       </c>
       <c r="E198" t="n">
-        <v>283.743278503418</v>
+        <v>112.7542908986409</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3764,16 +3764,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>0.2304011483987173</v>
+        <v>0.1644421244661013</v>
       </c>
       <c r="C199" t="n">
-        <v>278.8624471028646</v>
+        <v>111.3800557454427</v>
       </c>
       <c r="D199" t="n">
-        <v>0.1462546940892935</v>
+        <v>0.09434730062882106</v>
       </c>
       <c r="E199" t="n">
-        <v>278.7783025105794</v>
+        <v>111.3099613189697</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3781,16 +3781,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>0.3091485251983007</v>
+        <v>0.1444149116675059</v>
       </c>
       <c r="C200" t="n">
-        <v>274.0570678710938</v>
+        <v>109.9303334554036</v>
       </c>
       <c r="D200" t="n">
-        <v>0.2092896538476149</v>
+        <v>0.09319276921451092</v>
       </c>
       <c r="E200" t="n">
-        <v>273.9572118123372</v>
+        <v>109.8791122436523</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3798,16 +3798,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>0.1152484267950058</v>
+        <v>0.1249010438720385</v>
       </c>
       <c r="C201" t="n">
-        <v>269.0875752766927</v>
+        <v>108.5085983276367</v>
       </c>
       <c r="D201" t="n">
-        <v>0.1500304949780305</v>
+        <v>0.09114690249164899</v>
       </c>
       <c r="E201" t="n">
-        <v>269.1223551432292</v>
+        <v>108.4748446146647</v>
       </c>
     </row>
   </sheetData>
@@ -3842,7 +3842,7 @@
         <v>0.4764310344827585</v>
       </c>
       <c r="B2" t="n">
-        <v>0.756769061088562</v>
+        <v>0.5564337968826294</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3850,7 +3850,7 @@
         <v>0.4784327586206896</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7743149399757385</v>
+        <v>0.5801761150360107</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3858,7 +3858,7 @@
         <v>0.4815402298850573</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7919901013374329</v>
+        <v>0.5304318070411682</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3866,7 +3866,7 @@
         <v>0.4836706896551723</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7013800144195557</v>
+        <v>0.5358574390411377</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3874,7 +3874,7 @@
         <v>0.4873224137931034</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8016188144683838</v>
+        <v>0.5186318755149841</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3882,7 +3882,7 @@
         <v>0.4900448275862069</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4984304904937744</v>
+        <v>0.6950670480728149</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3890,7 +3890,7 @@
         <v>0.4906609195402298</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6574951410293579</v>
+        <v>0.6576524972915649</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3898,7 +3898,7 @@
         <v>0.4904586206896551</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6806709170341492</v>
+        <v>0.6452186107635498</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3906,7 +3906,7 @@
         <v>0.4941344827586207</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7786270380020142</v>
+        <v>0.6166356801986694</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3914,7 +3914,7 @@
         <v>0.500001724137931</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6603434681892395</v>
+        <v>0.6251382827758789</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3922,7 +3922,7 @@
         <v>0.5075488505747127</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7134525775909424</v>
+        <v>0.5661059021949768</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3930,7 +3930,7 @@
         <v>0.5158551724137931</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6877478361129761</v>
+        <v>0.5297858715057373</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>0.5198316091954023</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5830482244491577</v>
+        <v>0.4693208932876587</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3946,7 +3946,7 @@
         <v>0.5221126436781609</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6115986108779907</v>
+        <v>0.4294555485248566</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3954,7 +3954,7 @@
         <v>0.5241477011494252</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7259588837623596</v>
+        <v>0.4874716103076935</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3962,7 +3962,7 @@
         <v>0.5258402298850575</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6032655239105225</v>
+        <v>0.4751389026641846</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3970,7 +3970,7 @@
         <v>0.5250695402298851</v>
       </c>
       <c r="B18" t="n">
-        <v>0.591313898563385</v>
+        <v>0.4782137870788574</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3978,7 +3978,7 @@
         <v>0.5223919540229884</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5313012599945068</v>
+        <v>0.4440224170684814</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3986,7 +3986,7 @@
         <v>0.5182683908045975</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6236163377761841</v>
+        <v>0.5582902431488037</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3994,7 +3994,7 @@
         <v>0.5144683908045975</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7762429714202881</v>
+        <v>0.5054020881652832</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4002,7 +4002,7 @@
         <v>0.5127465517241379</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5734918117523193</v>
+        <v>0.4897622466087341</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4010,7 +4010,7 @@
         <v>0.5118160919540229</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6628057360649109</v>
+        <v>0.4615103900432587</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4018,7 +4018,7 @@
         <v>0.5113442528735631</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7041466236114502</v>
+        <v>0.623661994934082</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4026,7 +4026,7 @@
         <v>0.5113954022988505</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7927543520927429</v>
+        <v>0.5289732813835144</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4034,7 +4034,7 @@
         <v>0.5106971264367816</v>
       </c>
       <c r="B26" t="n">
-        <v>0.793199896812439</v>
+        <v>0.5933594703674316</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4042,7 +4042,7 @@
         <v>0.5099448275862069</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8707687854766846</v>
+        <v>0.4618121087551117</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4050,7 +4050,7 @@
         <v>0.5071856321839081</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6644653677940369</v>
+        <v>0.5124424695968628</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4058,7 +4058,7 @@
         <v>0.5042775862068966</v>
       </c>
       <c r="B29" t="n">
-        <v>0.723843514919281</v>
+        <v>0.4948703348636627</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4066,7 +4066,7 @@
         <v>0.5015017241379309</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6408010721206665</v>
+        <v>0.4851899445056915</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4074,7 +4074,7 @@
         <v>0.4992206896551724</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7419260740280151</v>
+        <v>0.5487467646598816</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4082,7 +4082,7 @@
         <v>0.4959385057471264</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6190037131309509</v>
+        <v>0.440340131521225</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4090,7 +4090,7 @@
         <v>0.4916557471264368</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5656512379646301</v>
+        <v>0.4295850992202759</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4098,7 +4098,7 @@
         <v>0.4879850574712644</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5628290176391602</v>
+        <v>0.5149108171463013</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4106,7 +4106,7 @@
         <v>0.4841086206896552</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6335204243659973</v>
+        <v>0.4576569497585297</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4114,7 +4114,7 @@
         <v>0.479937356321839</v>
       </c>
       <c r="B36" t="n">
-        <v>0.677819550037384</v>
+        <v>0.5902135372161865</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4122,7 +4122,7 @@
         <v>0.4752465517241379</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6079586744308472</v>
+        <v>0.4862541854381561</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4130,7 +4130,7 @@
         <v>0.4721764367816091</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5592888593673706</v>
+        <v>0.5408881902694702</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4138,7 +4138,7 @@
         <v>0.4692281609195402</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6022953391075134</v>
+        <v>0.4743617475032806</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4146,7 +4146,7 @@
         <v>0.4647189655172412</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4738801121711731</v>
+        <v>0.4149530529975891</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4154,7 +4154,7 @@
         <v>0.4592028735632183</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6851848363876343</v>
+        <v>0.4285043776035309</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4162,7 +4162,7 @@
         <v>0.4508442528735632</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4975088238716125</v>
+        <v>0.3523662388324738</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4170,7 +4170,7 @@
         <v>0.4450252873563217</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5093502998352051</v>
+        <v>0.4461526274681091</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4178,7 +4178,7 @@
         <v>0.4424959770114942</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5738055109977722</v>
+        <v>0.4468218088150024</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4186,7 +4186,7 @@
         <v>0.4428913793103447</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5922649502754211</v>
+        <v>0.4358592927455902</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4194,7 +4194,7 @@
         <v>0.4420350574712643</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5201448798179626</v>
+        <v>0.3533801138401031</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4202,7 +4202,7 @@
         <v>0.4407994252873562</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6076411604881287</v>
+        <v>0.4355292022228241</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4210,7 +4210,7 @@
         <v>0.4424488505747125</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5134154558181763</v>
+        <v>0.5683801174163818</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4218,7 +4218,7 @@
         <v>0.446022988505747</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5557025671005249</v>
+        <v>0.3578938245773315</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4226,7 +4226,7 @@
         <v>0.4531999999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5362777709960938</v>
+        <v>0.359942615032196</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4234,7 +4234,7 @@
         <v>0.4616310344827586</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6336415410041809</v>
+        <v>0.4987686276435852</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4242,7 +4242,7 @@
         <v>0.4699316091954022</v>
       </c>
       <c r="B52" t="n">
-        <v>0.463839054107666</v>
+        <v>0.4173109829425812</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4250,7 +4250,7 @@
         <v>0.4757379310344828</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6301789879798889</v>
+        <v>0.4123402833938599</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -4258,7 +4258,7 @@
         <v>0.4821367816091954</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4237287044525146</v>
+        <v>0.4601347744464874</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4266,7 +4266,7 @@
         <v>0.4903224137931034</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4508602023124695</v>
+        <v>0.5340808629989624</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -4274,7 +4274,7 @@
         <v>0.4994724137931035</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4561494588851929</v>
+        <v>0.492149829864502</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -4282,7 +4282,7 @@
         <v>0.5083517241379311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5804630517959595</v>
+        <v>0.5493276119232178</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4290,7 +4290,7 @@
         <v>0.5127241379310344</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5035074949264526</v>
+        <v>0.5000191330909729</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -4298,7 +4298,7 @@
         <v>0.5130126436781609</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6559257507324219</v>
+        <v>0.5674060583114624</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4306,7 +4306,7 @@
         <v>0.5111183908045976</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6068252921104431</v>
+        <v>0.4283190965652466</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -4314,7 +4314,7 @@
         <v>0.5127126436781609</v>
       </c>
       <c r="B61" t="n">
-        <v>0.578887939453125</v>
+        <v>0.5393916368484497</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -4322,7 +4322,7 @@
         <v>0.5164258620689655</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7263979911804199</v>
+        <v>0.5860838890075684</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -4330,7 +4330,7 @@
         <v>0.5221948275862068</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6406781673431396</v>
+        <v>0.4788131713867188</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -4338,7 +4338,7 @@
         <v>0.5285471264367816</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6263442635536194</v>
+        <v>0.5019087791442871</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4346,7 +4346,7 @@
         <v>0.5362212643678161</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4931619167327881</v>
+        <v>0.5573325157165527</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -4354,7 +4354,7 @@
         <v>0.5462827586206895</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6933684945106506</v>
+        <v>0.5274549126625061</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4362,7 +4362,7 @@
         <v>0.5550017241379309</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6991689205169678</v>
+        <v>0.5143206119537354</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4370,7 +4370,7 @@
         <v>0.5614321839080458</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7179940938949585</v>
+        <v>0.5303882360458374</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -4378,7 +4378,7 @@
         <v>0.5679316091954022</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5549446940422058</v>
+        <v>0.5482053160667419</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4386,7 +4386,7 @@
         <v>0.573417816091954</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6401978135108948</v>
+        <v>0.6067776679992676</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -4394,7 +4394,7 @@
         <v>0.5791534482758619</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7230215668678284</v>
+        <v>0.5879560708999634</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4402,7 +4402,7 @@
         <v>0.5867160919540229</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7178046107292175</v>
+        <v>0.5190128087997437</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4410,7 +4410,7 @@
         <v>0.5949902298850573</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8065861463546753</v>
+        <v>0.6406092643737793</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4418,7 +4418,7 @@
         <v>0.6034304597701148</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7453854084014893</v>
+        <v>0.5870552062988281</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -4426,7 +4426,7 @@
         <v>0.6162436781609193</v>
       </c>
       <c r="B75" t="n">
-        <v>0.7740724086761475</v>
+        <v>0.424509197473526</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4434,7 +4434,7 @@
         <v>0.6329810344827584</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4543007612228394</v>
+        <v>0.497156947851181</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -4442,7 +4442,7 @@
         <v>0.6492862068965516</v>
       </c>
       <c r="B77" t="n">
-        <v>0.592749297618866</v>
+        <v>0.4361721277236938</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -4450,7 +4450,7 @@
         <v>0.6657902298850573</v>
       </c>
       <c r="B78" t="n">
-        <v>0.7098740339279175</v>
+        <v>0.4323397874832153</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -4458,7 +4458,7 @@
         <v>0.680340804597701</v>
       </c>
       <c r="B79" t="n">
-        <v>0.7088959217071533</v>
+        <v>0.5942624807357788</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -4466,7 +4466,7 @@
         <v>0.6927614942528735</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5876341462135315</v>
+        <v>0.458412230014801</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -4474,7 +4474,7 @@
         <v>0.70465</v>
       </c>
       <c r="B81" t="n">
-        <v>0.609643280506134</v>
+        <v>0.3720698654651642</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -4482,7 +4482,7 @@
         <v>0.7187844827586207</v>
       </c>
       <c r="B82" t="n">
-        <v>0.4605004191398621</v>
+        <v>0.4626096189022064</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -4490,7 +4490,7 @@
         <v>0.7293166666666667</v>
       </c>
       <c r="B83" t="n">
-        <v>0.7165299654006958</v>
+        <v>0.5188081860542297</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -4498,7 +4498,7 @@
         <v>0.7379856321839081</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5880526900291443</v>
+        <v>0.5309051275253296</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4506,7 +4506,7 @@
         <v>0.7451810344827586</v>
       </c>
       <c r="B85" t="n">
-        <v>0.7293283343315125</v>
+        <v>0.4466137588024139</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -4514,7 +4514,7 @@
         <v>0.7524735632183908</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4377203583717346</v>
+        <v>0.5419574975967407</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -4522,7 +4522,7 @@
         <v>0.7625356321839081</v>
       </c>
       <c r="B87" t="n">
-        <v>0.6522431373596191</v>
+        <v>0.4481056332588196</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -4530,7 +4530,7 @@
         <v>0.7742241379310345</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6857950687408447</v>
+        <v>0.4391507506370544</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -4538,7 +4538,7 @@
         <v>0.7858741379310346</v>
       </c>
       <c r="B89" t="n">
-        <v>0.6060692071914673</v>
+        <v>0.5534585118293762</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -4546,7 +4546,7 @@
         <v>0.7984798850574714</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5847753882408142</v>
+        <v>0.4516651928424835</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -4554,7 +4554,7 @@
         <v>0.8108931034482759</v>
       </c>
       <c r="B91" t="n">
-        <v>0.6015779376029968</v>
+        <v>0.5085440874099731</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -4562,7 +4562,7 @@
         <v>0.8220522988505747</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6446955800056458</v>
+        <v>0.5271227955818176</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -4570,7 +4570,7 @@
         <v>0.8324344827586208</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6438004374504089</v>
+        <v>0.577858030796051</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -4578,7 +4578,7 @@
         <v>0.8434666666666668</v>
       </c>
       <c r="B94" t="n">
-        <v>0.724904477596283</v>
+        <v>0.5527985095977783</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -4586,7 +4586,7 @@
         <v>0.8553620689655174</v>
       </c>
       <c r="B95" t="n">
-        <v>0.667686402797699</v>
+        <v>0.5614052414894104</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -4594,7 +4594,7 @@
         <v>0.8696011494252874</v>
       </c>
       <c r="B96" t="n">
-        <v>0.838839590549469</v>
+        <v>0.6682207584381104</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -4602,7 +4602,7 @@
         <v>0.8849770114942529</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8863683938980103</v>
+        <v>0.6898355484008789</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -4610,7 +4610,7 @@
         <v>0.899922988505747</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9921344518661499</v>
+        <v>0.6001193523406982</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -4618,7 +4618,7 @@
         <v>0.9148298850574711</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5720587372779846</v>
+        <v>0.680245041847229</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4626,7 +4626,7 @@
         <v>0.9296988505747125</v>
       </c>
       <c r="B100" t="n">
-        <v>0.8646043539047241</v>
+        <v>0.7244197130203247</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4634,7 +4634,7 @@
         <v>0.9423752873563216</v>
       </c>
       <c r="B101" t="n">
-        <v>0.7743960022926331</v>
+        <v>0.7421455383300781</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -4642,7 +4642,7 @@
         <v>0.9523844827586204</v>
       </c>
       <c r="B102" t="n">
-        <v>0.8581077456474304</v>
+        <v>0.7691880464553833</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -4650,7 +4650,7 @@
         <v>0.9586948275862065</v>
       </c>
       <c r="B103" t="n">
-        <v>0.8540343642234802</v>
+        <v>0.8371388912200928</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -4658,7 +4658,7 @@
         <v>0.9611833333333328</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8987290859222412</v>
+        <v>0.5759413242340088</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -4666,7 +4666,7 @@
         <v>0.9616787356321834</v>
       </c>
       <c r="B105" t="n">
-        <v>0.8601669669151306</v>
+        <v>0.6365410089492798</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -4674,7 +4674,7 @@
         <v>0.9616787356321833</v>
       </c>
       <c r="B106" t="n">
-        <v>0.7563549876213074</v>
+        <v>0.5559536218643188</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -4682,7 +4682,7 @@
         <v>0.9617166666666661</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6433032751083374</v>
+        <v>0.7907929420471191</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -4690,7 +4690,7 @@
         <v>0.9617545977011489</v>
       </c>
       <c r="B108" t="n">
-        <v>0.610181987285614</v>
+        <v>0.6850229501724243</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -4698,7 +4698,7 @@
         <v>0.9617925287356317</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9427399635314941</v>
+        <v>0.5564651489257812</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -4706,7 +4706,7 @@
         <v>0.9618304597701144</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6411038041114807</v>
+        <v>0.6255238056182861</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -4714,7 +4714,7 @@
         <v>0.9630499999999995</v>
       </c>
       <c r="B111" t="n">
-        <v>0.7804695963859558</v>
+        <v>0.7708444595336914</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -4722,7 +4722,7 @@
         <v>0.9671798850574708</v>
       </c>
       <c r="B112" t="n">
-        <v>0.8461400270462036</v>
+        <v>0.6782678365707397</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -4730,7 +4730,7 @@
         <v>0.9714620689655168</v>
       </c>
       <c r="B113" t="n">
-        <v>0.7659463286399841</v>
+        <v>0.7495177984237671</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -4738,7 +4738,7 @@
         <v>0.9759505747126432</v>
       </c>
       <c r="B114" t="n">
-        <v>0.7345623373985291</v>
+        <v>0.7309716939926147</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -4746,7 +4746,7 @@
         <v>0.9805367816091949</v>
       </c>
       <c r="B115" t="n">
-        <v>0.8672226667404175</v>
+        <v>0.8518589735031128</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -4754,7 +4754,7 @@
         <v>0.9851229885057465</v>
       </c>
       <c r="B116" t="n">
-        <v>0.7697616815567017</v>
+        <v>0.7564483880996704</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -4762,7 +4762,7 @@
         <v>0.9900517241379305</v>
       </c>
       <c r="B117" t="n">
-        <v>1.038094997406006</v>
+        <v>0.8040986061096191</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -4770,7 +4770,7 @@
         <v>0.9949804597701144</v>
       </c>
       <c r="B118" t="n">
-        <v>0.7318126559257507</v>
+        <v>0.8214997053146362</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -4778,7 +4778,7 @@
         <v>0.9974908045977007</v>
       </c>
       <c r="B119" t="n">
-        <v>0.792219877243042</v>
+        <v>0.7878385782241821</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -4786,7 +4786,7 @@
         <v>0.9981752873563213</v>
       </c>
       <c r="B120" t="n">
-        <v>1.00331974029541</v>
+        <v>0.8053929805755615</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -4794,7 +4794,7 @@
         <v>0.9988597701149421</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9292636513710022</v>
+        <v>0.8007686138153076</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -4802,7 +4802,7 @@
         <v>0.9992022988505742</v>
       </c>
       <c r="B122" t="n">
-        <v>0.8464146256446838</v>
+        <v>0.9144788980484009</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -4810,7 +4810,7 @@
         <v>0.9995448275862064</v>
       </c>
       <c r="B123" t="n">
-        <v>1.070913195610046</v>
+        <v>0.7723221778869629</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -4818,7 +4818,7 @@
         <v>0.9995448275862064</v>
       </c>
       <c r="B124" t="n">
-        <v>0.9810614585876465</v>
+        <v>0.8566535711288452</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4826,7 +4826,7 @@
         <v>0.9996017241379306</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9263396263122559</v>
+        <v>0.8198328018188477</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -4834,7 +4834,7 @@
         <v>0.9996586206896547</v>
       </c>
       <c r="B126" t="n">
-        <v>0.994288444519043</v>
+        <v>0.8761500120162964</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -4842,7 +4842,7 @@
         <v>0.9997155172413789</v>
       </c>
       <c r="B127" t="n">
-        <v>0.938261866569519</v>
+        <v>0.8415151834487915</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -4850,7 +4850,7 @@
         <v>0.999772413793103</v>
       </c>
       <c r="B128" t="n">
-        <v>0.7842068672180176</v>
+        <v>0.8141788244247437</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -4858,7 +4858,7 @@
         <v>0.9998293103448271</v>
       </c>
       <c r="B129" t="n">
-        <v>1.037217378616333</v>
+        <v>0.9418591260910034</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -4866,7 +4866,7 @@
         <v>0.9998862068965513</v>
       </c>
       <c r="B130" t="n">
-        <v>0.9795740246772766</v>
+        <v>0.7923933267593384</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -4874,7 +4874,7 @@
         <v>0.9999431034482754</v>
       </c>
       <c r="B131" t="n">
-        <v>1.020043849945068</v>
+        <v>1.080199360847473</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -4882,7 +4882,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B132" t="n">
-        <v>0.9435776472091675</v>
+        <v>0.8520135879516602</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -4890,7 +4890,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8584967255592346</v>
+        <v>0.64525306224823</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -4898,7 +4898,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B134" t="n">
-        <v>0.9377049803733826</v>
+        <v>0.6939499378204346</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -4906,7 +4906,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B135" t="n">
-        <v>0.8199502229690552</v>
+        <v>0.8637094497680664</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -4914,7 +4914,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B136" t="n">
-        <v>0.948914647102356</v>
+        <v>0.902722954750061</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -4922,7 +4922,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B137" t="n">
-        <v>0.8894224166870117</v>
+        <v>0.7405630350112915</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -4930,7 +4930,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B138" t="n">
-        <v>0.7718546986579895</v>
+        <v>0.845247745513916</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -4938,7 +4938,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B139" t="n">
-        <v>0.9815521240234375</v>
+        <v>0.8662519454956055</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -4946,7 +4946,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B140" t="n">
-        <v>0.7627478241920471</v>
+        <v>0.8170843124389648</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -4954,7 +4954,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B141" t="n">
-        <v>1.106241464614868</v>
+        <v>0.8803138732910156</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -4962,7 +4962,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B142" t="n">
-        <v>1.052159070968628</v>
+        <v>0.7040879726409912</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -4970,7 +4970,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B143" t="n">
-        <v>1.110679864883423</v>
+        <v>0.7000421285629272</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -4978,7 +4978,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B144" t="n">
-        <v>1.129337549209595</v>
+        <v>0.8879185914993286</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -4986,7 +4986,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B145" t="n">
-        <v>0.6964695453643799</v>
+        <v>0.8875949382781982</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -4994,7 +4994,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B146" t="n">
-        <v>0.9908782243728638</v>
+        <v>0.8182729482650757</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -5002,7 +5002,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B147" t="n">
-        <v>0.9906874895095825</v>
+        <v>0.8666902780532837</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -5010,7 +5010,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B148" t="n">
-        <v>0.7910652160644531</v>
+        <v>0.726127028465271</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -5018,7 +5018,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B149" t="n">
-        <v>1.06830096244812</v>
+        <v>0.7498230934143066</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -5026,7 +5026,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B150" t="n">
-        <v>0.8900398015975952</v>
+        <v>0.9138631820678711</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -5034,7 +5034,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B151" t="n">
-        <v>0.871088445186615</v>
+        <v>0.7406713962554932</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -5042,7 +5042,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B152" t="n">
-        <v>0.8877451419830322</v>
+        <v>0.757577657699585</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -5050,7 +5050,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B153" t="n">
-        <v>0.7954987287521362</v>
+        <v>0.8641679286956787</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -5058,7 +5058,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B154" t="n">
-        <v>0.7852868437767029</v>
+        <v>0.9853103160858154</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -5066,7 +5066,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B155" t="n">
-        <v>0.8504029512405396</v>
+        <v>0.9342296123504639</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -5074,7 +5074,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B156" t="n">
-        <v>0.5222958326339722</v>
+        <v>0.8135192394256592</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -5082,7 +5082,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B157" t="n">
-        <v>0.9018988013267517</v>
+        <v>0.9136030673980713</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -5090,7 +5090,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B158" t="n">
-        <v>1.195982813835144</v>
+        <v>1.085960268974304</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -5098,7 +5098,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B159" t="n">
-        <v>0.9694749116897583</v>
+        <v>0.9490325450897217</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -5106,7 +5106,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B160" t="n">
-        <v>0.7908432483673096</v>
+        <v>0.8765395879745483</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -5114,7 +5114,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B161" t="n">
-        <v>1.077380537986755</v>
+        <v>0.8866966962814331</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -5122,7 +5122,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B162" t="n">
-        <v>1.127129554748535</v>
+        <v>1.024816513061523</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -5130,7 +5130,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B163" t="n">
-        <v>0.9037651419639587</v>
+        <v>0.7741538286209106</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -5138,7 +5138,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B164" t="n">
-        <v>0.9509571194648743</v>
+        <v>0.6500066518783569</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -5146,7 +5146,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B165" t="n">
-        <v>0.9324228763580322</v>
+        <v>0.7878881692886353</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -5154,7 +5154,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B166" t="n">
-        <v>0.9830872416496277</v>
+        <v>1.038371801376343</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -5162,7 +5162,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B167" t="n">
-        <v>1.132215619087219</v>
+        <v>0.9187608957290649</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -5170,7 +5170,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B168" t="n">
-        <v>1.005894780158997</v>
+        <v>0.9140253067016602</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -5178,7 +5178,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B169" t="n">
-        <v>0.8451586961746216</v>
+        <v>0.9402134418487549</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -5186,7 +5186,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B170" t="n">
-        <v>1.094111084938049</v>
+        <v>0.9892532825469971</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -5194,7 +5194,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B171" t="n">
-        <v>1.01480770111084</v>
+        <v>0.9956121444702148</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -5202,7 +5202,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B172" t="n">
-        <v>1.235904097557068</v>
+        <v>1.053865790367126</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -5210,7 +5210,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B173" t="n">
-        <v>0.926651656627655</v>
+        <v>0.8176931142807007</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -5218,7 +5218,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B174" t="n">
-        <v>1.176475286483765</v>
+        <v>0.9371817111968994</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -5226,7 +5226,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B175" t="n">
-        <v>0.9665027856826782</v>
+        <v>0.7949836254119873</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -5234,7 +5234,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B176" t="n">
-        <v>0.8667523860931396</v>
+        <v>0.9688417911529541</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -5242,7 +5242,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B177" t="n">
-        <v>0.9105550050735474</v>
+        <v>0.8763023614883423</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -5250,7 +5250,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B178" t="n">
-        <v>1.003881335258484</v>
+        <v>0.990849494934082</v>
       </c>
     </row>
   </sheetData>
